--- a/Other/Seventh Semester/Proyectos de Inversion/Casos.xlsx
+++ b/Other/Seventh Semester/Proyectos de Inversion/Casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalor\Documents\Git\School\Other\Seventh Semester\Proyectos de Inversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9679392B-6E40-491E-A495-7D29703C2458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F2C5E7-70E3-4612-A652-64EE8AB08140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
+    <workbookView minimized="1" xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Fresadora" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
   <si>
     <t xml:space="preserve">Reemplazo vieja maquinaria fresadora </t>
   </si>
@@ -465,6 +465,30 @@
   </si>
   <si>
     <t>Pago con IVA</t>
+  </si>
+  <si>
+    <t>Lo dificil es organizar la informacion</t>
+  </si>
+  <si>
+    <t>Gasto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganancia </t>
+  </si>
+  <si>
+    <t>^ Inicial nueva</t>
+  </si>
+  <si>
+    <t>Respuesta 2:</t>
+  </si>
+  <si>
+    <t>Te vas por el gas, dependiendo de si te conviene</t>
+  </si>
+  <si>
+    <t>NOS QUEDAMOS CON TASA, NO CON CAT</t>
+  </si>
+  <si>
+    <t>IVA es sobre los intereses</t>
   </si>
 </sst>
 </file>
@@ -561,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -591,19 +615,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -623,7 +634,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -664,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -697,6 +707,9 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1030,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F780256-FAFA-45AD-BD21-220A3A64CB91}">
-  <dimension ref="B2:R16"/>
+  <dimension ref="B2:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,18 +1070,18 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>0.1</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1109,7 +1122,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>0</v>
       </c>
       <c r="F6" s="6">
@@ -1124,7 +1137,7 @@
         <v>-48000</v>
       </c>
       <c r="L6" s="7">
-        <v>-80000</v>
+        <v>-72000</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -1132,11 +1145,11 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7">
         <f>SUM(L6:P6)</f>
-        <v>-80000</v>
+        <v>-72000</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>1</v>
       </c>
       <c r="F7" s="6"/>
@@ -1167,7 +1180,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>2</v>
       </c>
       <c r="F8" s="6"/>
@@ -1198,7 +1211,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>3</v>
       </c>
       <c r="F9" s="6"/>
@@ -1229,7 +1242,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>4</v>
       </c>
       <c r="F10" s="6"/>
@@ -1256,13 +1269,13 @@
       <c r="P10" s="7">
         <v>410000</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="7">
         <f t="shared" si="1"/>
         <v>290000</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>5</v>
       </c>
       <c r="F11" s="6"/>
@@ -1282,12 +1295,12 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="2:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>6</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="H12" s="6">
         <v>-142000</v>
@@ -1298,39 +1311,42 @@
       </c>
       <c r="K12" s="6">
         <f t="shared" si="0"/>
-        <v>266000</v>
+        <v>258000</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="9">
         <f>NPV(C4,Q7:Q10)</f>
         <v>910658.42497097177</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="15" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
       <c r="P13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="9">
         <f>Q12+Q6</f>
-        <v>830658.42497097177</v>
+        <v>838658.42497097177</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="J14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <f>NPV(C4,K7:K12)</f>
-        <v>1128173.0519016841</v>
+        <v>1123657.260461254</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="9">
         <f>-PMT(C4,E10,Q13)</f>
-        <v>262048.48093083382</v>
+        <v>264572.24736048258</v>
       </c>
       <c r="R14" t="s">
         <v>14</v>
@@ -1340,22 +1356,25 @@
       <c r="J15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <f>K14+K6</f>
-        <v>1080173.0519016841</v>
+        <v>1075657.260461254</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="J16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <f>-PMT(C4,E12,K15)</f>
-        <v>248015.70478549326</v>
+        <v>246978.84574259201</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1369,13 +1388,13 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
@@ -1386,158 +1405,158 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>20000</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>-2000000</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <v>-1200000</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>30000</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>-30</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>-31</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>50000</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>40000</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>0</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>80000</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>80000</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>-2500000</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>-1200000</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>80000</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>36</v>
       </c>
       <c r="I10" t="s">
@@ -1546,47 +1565,47 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="29">
         <f>NPV(J6,K13:K18)</f>
         <v>3541362.2682061666</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>0</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <f>F7</f>
         <v>-2500000</v>
       </c>
@@ -1594,284 +1613,284 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="16">
+      <c r="I12" s="15">
         <f>SUM(C12:G12)</f>
         <v>-2500000</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16">
+      <c r="J12" s="15"/>
+      <c r="K12" s="15">
         <f>I12+J12</f>
         <v>-2500000</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="29">
         <f>M11+K12</f>
         <v>1041362.2682061666</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <f>$F$3</f>
         <v>-2000000</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <f>$F$4*H13</f>
         <v>-600000</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <f>H13*$J$3</f>
         <v>1800000</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <f>C3</f>
         <v>20000</v>
       </c>
-      <c r="I13" s="16">
-        <f t="shared" ref="I13:I18" si="0">SUM(C13:G13)</f>
+      <c r="I13" s="15">
+        <f>SUM(C13:G13)</f>
         <v>-800000</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <f>MIN(0,I13*$J$4*-1)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <f>I13+J13</f>
         <v>-800000</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>2</v>
       </c>
-      <c r="C14" s="29">
-        <f t="shared" ref="C14:C18" si="1">$F$3</f>
+      <c r="C14" s="28">
+        <f t="shared" ref="C14:C18" si="0">$F$3</f>
         <v>-2000000</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <f>$F$4*H14</f>
         <v>-900000</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="21">
-        <f t="shared" ref="G14:G17" si="2">H14*$J$3</f>
+      <c r="G14" s="20">
+        <f t="shared" ref="G14:G17" si="1">H14*$J$3</f>
         <v>2700000</v>
       </c>
-      <c r="H14" s="15">
-        <f t="shared" ref="H14:H18" si="3">C4</f>
+      <c r="H14" s="14">
+        <f t="shared" ref="H14:H18" si="2">C4</f>
         <v>30000</v>
       </c>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
+      <c r="I14" s="15">
+        <f t="shared" ref="I13:I18" si="3">SUM(C14:G14)</f>
         <v>-200000</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <f t="shared" ref="J14:J17" si="4">MIN(0,I14*$J$4*-1)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <f t="shared" ref="K14:K16" si="5">I14+J14</f>
         <v>-200000</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>3</v>
       </c>
-      <c r="C15" s="29">
-        <f t="shared" si="1"/>
+      <c r="C15" s="28">
+        <f t="shared" si="0"/>
         <v>-2000000</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <f>$F$4*H15</f>
         <v>-1500000</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
+        <f t="shared" si="1"/>
+        <v>4500000</v>
+      </c>
+      <c r="H15" s="14">
         <f t="shared" si="2"/>
-        <v>4500000</v>
-      </c>
-      <c r="H15" s="15">
-        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="I15" s="16">
-        <f t="shared" si="0"/>
+      <c r="I15" s="15">
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="15">
         <f t="shared" si="4"/>
         <v>-200000</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <f t="shared" si="5"/>
         <v>800000</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>4</v>
       </c>
-      <c r="C16" s="29">
-        <f t="shared" si="1"/>
+      <c r="C16" s="28">
+        <f t="shared" si="0"/>
         <v>-2000000</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="29">
+      <c r="E16" s="28">
         <f>$F$4*H16</f>
         <v>-2400000</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
+        <f t="shared" si="1"/>
+        <v>7200000</v>
+      </c>
+      <c r="H16" s="14">
         <f t="shared" si="2"/>
-        <v>7200000</v>
-      </c>
-      <c r="H16" s="15">
-        <f t="shared" si="3"/>
         <v>80000</v>
       </c>
-      <c r="I16" s="16">
-        <f t="shared" si="0"/>
+      <c r="I16" s="15">
+        <f t="shared" si="3"/>
         <v>2800000</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="15">
         <f t="shared" si="4"/>
         <v>-560000</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <f t="shared" si="5"/>
         <v>2240000</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>5</v>
       </c>
-      <c r="C17" s="29">
-        <f t="shared" si="1"/>
+      <c r="C17" s="28">
+        <f t="shared" si="0"/>
         <v>-2000000</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <f t="shared" ref="E17" si="6">$F$4*H17</f>
         <v>-2400000</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
+        <f t="shared" si="1"/>
+        <v>7200000</v>
+      </c>
+      <c r="H17" s="14">
         <f t="shared" si="2"/>
-        <v>7200000</v>
-      </c>
-      <c r="H17" s="15">
-        <f t="shared" si="3"/>
         <v>80000</v>
       </c>
-      <c r="I17" s="16">
-        <f t="shared" si="0"/>
+      <c r="I17" s="15">
+        <f t="shared" si="3"/>
         <v>2800000</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="15">
         <f t="shared" si="4"/>
         <v>-560000</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <f>I17+J17</f>
         <v>2240000</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>6</v>
       </c>
-      <c r="C18" s="29">
-        <f t="shared" si="1"/>
+      <c r="C18" s="28">
+        <f t="shared" si="0"/>
         <v>-2000000</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <f>$F$4*H18</f>
         <v>-2400000</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="28">
         <f>F5</f>
         <v>40000</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <f>H18*$J$3</f>
         <v>7200000</v>
       </c>
-      <c r="H18" s="15">
-        <f t="shared" si="3"/>
+      <c r="H18" s="14">
+        <f t="shared" si="2"/>
         <v>80000</v>
       </c>
-      <c r="I18" s="16">
-        <f t="shared" si="0"/>
+      <c r="I18" s="15">
+        <f t="shared" si="3"/>
         <v>2840000</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="15">
         <f>MIN(0,I18*$J$4*-1)</f>
         <v>-568000</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <f>I18+J18</f>
         <v>2272000</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="L22" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="29">
         <f>NPV(J6,K24:K29)</f>
         <v>3055979.2628655988</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>0</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="29">
+      <c r="D23" s="28">
         <f>$G$7</f>
         <v>-1200000</v>
       </c>
@@ -1879,249 +1898,249 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="16">
+      <c r="I23" s="15">
         <f>SUM(C23:G23)</f>
         <v>-1200000</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16">
+      <c r="J23" s="15"/>
+      <c r="K23" s="15">
         <f>I23</f>
         <v>-1200000</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="30">
+      <c r="M23" s="29">
         <f>M22+K23</f>
         <v>1855979.2628655988</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>1</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="28">
         <f>$G$3</f>
         <v>-1200000</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="29">
+      <c r="E24" s="28">
         <f>$G$4*H24</f>
         <v>-620000</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="28">
         <f>$G$5</f>
         <v>0</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="20">
         <f>H24*$J$3</f>
         <v>1800000</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <f>C3</f>
         <v>20000</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="15">
         <f t="shared" ref="I24:I29" si="7">SUM(C24:G24)</f>
         <v>-20000</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="15">
         <f>MIN(0,I24*$J$4*-1)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="15">
         <f>J24+I24</f>
         <v>-20000</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>2</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="28">
         <f t="shared" ref="C25:C26" si="8">$G$3</f>
         <v>-1200000</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="29">
+      <c r="E25" s="28">
         <f t="shared" ref="E25:E26" si="9">$G$4*H25</f>
         <v>-930000</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="28">
         <f t="shared" ref="F25:F29" si="10">$G$5</f>
         <v>0</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="20">
         <f t="shared" ref="G25:G28" si="11">H25*$J$3</f>
         <v>2700000</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <f t="shared" ref="H25:H29" si="12">C4</f>
         <v>30000</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="15">
         <f t="shared" si="7"/>
         <v>570000</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="15">
         <f>MIN(0,I25*$J$4*-1)</f>
         <v>-114000</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="15">
         <f>J25+I25</f>
         <v>456000</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>3</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="28">
         <f t="shared" si="8"/>
         <v>-1200000</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="28">
         <f>$G$7*2</f>
         <v>-2400000</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="28">
         <f t="shared" si="9"/>
         <v>-1550000</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="20">
         <f t="shared" si="11"/>
         <v>4500000</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="14">
         <f t="shared" si="12"/>
         <v>50000</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="15">
         <f t="shared" si="7"/>
         <v>-650000</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="15">
         <f>MIN(0,I26*$J$4*-1)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="15">
         <f t="shared" ref="K26:K29" si="13">J26+I26</f>
         <v>-650000</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>4</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="28">
         <f>$G$3*2</f>
         <v>-2400000</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="28">
         <f>$G$4*H27</f>
         <v>-2480000</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="20">
         <f t="shared" si="11"/>
         <v>7200000</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <f t="shared" si="12"/>
         <v>80000</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="15">
         <f t="shared" si="7"/>
         <v>2320000</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="15">
         <f t="shared" ref="J27:J29" si="14">MIN(0,I27*$J$4*-1)</f>
         <v>-464000</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="15">
         <f t="shared" si="13"/>
         <v>1856000</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>5</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="28">
         <f t="shared" ref="C28:C29" si="15">$G$3*2</f>
         <v>-2400000</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="29">
+      <c r="E28" s="28">
         <f>$G$4*H28</f>
         <v>-2480000</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="20">
         <f t="shared" si="11"/>
         <v>7200000</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <f t="shared" si="12"/>
         <v>80000</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="15">
         <f t="shared" si="7"/>
         <v>2320000</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="15">
         <f t="shared" si="14"/>
         <v>-464000</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="15">
         <f t="shared" si="13"/>
         <v>1856000</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>6</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="28">
         <f t="shared" si="15"/>
         <v>-2400000</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="29">
+      <c r="E29" s="28">
         <f>$G$4*H29</f>
         <v>-2480000</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="20">
         <f>H29*$J$3</f>
         <v>7200000</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <f t="shared" si="12"/>
         <v>80000</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="15">
         <f t="shared" si="7"/>
         <v>2320000</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="15">
         <f t="shared" si="14"/>
         <v>-464000</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="15">
         <f t="shared" si="13"/>
         <v>1856000</v>
       </c>
@@ -2140,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB1DD7-39B3-4B02-8727-4912941BB3F7}">
-  <dimension ref="B2:J30"/>
+  <dimension ref="B2:N30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2155,24 +2174,24 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>-12000</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
@@ -2182,83 +2201,83 @@
       <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <v>-550</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>0</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>-20000</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <v>-800</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>6</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>-450</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>-1500</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>11</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <v>-2500</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>16</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="s">
         <v>40</v>
@@ -2276,17 +2295,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <f>C2</f>
         <v>-12000</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <f>SUM(C10:F10)</f>
         <v>-12000</v>
       </c>
@@ -2294,133 +2313,136 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <f>$C$4</f>
         <v>-20000</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <f>$C$5</f>
         <v>-450</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <f>$E$3</f>
         <v>-550</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="28">
         <f t="shared" ref="G11:G30" si="0">SUM(C11:F11)</f>
         <v>-21000</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <f>NPV(C6,G11:G15)</f>
         <v>-86104.146154899456</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <f t="shared" ref="D12:D30" si="1">$C$4</f>
         <v>-20000</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <f t="shared" ref="E12:E30" si="2">$C$5</f>
         <v>-450</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="28">
         <f t="shared" ref="F12:F15" si="3">$E$3</f>
         <v>-550</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="28">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <f>J11+G10</f>
         <v>-98104.146154899456</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="28">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="28">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="10">
-        <f>PMT(C6,B15,J12)</f>
-        <v>23926.68833329649</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="9">
+        <f>-PMT(C6,B15,J12)</f>
+        <v>-23926.68833329649</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="28">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="28">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
@@ -2428,133 +2450,142 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28">
         <f>$E$4</f>
         <v>-800</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="28">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <f>NPV(C6,G11:G20)</f>
         <v>-148226.05838583087</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="28">
         <f t="shared" ref="F17:F20" si="4">$E$4</f>
         <v>-800</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <f>J16+G10</f>
         <v>-160226.05838583087</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>8</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="28">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="28">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="10">
-        <f>PMT(C6,B20,J17)</f>
-        <v>22812.586064823532</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="9">
+        <f>-PMT(C6,B20,J17)</f>
+        <v>-22812.586064823532</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>9</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="28">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="28">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>10</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="29">
+      <c r="D20" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="28">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="28">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
@@ -2562,133 +2593,136 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>11</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="28">
         <f>$E$5</f>
         <v>-1500</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <f>NPV(C6,G11:G25)</f>
         <v>-193977.15597450593</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>12</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="29">
+      <c r="D22" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="28">
         <f t="shared" ref="F22:F25" si="5">$E$5</f>
         <v>-1500</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="28">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <f>J21+G10</f>
         <v>-205977.15597450593</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>13</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="29">
+      <c r="D23" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="28">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="28">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="10">
-        <f>PMT(C6,B25,J22)</f>
-        <v>22615.184537201567</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="9">
+        <f>-PMT(C6,B25,J22)</f>
+        <v>-22615.184537201567</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>14</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="29">
+      <c r="D24" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="28">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="28">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>15</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="29">
+      <c r="D25" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="28">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="28">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
@@ -2696,133 +2730,136 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>16</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="29">
+      <c r="D26" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="28">
         <f>$E$6</f>
         <v>-2500</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="28">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <f>NPV(C6,G11:G30)</f>
         <v>-228083.15649184689</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>17</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="29">
+      <c r="D27" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="28">
         <f t="shared" ref="F27:F30" si="6">$E$6</f>
         <v>-2500</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="28">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <f>J26+G10</f>
         <v>-240083.15649184689</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>18</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="29">
+      <c r="D28" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="28">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="28">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="10">
-        <f>PMT(C6,B30,J27)</f>
-        <v>22662.151562941341</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J28" s="9">
+        <f>-PMT(C6,B30,J27)</f>
+        <v>-22662.151562941341</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>19</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="29">
+      <c r="D29" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="28">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="28">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>20</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="29">
+      <c r="D30" s="28">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="28">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="28">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="28">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
@@ -2835,12 +2872,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3719ECC-99D3-421D-96A2-DB3C0A57A488}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2850,7 +2905,7 @@
   <dimension ref="B3:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2859,17 +2914,17 @@
     <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2896,110 +2951,110 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>0</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>-1100000</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>600000</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="28">
         <f>SUM(C4:G4)</f>
         <v>-500000</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="29">
+      <c r="J4" s="28">
         <f>H4+I4</f>
         <v>-500000</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="16">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="15">
         <v>-60000</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>950000</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <f>G9</f>
         <v>-369069.76744186052</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="28">
         <f t="shared" ref="H5" si="0">SUM(C5:G5)</f>
         <v>520930.23255813948</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <f>MIN(0,I8*H5*-1)</f>
         <v>-130232.55813953487</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="28">
         <f>I5+H5</f>
         <v>390697.67441860458</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="17">
+      <c r="C6" s="12"/>
+      <c r="D6" s="16">
         <v>350000</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>-80000</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>950000</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="33">
         <f>G9</f>
         <v>-369069.76744186052</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <f>SUM(C6:G6)</f>
         <v>850930.23255813948</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <f>MIN(0,I8*H6*-1)</f>
         <v>-212732.55813953487</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="28">
         <f>I6+H6</f>
         <v>638197.67441860458</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>0.15</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>0.25</v>
       </c>
     </row>
@@ -3007,7 +3062,7 @@
       <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f>PMT(G8,B6,G4)</f>
         <v>-369069.76744186052</v>
       </c>
@@ -3018,7 +3073,7 @@
       <c r="F11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="49">
         <f>IRR(J4:J6)</f>
         <v>0.5861222942225115</v>
       </c>
@@ -3034,7 +3089,7 @@
   <dimension ref="B2:O91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F83"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3050,13 +3105,13 @@
       <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="38">
         <v>-11999</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -3073,63 +3128,68 @@
       <c r="B4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="40" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="43">
         <f>EFFECT(C4,C6)</f>
         <v>9.5980203157880473E-2</v>
       </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="2">
         <v>12</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="43">
         <f>C5/C6</f>
         <v>7.9983502631567061E-3</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J8" s="46"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="44"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J9" s="46"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -3153,2049 +3213,2049 @@
       <c r="I10" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>0</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="49"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <f>NPV(C7,D12:D83)</f>
         <v>-654832.52962543443</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <f>NPV(C7,E12:E83)</f>
         <v>-482959.36645717744</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <f>NPV(C7,F12:F83)</f>
         <v>-171873.163168258</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="48">
         <f>D12*1.16</f>
         <v>-13918.839999999998</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="48">
         <f t="shared" ref="D12:D75" si="0">$C$2</f>
         <v>-11999</v>
       </c>
-      <c r="E12" s="10">
-        <f>-PPMT($C$7,B12,$C$3,$H$11)</f>
+      <c r="E12" s="9">
+        <f t="shared" ref="E12:E43" si="1">-PPMT($C$7,B12,$C$3,$H$11)</f>
         <v>-6761.4200643468548</v>
       </c>
-      <c r="F12" s="10">
-        <f>-IPMT($C$7,B12,$C$3,$H$11)</f>
+      <c r="F12" s="9">
+        <f t="shared" ref="F12:F43" si="2">-IPMT($C$7,B12,$C$3,$H$11)</f>
         <v>-5237.5799356531652</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
+      <c r="G12" s="29"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="49">
-        <f t="shared" ref="C13:C76" si="1">D13*1.16</f>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D13" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E13" s="10">
-        <f>-PPMT($C$7,B13,$C$3,$H$11)</f>
+      <c r="C13" s="48">
+        <f t="shared" ref="C13:C76" si="3">D13*1.16</f>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D13" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="1"/>
         <v>-6815.5002702978372</v>
       </c>
-      <c r="F13" s="10">
-        <f>-IPMT($C$7,B13,$C$3,$H$11)</f>
+      <c r="F13" s="9">
+        <f t="shared" si="2"/>
         <v>-5183.4997297021828</v>
       </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D14" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E14" s="10">
-        <f>-PPMT($C$7,B14,$C$3,$H$11)</f>
+      <c r="C14" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D14" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="1"/>
         <v>-6870.0130286783178</v>
       </c>
-      <c r="F14" s="10">
-        <f>-IPMT($C$7,B14,$C$3,$H$11)</f>
+      <c r="F14" s="9">
+        <f t="shared" si="2"/>
         <v>-5128.9869713217022</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>4</v>
       </c>
-      <c r="C15" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D15" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E15" s="10">
-        <f>-PPMT($C$7,B15,$C$3,$H$11)</f>
+      <c r="C15" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D15" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="1"/>
         <v>-6924.9617991941368</v>
       </c>
-      <c r="F15" s="10">
-        <f>-IPMT($C$7,B15,$C$3,$H$11)</f>
+      <c r="F15" s="9">
+        <f t="shared" si="2"/>
         <v>-5074.0382008058832</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D16" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E16" s="10">
-        <f>-PPMT($C$7,B16,$C$3,$H$11)</f>
+      <c r="C16" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D16" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="1"/>
         <v>-6980.3500692230728</v>
       </c>
-      <c r="F16" s="10">
-        <f>-IPMT($C$7,B16,$C$3,$H$11)</f>
+      <c r="F16" s="9">
+        <f t="shared" si="2"/>
         <v>-5018.6499307769491</v>
       </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D17" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E17" s="10">
-        <f>-PPMT($C$7,B17,$C$3,$H$11)</f>
+      <c r="C17" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D17" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="1"/>
         <v>-7036.1813540361682</v>
       </c>
-      <c r="F17" s="10">
-        <f>-IPMT($C$7,B17,$C$3,$H$11)</f>
+      <c r="F17" s="9">
+        <f t="shared" si="2"/>
         <v>-4962.8186459638509</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>7</v>
       </c>
-      <c r="C18" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D18" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E18" s="10">
-        <f>-PPMT($C$7,B18,$C$3,$H$11)</f>
+      <c r="C18" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D18" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="1"/>
         <v>-7092.4591970208403</v>
       </c>
-      <c r="F18" s="10">
-        <f>-IPMT($C$7,B18,$C$3,$H$11)</f>
+      <c r="F18" s="9">
+        <f t="shared" si="2"/>
         <v>-4906.5408029791797</v>
       </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>8</v>
       </c>
-      <c r="C19" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D19" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E19" s="10">
-        <f>-PPMT($C$7,B19,$C$3,$H$11)</f>
+      <c r="C19" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D19" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="1"/>
         <v>-7149.187169905761</v>
       </c>
-      <c r="F19" s="10">
-        <f>-IPMT($C$7,B19,$C$3,$H$11)</f>
+      <c r="F19" s="9">
+        <f t="shared" si="2"/>
         <v>-4849.8128300942581</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>9</v>
       </c>
-      <c r="C20" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D20" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E20" s="10">
-        <f>-PPMT($C$7,B20,$C$3,$H$11)</f>
+      <c r="C20" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D20" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="1"/>
         <v>-7206.3688729875339</v>
       </c>
-      <c r="F20" s="10">
-        <f>-IPMT($C$7,B20,$C$3,$H$11)</f>
+      <c r="F20" s="9">
+        <f t="shared" si="2"/>
         <v>-4792.6311270124861</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>10</v>
       </c>
-      <c r="C21" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D21" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E21" s="10">
-        <f>-PPMT($C$7,B21,$C$3,$H$11)</f>
+      <c r="C21" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D21" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="1"/>
         <v>-7264.0079353591982</v>
       </c>
-      <c r="F21" s="10">
-        <f>-IPMT($C$7,B21,$C$3,$H$11)</f>
+      <c r="F21" s="9">
+        <f t="shared" si="2"/>
         <v>-4734.9920646408218</v>
       </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>11</v>
       </c>
-      <c r="C22" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D22" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E22" s="10">
-        <f>-PPMT($C$7,B22,$C$3,$H$11)</f>
+      <c r="C22" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D22" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="1"/>
         <v>-7322.1080151405504</v>
       </c>
-      <c r="F22" s="10">
-        <f>-IPMT($C$7,B22,$C$3,$H$11)</f>
+      <c r="F22" s="9">
+        <f t="shared" si="2"/>
         <v>-4676.8919848594696</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>12</v>
       </c>
-      <c r="C23" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D23" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E23" s="10">
-        <f>-PPMT($C$7,B23,$C$3,$H$11)</f>
+      <c r="C23" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D23" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="1"/>
         <v>-7380.6727997103117</v>
       </c>
-      <c r="F23" s="10">
-        <f>-IPMT($C$7,B23,$C$3,$H$11)</f>
+      <c r="F23" s="9">
+        <f t="shared" si="2"/>
         <v>-4618.3272002897083</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>13</v>
       </c>
-      <c r="C24" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D24" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E24" s="10">
-        <f>-PPMT($C$7,B24,$C$3,$H$11)</f>
+      <c r="C24" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D24" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="1"/>
         <v>-7439.7060059401474</v>
       </c>
-      <c r="F24" s="10">
-        <f>-IPMT($C$7,B24,$C$3,$H$11)</f>
+      <c r="F24" s="9">
+        <f t="shared" si="2"/>
         <v>-4559.2939940598735</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>14</v>
       </c>
-      <c r="C25" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D25" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E25" s="10">
-        <f>-PPMT($C$7,B25,$C$3,$H$11)</f>
+      <c r="C25" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D25" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="1"/>
         <v>-7499.2113804305673</v>
       </c>
-      <c r="F25" s="10">
-        <f>-IPMT($C$7,B25,$C$3,$H$11)</f>
+      <c r="F25" s="9">
+        <f t="shared" si="2"/>
         <v>-4499.7886195694518</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>15</v>
       </c>
-      <c r="C26" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D26" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E26" s="10">
-        <f>-PPMT($C$7,B26,$C$3,$H$11)</f>
+      <c r="C26" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D26" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="1"/>
         <v>-7559.1926997487035</v>
       </c>
-      <c r="F26" s="10">
-        <f>-IPMT($C$7,B26,$C$3,$H$11)</f>
+      <c r="F26" s="9">
+        <f t="shared" si="2"/>
         <v>-4439.8073002513174</v>
       </c>
-      <c r="J26" s="46"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>16</v>
       </c>
-      <c r="C27" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D27" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E27" s="10">
-        <f>-PPMT($C$7,B27,$C$3,$H$11)</f>
+      <c r="C27" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D27" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="1"/>
         <v>-7619.6537706679901</v>
       </c>
-      <c r="F27" s="10">
-        <f>-IPMT($C$7,B27,$C$3,$H$11)</f>
+      <c r="F27" s="9">
+        <f t="shared" si="2"/>
         <v>-4379.3462293320308</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>17</v>
       </c>
-      <c r="C28" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D28" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E28" s="10">
-        <f>-PPMT($C$7,B28,$C$3,$H$11)</f>
+      <c r="C28" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D28" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="1"/>
         <v>-7680.5984304097747</v>
       </c>
-      <c r="F28" s="10">
-        <f>-IPMT($C$7,B28,$C$3,$H$11)</f>
+      <c r="F28" s="9">
+        <f t="shared" si="2"/>
         <v>-4318.4015695902444</v>
       </c>
-      <c r="J28" s="46"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>18</v>
       </c>
-      <c r="C29" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D29" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E29" s="10">
-        <f>-PPMT($C$7,B29,$C$3,$H$11)</f>
+      <c r="C29" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D29" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="1"/>
         <v>-7742.0305468868437</v>
       </c>
-      <c r="F29" s="10">
-        <f>-IPMT($C$7,B29,$C$3,$H$11)</f>
+      <c r="F29" s="9">
+        <f t="shared" si="2"/>
         <v>-4256.9694531131754</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>19</v>
       </c>
-      <c r="C30" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D30" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E30" s="10">
-        <f>-PPMT($C$7,B30,$C$3,$H$11)</f>
+      <c r="C30" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D30" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="1"/>
         <v>-7803.9540189489044</v>
       </c>
-      <c r="F30" s="10">
-        <f>-IPMT($C$7,B30,$C$3,$H$11)</f>
+      <c r="F30" s="9">
+        <f t="shared" si="2"/>
         <v>-4195.0459810511156</v>
       </c>
-      <c r="J30" s="46"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>20</v>
       </c>
-      <c r="C31" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D31" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E31" s="10">
-        <f>-PPMT($C$7,B31,$C$3,$H$11)</f>
+      <c r="C31" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D31" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="1"/>
         <v>-7866.3727766300253</v>
       </c>
-      <c r="F31" s="10">
-        <f>-IPMT($C$7,B31,$C$3,$H$11)</f>
+      <c r="F31" s="9">
+        <f t="shared" si="2"/>
         <v>-4132.6272233699938</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>21</v>
       </c>
-      <c r="C32" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D32" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E32" s="10">
-        <f>-PPMT($C$7,B32,$C$3,$H$11)</f>
+      <c r="C32" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D32" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="1"/>
         <v>-7929.2907813980737</v>
       </c>
-      <c r="F32" s="10">
-        <f>-IPMT($C$7,B32,$C$3,$H$11)</f>
+      <c r="F32" s="9">
+        <f t="shared" si="2"/>
         <v>-4069.7092186019458</v>
       </c>
-      <c r="J32" s="46"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>22</v>
       </c>
-      <c r="C33" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D33" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E33" s="10">
-        <f>-PPMT($C$7,B33,$C$3,$H$11)</f>
+      <c r="C33" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D33" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="1"/>
         <v>-7992.7120264061159</v>
       </c>
-      <c r="F33" s="10">
-        <f>-IPMT($C$7,B33,$C$3,$H$11)</f>
+      <c r="F33" s="9">
+        <f t="shared" si="2"/>
         <v>-4006.287973593905</v>
       </c>
-      <c r="J33" s="46"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>23</v>
       </c>
-      <c r="C34" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D34" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E34" s="10">
-        <f>-PPMT($C$7,B34,$C$3,$H$11)</f>
+      <c r="C34" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D34" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="1"/>
         <v>-8056.6405367458556</v>
       </c>
-      <c r="F34" s="10">
-        <f>-IPMT($C$7,B34,$C$3,$H$11)</f>
+      <c r="F34" s="9">
+        <f t="shared" si="2"/>
         <v>-3942.359463254164</v>
       </c>
-      <c r="J34" s="46"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>24</v>
       </c>
-      <c r="C35" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D35" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E35" s="10">
-        <f>-PPMT($C$7,B35,$C$3,$H$11)</f>
+      <c r="C35" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D35" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="1"/>
         <v>-8121.080369703096</v>
       </c>
-      <c r="F35" s="10">
-        <f>-IPMT($C$7,B35,$C$3,$H$11)</f>
+      <c r="F35" s="9">
+        <f t="shared" si="2"/>
         <v>-3877.9196302969231</v>
       </c>
-      <c r="J35" s="46"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>25</v>
       </c>
-      <c r="C36" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D36" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E36" s="10">
-        <f>-PPMT($C$7,B36,$C$3,$H$11)</f>
+      <c r="C36" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D36" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="1"/>
         <v>-8186.0356150152284</v>
       </c>
-      <c r="F36" s="10">
-        <f>-IPMT($C$7,B36,$C$3,$H$11)</f>
+      <c r="F36" s="9">
+        <f t="shared" si="2"/>
         <v>-3812.9643849847921</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>26</v>
       </c>
-      <c r="C37" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D37" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E37" s="10">
-        <f>-PPMT($C$7,B37,$C$3,$H$11)</f>
+      <c r="C37" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D37" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="1"/>
         <v>-8251.5103951307956</v>
       </c>
-      <c r="F37" s="10">
-        <f>-IPMT($C$7,B37,$C$3,$H$11)</f>
+      <c r="F37" s="9">
+        <f t="shared" si="2"/>
         <v>-3747.489604869224</v>
       </c>
-      <c r="J37" s="46"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>27</v>
       </c>
-      <c r="C38" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D38" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E38" s="10">
-        <f>-PPMT($C$7,B38,$C$3,$H$11)</f>
+      <c r="C38" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D38" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="1"/>
         <v>-8317.508865471129</v>
       </c>
-      <c r="F38" s="10">
-        <f>-IPMT($C$7,B38,$C$3,$H$11)</f>
+      <c r="F38" s="9">
+        <f t="shared" si="2"/>
         <v>-3681.4911345288901</v>
       </c>
-      <c r="J38" s="46"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>28</v>
       </c>
-      <c r="C39" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D39" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E39" s="10">
-        <f>-PPMT($C$7,B39,$C$3,$H$11)</f>
+      <c r="C39" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D39" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E39" s="9">
+        <f t="shared" si="1"/>
         <v>-8384.0352146940786</v>
       </c>
-      <c r="F39" s="10">
-        <f>-IPMT($C$7,B39,$C$3,$H$11)</f>
+      <c r="F39" s="9">
+        <f t="shared" si="2"/>
         <v>-3614.9647853059405</v>
       </c>
-      <c r="J39" s="46"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>29</v>
       </c>
-      <c r="C40" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D40" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E40" s="10">
-        <f>-PPMT($C$7,B40,$C$3,$H$11)</f>
+      <c r="C40" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D40" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="1"/>
         <v>-8451.0936649598425</v>
       </c>
-      <c r="F40" s="10">
-        <f>-IPMT($C$7,B40,$C$3,$H$11)</f>
+      <c r="F40" s="9">
+        <f t="shared" si="2"/>
         <v>-3547.9063350401775</v>
       </c>
-      <c r="J40" s="46"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>30</v>
       </c>
-      <c r="C41" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D41" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E41" s="10">
-        <f>-PPMT($C$7,B41,$C$3,$H$11)</f>
+      <c r="C41" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D41" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" si="1"/>
         <v>-8518.6884721989372</v>
       </c>
-      <c r="F41" s="10">
-        <f>-IPMT($C$7,B41,$C$3,$H$11)</f>
+      <c r="F41" s="9">
+        <f t="shared" si="2"/>
         <v>-3480.3115278010837</v>
       </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>31</v>
       </c>
-      <c r="C42" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D42" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E42" s="10">
-        <f>-PPMT($C$7,B42,$C$3,$H$11)</f>
+      <c r="C42" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D42" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E42" s="9">
+        <f t="shared" si="1"/>
         <v>-8586.8239263822961</v>
       </c>
-      <c r="F42" s="10">
-        <f>-IPMT($C$7,B42,$C$3,$H$11)</f>
+      <c r="F42" s="9">
+        <f t="shared" si="2"/>
         <v>-3412.1760736177216</v>
       </c>
-      <c r="J42" s="46"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>32</v>
       </c>
-      <c r="C43" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D43" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E43" s="10">
-        <f>-PPMT($C$7,B43,$C$3,$H$11)</f>
+      <c r="C43" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D43" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" si="1"/>
         <v>-8655.5043517935592</v>
       </c>
-      <c r="F43" s="10">
-        <f>-IPMT($C$7,B43,$C$3,$H$11)</f>
+      <c r="F43" s="9">
+        <f t="shared" si="2"/>
         <v>-3343.4956482064617</v>
       </c>
-      <c r="J43" s="46"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>33</v>
       </c>
-      <c r="C44" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D44" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E44" s="10">
-        <f>-PPMT($C$7,B44,$C$3,$H$11)</f>
+      <c r="C44" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D44" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E44" s="9">
+        <f t="shared" ref="E44:E75" si="4">-PPMT($C$7,B44,$C$3,$H$11)</f>
         <v>-8724.7341073034804</v>
       </c>
-      <c r="F44" s="10">
-        <f>-IPMT($C$7,B44,$C$3,$H$11)</f>
+      <c r="F44" s="9">
+        <f t="shared" ref="F44:F75" si="5">-IPMT($C$7,B44,$C$3,$H$11)</f>
         <v>-3274.2658926965391</v>
       </c>
-      <c r="J44" s="46"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>34</v>
       </c>
-      <c r="C45" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D45" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E45" s="10">
-        <f>-PPMT($C$7,B45,$C$3,$H$11)</f>
+      <c r="C45" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D45" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E45" s="9">
+        <f t="shared" si="4"/>
         <v>-8794.5175866466034</v>
       </c>
-      <c r="F45" s="10">
-        <f>-IPMT($C$7,B45,$C$3,$H$11)</f>
+      <c r="F45" s="9">
+        <f t="shared" si="5"/>
         <v>-3204.4824133534166</v>
       </c>
-      <c r="J45" s="46"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>35</v>
       </c>
-      <c r="C46" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D46" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E46" s="10">
-        <f>-PPMT($C$7,B46,$C$3,$H$11)</f>
+      <c r="C46" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D46" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E46" s="9">
+        <f t="shared" si="4"/>
         <v>-8864.8592187000959</v>
       </c>
-      <c r="F46" s="10">
-        <f>-IPMT($C$7,B46,$C$3,$H$11)</f>
+      <c r="F46" s="9">
+        <f t="shared" si="5"/>
         <v>-3134.140781299925</v>
       </c>
-      <c r="J46" s="46"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>36</v>
       </c>
-      <c r="C47" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D47" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E47" s="10">
-        <f>-PPMT($C$7,B47,$C$3,$H$11)</f>
+      <c r="C47" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D47" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E47" s="9">
+        <f t="shared" si="4"/>
         <v>-8935.763467764833</v>
       </c>
-      <c r="F47" s="10">
-        <f>-IPMT($C$7,B47,$C$3,$H$11)</f>
+      <c r="F47" s="9">
+        <f t="shared" si="5"/>
         <v>-3063.2365322351884</v>
       </c>
-      <c r="J47" s="46"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>37</v>
       </c>
-      <c r="C48" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D48" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E48" s="10">
-        <f>-PPMT($C$7,B48,$C$3,$H$11)</f>
+      <c r="C48" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D48" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E48" s="9">
+        <f t="shared" si="4"/>
         <v>-9007.2348338487354</v>
       </c>
-      <c r="F48" s="10">
-        <f>-IPMT($C$7,B48,$C$3,$H$11)</f>
+      <c r="F48" s="9">
+        <f t="shared" si="5"/>
         <v>-2991.7651661512855</v>
       </c>
-      <c r="J48" s="46"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>38</v>
       </c>
-      <c r="C49" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D49" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E49" s="10">
-        <f>-PPMT($C$7,B49,$C$3,$H$11)</f>
+      <c r="C49" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D49" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E49" s="9">
+        <f t="shared" si="4"/>
         <v>-9079.2778529523621</v>
       </c>
-      <c r="F49" s="10">
-        <f>-IPMT($C$7,B49,$C$3,$H$11)</f>
+      <c r="F49" s="9">
+        <f t="shared" si="5"/>
         <v>-2919.722147047657</v>
       </c>
-      <c r="J49" s="46"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>39</v>
       </c>
-      <c r="C50" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D50" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E50" s="10">
-        <f>-PPMT($C$7,B50,$C$3,$H$11)</f>
+      <c r="C50" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D50" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E50" s="9">
+        <f t="shared" si="4"/>
         <v>-9151.8970973567957</v>
       </c>
-      <c r="F50" s="10">
-        <f>-IPMT($C$7,B50,$C$3,$H$11)</f>
+      <c r="F50" s="9">
+        <f t="shared" si="5"/>
         <v>-2847.1029026432225</v>
       </c>
-      <c r="J50" s="46"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>40</v>
       </c>
-      <c r="C51" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D51" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E51" s="10">
-        <f>-PPMT($C$7,B51,$C$3,$H$11)</f>
+      <c r="C51" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D51" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E51" s="9">
+        <f t="shared" si="4"/>
         <v>-9225.0971759138247</v>
       </c>
-      <c r="F51" s="10">
-        <f>-IPMT($C$7,B51,$C$3,$H$11)</f>
+      <c r="F51" s="9">
+        <f t="shared" si="5"/>
         <v>-2773.9028240861962</v>
       </c>
-      <c r="J51" s="46"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>41</v>
       </c>
-      <c r="C52" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D52" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E52" s="10">
-        <f>-PPMT($C$7,B52,$C$3,$H$11)</f>
+      <c r="C52" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D52" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E52" s="9">
+        <f t="shared" si="4"/>
         <v>-9298.8827343384401</v>
       </c>
-      <c r="F52" s="10">
-        <f>-IPMT($C$7,B52,$C$3,$H$11)</f>
+      <c r="F52" s="9">
+        <f t="shared" si="5"/>
         <v>-2700.117265661579</v>
       </c>
-      <c r="J52" s="46"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>42</v>
       </c>
-      <c r="C53" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D53" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E53" s="10">
-        <f>-PPMT($C$7,B53,$C$3,$H$11)</f>
+      <c r="C53" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D53" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E53" s="9">
+        <f t="shared" si="4"/>
         <v>-9373.258455503701</v>
       </c>
-      <c r="F53" s="10">
-        <f>-IPMT($C$7,B53,$C$3,$H$11)</f>
+      <c r="F53" s="9">
+        <f t="shared" si="5"/>
         <v>-2625.7415444963203</v>
       </c>
-      <c r="J53" s="46"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>43</v>
       </c>
-      <c r="C54" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D54" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E54" s="10">
-        <f>-PPMT($C$7,B54,$C$3,$H$11)</f>
+      <c r="C54" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D54" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E54" s="9">
+        <f t="shared" si="4"/>
         <v>-9448.2290597379142</v>
       </c>
-      <c r="F54" s="10">
-        <f>-IPMT($C$7,B54,$C$3,$H$11)</f>
+      <c r="F54" s="9">
+        <f t="shared" si="5"/>
         <v>-2550.7709402621063</v>
       </c>
-      <c r="J54" s="46"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>44</v>
       </c>
-      <c r="C55" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D55" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E55" s="10">
-        <f>-PPMT($C$7,B55,$C$3,$H$11)</f>
+      <c r="C55" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D55" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E55" s="9">
+        <f t="shared" si="4"/>
         <v>-9523.7993051242338</v>
       </c>
-      <c r="F55" s="10">
-        <f>-IPMT($C$7,B55,$C$3,$H$11)</f>
+      <c r="F55" s="9">
+        <f t="shared" si="5"/>
         <v>-2475.2006948757871</v>
       </c>
-      <c r="J55" s="46"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>45</v>
       </c>
-      <c r="C56" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D56" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E56" s="10">
-        <f>-PPMT($C$7,B56,$C$3,$H$11)</f>
+      <c r="C56" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D56" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E56" s="9">
+        <f t="shared" si="4"/>
         <v>-9599.9739878026248</v>
       </c>
-      <c r="F56" s="10">
-        <f>-IPMT($C$7,B56,$C$3,$H$11)</f>
+      <c r="F56" s="9">
+        <f t="shared" si="5"/>
         <v>-2399.0260121973947</v>
       </c>
-      <c r="J56" s="46"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="44"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>46</v>
       </c>
-      <c r="C57" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D57" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E57" s="10">
-        <f>-PPMT($C$7,B57,$C$3,$H$11)</f>
+      <c r="C57" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D57" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E57" s="9">
+        <f t="shared" si="4"/>
         <v>-9676.7579422742638</v>
       </c>
-      <c r="F57" s="10">
-        <f>-IPMT($C$7,B57,$C$3,$H$11)</f>
+      <c r="F57" s="9">
+        <f t="shared" si="5"/>
         <v>-2322.2420577257558</v>
       </c>
-      <c r="J57" s="46"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>47</v>
       </c>
-      <c r="C58" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D58" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E58" s="10">
-        <f>-PPMT($C$7,B58,$C$3,$H$11)</f>
+      <c r="C58" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D58" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E58" s="9">
+        <f t="shared" si="4"/>
         <v>-9754.1560417083565</v>
       </c>
-      <c r="F58" s="10">
-        <f>-IPMT($C$7,B58,$C$3,$H$11)</f>
+      <c r="F58" s="9">
+        <f t="shared" si="5"/>
         <v>-2244.8439582916626</v>
       </c>
-      <c r="J58" s="46"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>48</v>
       </c>
-      <c r="C59" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D59" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E59" s="10">
-        <f>-PPMT($C$7,B59,$C$3,$H$11)</f>
+      <c r="C59" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D59" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E59" s="9">
+        <f t="shared" si="4"/>
         <v>-9832.1731982514284</v>
       </c>
-      <c r="F59" s="10">
-        <f>-IPMT($C$7,B59,$C$3,$H$11)</f>
+      <c r="F59" s="9">
+        <f t="shared" si="5"/>
         <v>-2166.8268017485934</v>
       </c>
-      <c r="J59" s="46"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="48"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>49</v>
       </c>
-      <c r="C60" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D60" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E60" s="10">
-        <f>-PPMT($C$7,B60,$C$3,$H$11)</f>
+      <c r="C60" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D60" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E60" s="9">
+        <f t="shared" si="4"/>
         <v>-9910.8143633390628</v>
       </c>
-      <c r="F60" s="10">
-        <f>-IPMT($C$7,B60,$C$3,$H$11)</f>
+      <c r="F60" s="9">
+        <f t="shared" si="5"/>
         <v>-2088.1856366609563</v>
       </c>
-      <c r="J60" s="46"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="45"/>
-      <c r="O60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>50</v>
       </c>
-      <c r="C61" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D61" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E61" s="10">
-        <f>-PPMT($C$7,B61,$C$3,$H$11)</f>
+      <c r="C61" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D61" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E61" s="9">
+        <f t="shared" si="4"/>
         <v>-9990.084528010173</v>
       </c>
-      <c r="F61" s="10">
-        <f>-IPMT($C$7,B61,$C$3,$H$11)</f>
+      <c r="F61" s="9">
+        <f t="shared" si="5"/>
         <v>-2008.9154719898463</v>
       </c>
-      <c r="J61" s="46"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="44"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>51</v>
       </c>
-      <c r="C62" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D62" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E62" s="10">
-        <f>-PPMT($C$7,B62,$C$3,$H$11)</f>
+      <c r="C62" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D62" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E62" s="9">
+        <f t="shared" si="4"/>
         <v>-10069.98872322374</v>
       </c>
-      <c r="F62" s="10">
-        <f>-IPMT($C$7,B62,$C$3,$H$11)</f>
+      <c r="F62" s="9">
+        <f t="shared" si="5"/>
         <v>-1929.0112767762787</v>
       </c>
-      <c r="J62" s="46"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="48"/>
-      <c r="N62" s="45"/>
-      <c r="O62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>52</v>
       </c>
-      <c r="C63" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D63" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E63" s="10">
-        <f>-PPMT($C$7,B63,$C$3,$H$11)</f>
+      <c r="C63" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D63" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E63" s="9">
+        <f t="shared" si="4"/>
         <v>-10150.532020178123</v>
       </c>
-      <c r="F63" s="10">
-        <f>-IPMT($C$7,B63,$C$3,$H$11)</f>
+      <c r="F63" s="9">
+        <f t="shared" si="5"/>
         <v>-1848.467979821897</v>
       </c>
-      <c r="J63" s="46"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="48"/>
-      <c r="N63" s="45"/>
-      <c r="O63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>53</v>
       </c>
-      <c r="C64" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D64" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E64" s="10">
-        <f>-PPMT($C$7,B64,$C$3,$H$11)</f>
+      <c r="C64" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D64" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E64" s="9">
+        <f t="shared" si="4"/>
         <v>-10231.719530632896</v>
       </c>
-      <c r="F64" s="10">
-        <f>-IPMT($C$7,B64,$C$3,$H$11)</f>
+      <c r="F64" s="9">
+        <f t="shared" si="5"/>
         <v>-1767.2804693671242</v>
       </c>
-      <c r="J64" s="46"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="48"/>
-      <c r="N64" s="45"/>
-      <c r="O64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>54</v>
       </c>
-      <c r="C65" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D65" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E65" s="10">
-        <f>-PPMT($C$7,B65,$C$3,$H$11)</f>
+      <c r="C65" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D65" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E65" s="9">
+        <f t="shared" si="4"/>
         <v>-10313.556407233278</v>
       </c>
-      <c r="F65" s="10">
-        <f>-IPMT($C$7,B65,$C$3,$H$11)</f>
+      <c r="F65" s="9">
+        <f t="shared" si="5"/>
         <v>-1685.4435927667412</v>
       </c>
-      <c r="J65" s="46"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="48"/>
-      <c r="N65" s="45"/>
-      <c r="O65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>55</v>
       </c>
-      <c r="C66" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D66" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E66" s="10">
-        <f>-PPMT($C$7,B66,$C$3,$H$11)</f>
+      <c r="C66" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D66" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E66" s="9">
+        <f t="shared" si="4"/>
         <v>-10396.047843837156</v>
       </c>
-      <c r="F66" s="10">
-        <f>-IPMT($C$7,B66,$C$3,$H$11)</f>
+      <c r="F66" s="9">
+        <f t="shared" si="5"/>
         <v>-1602.9521561628655</v>
       </c>
-      <c r="J66" s="46"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="48"/>
-      <c r="N66" s="45"/>
-      <c r="O66" s="45"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>56</v>
       </c>
-      <c r="C67" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D67" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E67" s="10">
-        <f>-PPMT($C$7,B67,$C$3,$H$11)</f>
+      <c r="C67" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D67" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E67" s="9">
+        <f t="shared" si="4"/>
         <v>-10479.199075844699</v>
       </c>
-      <c r="F67" s="10">
-        <f>-IPMT($C$7,B67,$C$3,$H$11)</f>
+      <c r="F67" s="9">
+        <f t="shared" si="5"/>
         <v>-1519.8009241553209</v>
       </c>
-      <c r="J67" s="46"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="45"/>
-      <c r="O67" s="45"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>57</v>
       </c>
-      <c r="C68" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D68" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E68" s="10">
-        <f>-PPMT($C$7,B68,$C$3,$H$11)</f>
+      <c r="C68" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D68" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E68" s="9">
+        <f t="shared" si="4"/>
         <v>-10563.015380530653</v>
       </c>
-      <c r="F68" s="10">
-        <f>-IPMT($C$7,B68,$C$3,$H$11)</f>
+      <c r="F68" s="9">
+        <f t="shared" si="5"/>
         <v>-1435.9846194693671</v>
       </c>
-      <c r="J68" s="46"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="45"/>
-      <c r="O68" s="45"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>58</v>
       </c>
-      <c r="C69" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D69" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E69" s="10">
-        <f>-PPMT($C$7,B69,$C$3,$H$11)</f>
+      <c r="C69" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D69" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E69" s="9">
+        <f t="shared" si="4"/>
         <v>-10647.502077379249</v>
       </c>
-      <c r="F69" s="10">
-        <f>-IPMT($C$7,B69,$C$3,$H$11)</f>
+      <c r="F69" s="9">
+        <f t="shared" si="5"/>
         <v>-1351.4979226207715</v>
       </c>
-      <c r="J69" s="46"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="45"/>
-      <c r="O69" s="45"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>59</v>
       </c>
-      <c r="C70" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D70" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E70" s="10">
-        <f>-PPMT($C$7,B70,$C$3,$H$11)</f>
+      <c r="C70" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D70" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E70" s="9">
+        <f t="shared" si="4"/>
         <v>-10732.664528421816</v>
       </c>
-      <c r="F70" s="10">
-        <f>-IPMT($C$7,B70,$C$3,$H$11)</f>
+      <c r="F70" s="9">
+        <f t="shared" si="5"/>
         <v>-1266.3354715782034</v>
       </c>
-      <c r="J70" s="46"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="45"/>
-      <c r="O70" s="45"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>60</v>
       </c>
-      <c r="C71" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D71" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E71" s="10">
-        <f>-PPMT($C$7,B71,$C$3,$H$11)</f>
+      <c r="C71" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D71" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E71" s="9">
+        <f t="shared" si="4"/>
         <v>-10818.508138577094</v>
       </c>
-      <c r="F71" s="10">
-        <f>-IPMT($C$7,B71,$C$3,$H$11)</f>
+      <c r="F71" s="9">
+        <f t="shared" si="5"/>
         <v>-1180.491861422928</v>
       </c>
-      <c r="J71" s="46"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="48"/>
-      <c r="N71" s="45"/>
-      <c r="O71" s="45"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>61</v>
       </c>
-      <c r="C72" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D72" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E72" s="10">
-        <f>-PPMT($C$7,B72,$C$3,$H$11)</f>
+      <c r="C72" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D72" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E72" s="9">
+        <f t="shared" si="4"/>
         <v>-10905.038355994244</v>
       </c>
-      <c r="F72" s="10">
-        <f>-IPMT($C$7,B72,$C$3,$H$11)</f>
+      <c r="F72" s="9">
+        <f t="shared" si="5"/>
         <v>-1093.9616440057771</v>
       </c>
-      <c r="J72" s="46"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="48"/>
-      <c r="N72" s="45"/>
-      <c r="O72" s="45"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>62</v>
       </c>
-      <c r="C73" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D73" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E73" s="10">
-        <f>-PPMT($C$7,B73,$C$3,$H$11)</f>
+      <c r="C73" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D73" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E73" s="9">
+        <f t="shared" si="4"/>
         <v>-10992.260672398645</v>
       </c>
-      <c r="F73" s="10">
-        <f>-IPMT($C$7,B73,$C$3,$H$11)</f>
+      <c r="F73" s="9">
+        <f t="shared" si="5"/>
         <v>-1006.7393276013767</v>
       </c>
-      <c r="J73" s="46"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="48"/>
-      <c r="N73" s="45"/>
-      <c r="O73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="44"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>63</v>
       </c>
-      <c r="C74" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D74" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E74" s="10">
-        <f>-PPMT($C$7,B74,$C$3,$H$11)</f>
+      <c r="C74" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D74" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E74" s="9">
+        <f t="shared" si="4"/>
         <v>-11080.18062344041</v>
       </c>
-      <c r="F74" s="10">
-        <f>-IPMT($C$7,B74,$C$3,$H$11)</f>
+      <c r="F74" s="9">
+        <f t="shared" si="5"/>
         <v>-918.81937655960962</v>
       </c>
-      <c r="J74" s="46"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="48"/>
-      <c r="N74" s="45"/>
-      <c r="O74" s="45"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>64</v>
       </c>
-      <c r="C75" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D75" s="49">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E75" s="10">
-        <f>-PPMT($C$7,B75,$C$3,$H$11)</f>
+      <c r="C75" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D75" s="48">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="E75" s="9">
+        <f t="shared" si="4"/>
         <v>-11168.803789045727</v>
       </c>
-      <c r="F75" s="10">
-        <f>-IPMT($C$7,B75,$C$3,$H$11)</f>
+      <c r="F75" s="9">
+        <f t="shared" si="5"/>
         <v>-830.19621095429125</v>
       </c>
-      <c r="J75" s="46"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="48"/>
-      <c r="N75" s="45"/>
-      <c r="O75" s="45"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>65</v>
       </c>
-      <c r="C76" s="49">
-        <f t="shared" si="1"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D76" s="49">
-        <f t="shared" ref="D76:D83" si="2">$C$2</f>
-        <v>-11999</v>
-      </c>
-      <c r="E76" s="10">
-        <f>-PPMT($C$7,B76,$C$3,$H$11)</f>
+      <c r="C76" s="48">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D76" s="48">
+        <f t="shared" ref="D76:D83" si="6">$C$2</f>
+        <v>-11999</v>
+      </c>
+      <c r="E76" s="9">
+        <f t="shared" ref="E76:E83" si="7">-PPMT($C$7,B76,$C$3,$H$11)</f>
         <v>-11258.135793770987</v>
       </c>
-      <c r="F76" s="10">
-        <f>-IPMT($C$7,B76,$C$3,$H$11)</f>
+      <c r="F76" s="9">
+        <f t="shared" ref="F76:F83" si="8">-IPMT($C$7,B76,$C$3,$H$11)</f>
         <v>-740.86420622903188</v>
       </c>
-      <c r="J76" s="46"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="48"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="44"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <v>66</v>
       </c>
-      <c r="C77" s="49">
-        <f t="shared" ref="C77:C83" si="3">D77*1.16</f>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D77" s="49">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-      <c r="E77" s="10">
-        <f>-PPMT($C$7,B77,$C$3,$H$11)</f>
+      <c r="C77" s="48">
+        <f t="shared" ref="C77:C83" si="9">D77*1.16</f>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D77" s="48">
+        <f t="shared" si="6"/>
+        <v>-11999</v>
+      </c>
+      <c r="E77" s="9">
+        <f t="shared" si="7"/>
         <v>-11348.18230715975</v>
       </c>
-      <c r="F77" s="10">
-        <f>-IPMT($C$7,B77,$C$3,$H$11)</f>
+      <c r="F77" s="9">
+        <f t="shared" si="8"/>
         <v>-650.81769284026984</v>
       </c>
-      <c r="J77" s="46"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="48"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>67</v>
       </c>
-      <c r="C78" s="49">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D78" s="49">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-      <c r="E78" s="10">
-        <f>-PPMT($C$7,B78,$C$3,$H$11)</f>
+      <c r="C78" s="48">
+        <f t="shared" si="9"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D78" s="48">
+        <f t="shared" si="6"/>
+        <v>-11999</v>
+      </c>
+      <c r="E78" s="9">
+        <f t="shared" si="7"/>
         <v>-11438.949044102572</v>
       </c>
-      <c r="F78" s="10">
-        <f>-IPMT($C$7,B78,$C$3,$H$11)</f>
+      <c r="F78" s="9">
+        <f t="shared" si="8"/>
         <v>-560.05095589744826</v>
       </c>
-      <c r="J78" s="46"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="48"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="44"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <v>68</v>
       </c>
-      <c r="C79" s="49">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D79" s="49">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-      <c r="E79" s="10">
-        <f>-PPMT($C$7,B79,$C$3,$H$11)</f>
+      <c r="C79" s="48">
+        <f t="shared" si="9"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D79" s="48">
+        <f t="shared" si="6"/>
+        <v>-11999</v>
+      </c>
+      <c r="E79" s="9">
+        <f t="shared" si="7"/>
         <v>-11530.441765199706</v>
       </c>
-      <c r="F79" s="10">
-        <f>-IPMT($C$7,B79,$C$3,$H$11)</f>
+      <c r="F79" s="9">
+        <f t="shared" si="8"/>
         <v>-468.55823480031427</v>
       </c>
-      <c r="J79" s="46"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="48"/>
-      <c r="N79" s="45"/>
-      <c r="O79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="44"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <v>69</v>
       </c>
-      <c r="C80" s="49">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D80" s="49">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-      <c r="E80" s="10">
-        <f>-PPMT($C$7,B80,$C$3,$H$11)</f>
+      <c r="C80" s="48">
+        <f t="shared" si="9"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D80" s="48">
+        <f t="shared" si="6"/>
+        <v>-11999</v>
+      </c>
+      <c r="E80" s="9">
+        <f t="shared" si="7"/>
         <v>-11622.666277126704</v>
       </c>
-      <c r="F80" s="10">
-        <f>-IPMT($C$7,B80,$C$3,$H$11)</f>
+      <c r="F80" s="9">
+        <f t="shared" si="8"/>
         <v>-376.33372287331622</v>
       </c>
-      <c r="J80" s="46"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="48"/>
-      <c r="N80" s="45"/>
-      <c r="O80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="44"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
         <v>70</v>
       </c>
-      <c r="C81" s="49">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D81" s="49">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-      <c r="E81" s="10">
-        <f>-PPMT($C$7,B81,$C$3,$H$11)</f>
+      <c r="C81" s="48">
+        <f t="shared" si="9"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D81" s="48">
+        <f t="shared" si="6"/>
+        <v>-11999</v>
+      </c>
+      <c r="E81" s="9">
+        <f t="shared" si="7"/>
         <v>-11715.628433002943</v>
       </c>
-      <c r="F81" s="10">
-        <f>-IPMT($C$7,B81,$C$3,$H$11)</f>
+      <c r="F81" s="9">
+        <f t="shared" si="8"/>
         <v>-283.37156699707731</v>
       </c>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="45"/>
-      <c r="O81" s="45"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="44"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>71</v>
       </c>
-      <c r="C82" s="49">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D82" s="49">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-      <c r="E82" s="10">
-        <f>-PPMT($C$7,B82,$C$3,$H$11)</f>
+      <c r="C82" s="48">
+        <f t="shared" si="9"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D82" s="48">
+        <f t="shared" si="6"/>
+        <v>-11999</v>
+      </c>
+      <c r="E82" s="9">
+        <f t="shared" si="7"/>
         <v>-11809.334132763099</v>
       </c>
-      <c r="F82" s="10">
-        <f>-IPMT($C$7,B82,$C$3,$H$11)</f>
+      <c r="F82" s="9">
+        <f t="shared" si="8"/>
         <v>-189.66586723692205</v>
       </c>
-      <c r="J82" s="45"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="45"/>
-      <c r="M82" s="45"/>
-      <c r="N82" s="45"/>
-      <c r="O82" s="45"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="44"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
         <v>72</v>
       </c>
-      <c r="C83" s="49">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D83" s="49">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-      <c r="E83" s="10">
-        <f>-PPMT($C$7,B83,$C$3,$H$11)</f>
+      <c r="C83" s="48">
+        <f t="shared" si="9"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D83" s="48">
+        <f t="shared" si="6"/>
+        <v>-11999</v>
+      </c>
+      <c r="E83" s="9">
+        <f t="shared" si="7"/>
         <v>-11903.78932353159</v>
       </c>
-      <c r="F83" s="10">
-        <f>-IPMT($C$7,B83,$C$3,$H$11)</f>
+      <c r="F83" s="9">
+        <f t="shared" si="8"/>
         <v>-95.210676468430847</v>
       </c>
-      <c r="J83" s="45"/>
-      <c r="K83" s="45"/>
-      <c r="L83" s="45"/>
-      <c r="M83" s="45"/>
-      <c r="N83" s="45"/>
-      <c r="O83" s="45"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="44"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="44"/>
+      <c r="O83" s="44"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J84" s="45"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="45"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="45"/>
-      <c r="O84" s="45"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="44"/>
+      <c r="O84" s="44"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J85" s="45"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="45"/>
-      <c r="M85" s="45"/>
-      <c r="N85" s="45"/>
-      <c r="O85" s="45"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="44"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J86" s="45"/>
-      <c r="K86" s="45"/>
-      <c r="L86" s="45"/>
-      <c r="M86" s="45"/>
-      <c r="N86" s="45"/>
-      <c r="O86" s="45"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="44"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="44"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J87" s="45"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="45"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="45"/>
-      <c r="O87" s="45"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J88" s="45"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="45"/>
-      <c r="M88" s="45"/>
-      <c r="N88" s="45"/>
-      <c r="O88" s="45"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J89" s="45"/>
-      <c r="K89" s="45"/>
-      <c r="L89" s="45"/>
-      <c r="M89" s="45"/>
-      <c r="N89" s="45"/>
-      <c r="O89" s="45"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="44"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J90" s="45"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="45"/>
-      <c r="M90" s="45"/>
-      <c r="N90" s="45"/>
-      <c r="O90" s="45"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="44"/>
+      <c r="N90" s="44"/>
+      <c r="O90" s="44"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J91" s="45"/>
-      <c r="K91" s="45"/>
-      <c r="L91" s="45"/>
-      <c r="M91" s="45"/>
-      <c r="N91" s="45"/>
-      <c r="O91" s="45"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Other/Seventh Semester/Proyectos de Inversion/Casos.xlsx
+++ b/Other/Seventh Semester/Proyectos de Inversion/Casos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalor\Documents\Git\School\Other\Seventh Semester\Proyectos de Inversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F2C5E7-70E3-4612-A652-64EE8AB08140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086B4674-360A-4320-B556-B390FD016043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Fresadora" sheetId="1" r:id="rId1"/>
     <sheet name="3. TVEO" sheetId="2" r:id="rId2"/>
     <sheet name="4. Cementera" sheetId="3" r:id="rId3"/>
-    <sheet name="5. " sheetId="4" r:id="rId4"/>
+    <sheet name="5. Mina" sheetId="4" r:id="rId4"/>
     <sheet name="6. Camión de Volteo" sheetId="5" r:id="rId5"/>
     <sheet name="7. Teslaaa" sheetId="8" r:id="rId6"/>
   </sheets>
@@ -41,41 +41,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sara Carolina Gómez Delgado</author>
-  </authors>
-  <commentList>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{A88DFAE5-C3E0-489F-9736-85A7B428BEB8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Sara Carolina Gómez Delgado:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Should it be considered?
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sara Carolina Gómez Delgado</author>
@@ -110,7 +75,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sara Carolina Gómez Delgado</author>
@@ -145,7 +110,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sara Carolina Gómez Delgado</author>
@@ -180,7 +145,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sara Carolina Gómez Delgado</author>
@@ -234,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
   <si>
     <t xml:space="preserve">Reemplazo vieja maquinaria fresadora </t>
   </si>
@@ -242,12 +207,6 @@
     <t>TREMA</t>
   </si>
   <si>
-    <t>Opción A</t>
-  </si>
-  <si>
-    <t>Opción B</t>
-  </si>
-  <si>
     <t>costo inicial</t>
   </si>
   <si>
@@ -344,9 +303,6 @@
     <t>Reporte financiero</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Impuestos</t>
   </si>
   <si>
@@ -467,18 +423,6 @@
     <t>Pago con IVA</t>
   </si>
   <si>
-    <t>Lo dificil es organizar la informacion</t>
-  </si>
-  <si>
-    <t>Gasto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ganancia </t>
-  </si>
-  <si>
-    <t>^ Inicial nueva</t>
-  </si>
-  <si>
     <t>Respuesta 2:</t>
   </si>
   <si>
@@ -489,19 +433,117 @@
   </si>
   <si>
     <t>IVA es sobre los intereses</t>
+  </si>
+  <si>
+    <t>Opción nueva</t>
+  </si>
+  <si>
+    <t>Opción vieja</t>
+  </si>
+  <si>
+    <t>Proyecto cuprífero mina "El ojo dorado"</t>
+  </si>
+  <si>
+    <t>Codelco</t>
+  </si>
+  <si>
+    <t>Oferta</t>
+  </si>
+  <si>
+    <t>Estudios geológicos</t>
+  </si>
+  <si>
+    <t>Densidad</t>
+  </si>
+  <si>
+    <t>Primera capa</t>
+  </si>
+  <si>
+    <t>Segunda capa</t>
+  </si>
+  <si>
+    <t>Tercera capa</t>
+  </si>
+  <si>
+    <t>Años explotacion</t>
+  </si>
+  <si>
+    <t>Precio tonelada</t>
+  </si>
+  <si>
+    <t>Traslados e instalaciones</t>
+  </si>
+  <si>
+    <t>2 camiones</t>
+  </si>
+  <si>
+    <t>Maquinaria pesada</t>
+  </si>
+  <si>
+    <t>Inversiones</t>
+  </si>
+  <si>
+    <t>2 edificios</t>
+  </si>
+  <si>
+    <t>CAO y CAM</t>
+  </si>
+  <si>
+    <t>Administracion</t>
+  </si>
+  <si>
+    <t>Costo tonelada</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa de interes </t>
+  </si>
+  <si>
+    <t>Alternativas</t>
+  </si>
+  <si>
+    <t>Valor de rescate</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>Inversion banco</t>
+  </si>
+  <si>
+    <t>Capital de trabajo</t>
+  </si>
+  <si>
+    <t>Se regresa al final del proyecto</t>
+  </si>
+  <si>
+    <t>Tasa de interes</t>
+  </si>
+  <si>
+    <t>Analisis de flujos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inversión </t>
+  </si>
+  <si>
+    <t>Toneladas extraidas dia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.0_-;\-&quot;$&quot;* #,##0.0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,12 +573,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -625,7 +661,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -671,9 +707,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -710,6 +743,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1042,11 +1085,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F780256-FAFA-45AD-BD21-220A3A64CB91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F780256-FAFA-45AD-BD21-220A3A64CB91}">
   <dimension ref="B2:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,51 +1117,51 @@
         <v>0.1</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="L5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="O5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="P5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="Q5" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="15" x14ac:dyDescent="0.3">
@@ -1137,6 +1180,7 @@
         <v>-48000</v>
       </c>
       <c r="L6" s="7">
+        <f>-40000-40000+8000</f>
         <v>-72000</v>
       </c>
       <c r="M6" s="7"/>
@@ -1314,7 +1358,7 @@
         <v>258000</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q12" s="9">
         <f>NPV(C4,Q7:Q10)</f>
@@ -1322,11 +1366,8 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="15" x14ac:dyDescent="0.3">
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
       <c r="P13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="9">
         <f>Q12+Q6</f>
@@ -1335,26 +1376,26 @@
     </row>
     <row r="14" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="J14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K14" s="9">
         <f>NPV(C4,K7:K12)</f>
         <v>1123657.260461254</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="9">
         <f>-PMT(C4,E10,Q13)</f>
         <v>264572.24736048258</v>
       </c>
       <c r="R14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="J15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K15" s="9">
         <f>K14+K6</f>
@@ -1363,23 +1404,25 @@
     </row>
     <row r="16" spans="2:18" ht="15" x14ac:dyDescent="0.3">
       <c r="J16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K16" s="9">
         <f>-PMT(C4,E12,K15)</f>
         <v>246978.84574259201</v>
       </c>
       <c r="L16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="29"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1388,7 +1431,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1406,17 +1449,17 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
@@ -1427,7 +1470,7 @@
         <v>20000</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="18">
         <v>-2000000</v>
@@ -1436,7 +1479,7 @@
         <v>-1200000</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J3" s="20">
         <v>90</v>
@@ -1450,7 +1493,7 @@
         <v>30000</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="18">
         <v>-30</v>
@@ -1459,7 +1502,7 @@
         <v>-31</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4" s="8">
         <v>0.2</v>
@@ -1473,7 +1516,7 @@
         <v>50000</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="18">
         <v>40000</v>
@@ -1482,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -1496,13 +1539,13 @@
         <v>80000</v>
       </c>
       <c r="E6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="G6" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>1</v>
@@ -1519,7 +1562,7 @@
         <v>80000</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="19">
         <v>-2500000</v>
@@ -1536,66 +1579,61 @@
         <v>80000</v>
       </c>
       <c r="E8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
       <c r="C9" s="3"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="23" t="s">
+      <c r="I11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>37</v>
-      </c>
       <c r="K11" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="29">
+        <v>35</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="28">
         <f>NPV(J6,K13:K18)</f>
         <v>3541362.2682061666</v>
       </c>
@@ -1605,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <f>F7</f>
         <v>-2500000</v>
       </c>
@@ -1623,9 +1661,9 @@
         <v>-2500000</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="29">
+        <v>10</v>
+      </c>
+      <c r="M12" s="28">
         <f>M11+K12</f>
         <v>1041362.2682061666</v>
       </c>
@@ -1634,12 +1672,12 @@
       <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="27">
         <f>$F$3</f>
         <v>-2000000</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <f>$F$4*H13</f>
         <v>-600000</v>
       </c>
@@ -1669,12 +1707,12 @@
       <c r="B14" s="12">
         <v>2</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <f t="shared" ref="C14:C18" si="0">$F$3</f>
         <v>-2000000</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <f>$F$4*H14</f>
         <v>-900000</v>
       </c>
@@ -1688,7 +1726,7 @@
         <v>30000</v>
       </c>
       <c r="I14" s="15">
-        <f t="shared" ref="I13:I18" si="3">SUM(C14:G14)</f>
+        <f t="shared" ref="I14:I18" si="3">SUM(C14:G14)</f>
         <v>-200000</v>
       </c>
       <c r="J14" s="15">
@@ -1704,12 +1742,12 @@
       <c r="B15" s="12">
         <v>3</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="27">
         <f t="shared" si="0"/>
         <v>-2000000</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <f>$F$4*H15</f>
         <v>-1500000</v>
       </c>
@@ -1739,12 +1777,12 @@
       <c r="B16" s="12">
         <v>4</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="27">
         <f t="shared" si="0"/>
         <v>-2000000</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <f>$F$4*H16</f>
         <v>-2400000</v>
       </c>
@@ -1774,12 +1812,12 @@
       <c r="B17" s="12">
         <v>5</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="27">
         <f t="shared" si="0"/>
         <v>-2000000</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <f t="shared" ref="E17" si="6">$F$4*H17</f>
         <v>-2400000</v>
       </c>
@@ -1809,16 +1847,16 @@
       <c r="B18" s="12">
         <v>6</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="27">
         <f t="shared" si="0"/>
         <v>-2000000</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <f>$F$4*H18</f>
         <v>-2400000</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <f>F5</f>
         <v>40000</v>
       </c>
@@ -1845,42 +1883,42 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="23" t="s">
+      <c r="I22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>37</v>
-      </c>
       <c r="K22" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="29">
+        <v>35</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="28">
         <f>NPV(J6,K24:K29)</f>
         <v>3055979.2628655988</v>
       </c>
@@ -1890,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="28">
+      <c r="D23" s="27">
         <f>$G$7</f>
         <v>-1200000</v>
       </c>
@@ -1908,9 +1946,9 @@
         <v>-1200000</v>
       </c>
       <c r="L23" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="29">
+        <v>10</v>
+      </c>
+      <c r="M23" s="28">
         <f>M22+K23</f>
         <v>1855979.2628655988</v>
       </c>
@@ -1919,16 +1957,16 @@
       <c r="B24" s="12">
         <v>1</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <f>$G$3</f>
         <v>-1200000</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="28">
+      <c r="E24" s="27">
         <f>$G$4*H24</f>
         <v>-620000</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <f>$G$5</f>
         <v>0</v>
       </c>
@@ -1957,16 +1995,16 @@
       <c r="B25" s="12">
         <v>2</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="27">
         <f t="shared" ref="C25:C26" si="8">$G$3</f>
         <v>-1200000</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <f t="shared" ref="E25:E26" si="9">$G$4*H25</f>
         <v>-930000</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <f t="shared" ref="F25:F29" si="10">$G$5</f>
         <v>0</v>
       </c>
@@ -1995,19 +2033,19 @@
       <c r="B26" s="12">
         <v>3</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="27">
         <f t="shared" si="8"/>
         <v>-1200000</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="27">
         <f>$G$7*2</f>
         <v>-2400000</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <f t="shared" si="9"/>
         <v>-1550000</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="27">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2036,15 +2074,15 @@
       <c r="B27" s="12">
         <v>4</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="27">
         <f>$G$3*2</f>
         <v>-2400000</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <f>$G$4*H27</f>
         <v>-2480000</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2073,16 +2111,16 @@
       <c r="B28" s="12">
         <v>5</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="27">
         <f t="shared" ref="C28:C29" si="15">$G$3*2</f>
         <v>-2400000</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <f>$G$4*H28</f>
         <v>-2480000</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2111,16 +2149,16 @@
       <c r="B29" s="12">
         <v>6</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="27">
         <f t="shared" si="15"/>
         <v>-2400000</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <f>$G$4*H29</f>
         <v>-2480000</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -2147,7 +2185,7 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2176,32 +2214,32 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="15">
         <v>-12000</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>47</v>
+      <c r="E2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="31">
+        <v>40</v>
+      </c>
+      <c r="E3" s="30">
         <v>-550</v>
       </c>
       <c r="F3" s="11">
@@ -2213,15 +2251,15 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="15">
         <v>-20000</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="31">
+        <v>41</v>
+      </c>
+      <c r="E4" s="30">
         <v>-800</v>
       </c>
       <c r="F4" s="11">
@@ -2233,15 +2271,15 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="15">
         <v>-450</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="31">
+        <v>41</v>
+      </c>
+      <c r="E5" s="30">
         <v>-1500</v>
       </c>
       <c r="F5" s="11">
@@ -2259,9 +2297,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="31">
+        <v>45</v>
+      </c>
+      <c r="E6" s="30">
         <v>-2500</v>
       </c>
       <c r="F6" s="11">
@@ -2273,44 +2311,44 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <f>C2</f>
         <v>-12000</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <f>SUM(C10:F10)</f>
         <v>-12000</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
@@ -2318,24 +2356,24 @@
         <v>1</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <f>$C$4</f>
         <v>-20000</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <f>$C$5</f>
         <v>-450</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <f>$E$3</f>
         <v>-550</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <f t="shared" ref="G11:G30" si="0">SUM(C11:F11)</f>
         <v>-21000</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J11" s="9">
         <f>NPV(C6,G11:G15)</f>
@@ -2347,24 +2385,24 @@
         <v>2</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <f t="shared" ref="D12:D30" si="1">$C$4</f>
         <v>-20000</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <f t="shared" ref="E12:E30" si="2">$C$5</f>
         <v>-450</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <f t="shared" ref="F12:F15" si="3">$E$3</f>
         <v>-550</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J12" s="9">
         <f>J11+G10</f>
@@ -2376,31 +2414,31 @@
         <v>3</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="28">
+      <c r="D13" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J13" s="9">
         <f>-PMT(C6,B15,J12)</f>
         <v>-23926.68833329649</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
@@ -2408,19 +2446,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="27">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
@@ -2430,24 +2468,24 @@
         <v>5</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="28">
+      <c r="D15" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="27">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
@@ -2455,24 +2493,24 @@
         <v>6</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="28">
+      <c r="D16" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <f>$E$4</f>
         <v>-800</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="27">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J16" s="9">
         <f>NPV(C6,G11:G20)</f>
@@ -2484,24 +2522,24 @@
         <v>7</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <f t="shared" ref="F17:F20" si="4">$E$4</f>
         <v>-800</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="27">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J17" s="9">
         <f>J16+G10</f>
@@ -2513,31 +2551,31 @@
         <v>8</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="27">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J18" s="9">
         <f>-PMT(C6,B20,J17)</f>
         <v>-22812.586064823532</v>
       </c>
       <c r="K18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
@@ -2545,27 +2583,27 @@
         <v>9</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="28">
+      <c r="D19" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="27">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="N19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
@@ -2573,24 +2611,24 @@
         <v>10</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="28">
+      <c r="D20" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="27">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
@@ -2598,24 +2636,24 @@
         <v>11</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="28">
+      <c r="D21" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="27">
         <f>$E$5</f>
         <v>-1500</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="27">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J21" s="9">
         <f>NPV(C6,G11:G25)</f>
@@ -2627,24 +2665,24 @@
         <v>12</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="27">
         <f t="shared" ref="F22:F25" si="5">$E$5</f>
         <v>-1500</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="27">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J22" s="9">
         <f>J21+G10</f>
@@ -2656,31 +2694,31 @@
         <v>13</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="28">
+      <c r="D23" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="27">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J23" s="9">
         <f>-PMT(C6,B25,J22)</f>
         <v>-22615.184537201567</v>
       </c>
       <c r="K23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
@@ -2688,19 +2726,19 @@
         <v>14</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="28">
+      <c r="D24" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
@@ -2710,24 +2748,24 @@
         <v>15</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="28">
+      <c r="D25" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="27">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
@@ -2735,24 +2773,24 @@
         <v>16</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="28">
+      <c r="D26" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="27">
         <f>$E$6</f>
         <v>-2500</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="27">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J26" s="9">
         <f>NPV(C6,G11:G30)</f>
@@ -2764,24 +2802,24 @@
         <v>17</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="28">
+      <c r="D27" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <f t="shared" ref="F27:F30" si="6">$E$6</f>
         <v>-2500</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J27" s="9">
         <f>J26+G10</f>
@@ -2793,31 +2831,31 @@
         <v>18</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="28">
+      <c r="D28" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="27">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J28" s="9">
         <f>-PMT(C6,B30,J27)</f>
         <v>-22662.151562941341</v>
       </c>
       <c r="K28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
@@ -2825,19 +2863,19 @@
         <v>19</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="28">
+      <c r="D29" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="27">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
@@ -2847,19 +2885,19 @@
         <v>20</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="28">
+      <c r="D30" s="27">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="27">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="27">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="27">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
@@ -2872,27 +2910,570 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3719ECC-99D3-421D-96A2-DB3C0A57A488}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="B2:Q50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>79</v>
+    <row r="2" spans="2:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="50">
+        <v>125000</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <f>SUM(C15:C18)</f>
+        <v>-565000</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9">
+        <v>300000</v>
+      </c>
+      <c r="O6" s="9">
+        <f>C36</f>
+        <v>15000</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9">
+        <f>SUM(I6:P6)</f>
+        <v>-250000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
+        <f>D9*C25*365</f>
+        <v>-131400</v>
+      </c>
+      <c r="L7" s="9">
+        <f>$C$23</f>
+        <v>-20000</v>
+      </c>
+      <c r="M7" s="9">
+        <f>D9*F9*365</f>
+        <v>328500</v>
+      </c>
+      <c r="N7" s="9">
+        <f>PMT($C$34,$H$11,$N$6)</f>
+        <v>-95933.352538436055</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9">
+        <f>C46</f>
+        <v>-3108</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" ref="Q7:Q11" si="0">SUM(I7:P7)</f>
+        <v>78058.647461563945</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9">
+        <f>D9*C26*365</f>
+        <v>-131400</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" ref="L8:L11" si="1">$C$23</f>
+        <v>-20000</v>
+      </c>
+      <c r="M8" s="9">
+        <f>F9*D9*365</f>
+        <v>328500</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" ref="N8:N11" si="2">PMT($C$34,$H$11,$N$6)</f>
+        <v>-95933.352538436055</v>
+      </c>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9">
+        <f t="shared" ref="P8:P11" si="3">C47</f>
+        <v>-4014</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="0"/>
+        <v>77152.647461563945</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="54">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D9" s="56">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="15">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <f>D10*C27*365</f>
+        <v>-109500</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="1"/>
+        <v>-20000</v>
+      </c>
+      <c r="M9" s="9">
+        <f>D10*F10*365</f>
+        <v>456250</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="2"/>
+        <v>-95933.352538436055</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9">
+        <f t="shared" si="3"/>
+        <v>-23041</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="0"/>
+        <v>207775.64746156393</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="54">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D10" s="56">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="15">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9">
+        <f>D10*C28*365</f>
+        <v>-91250</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="1"/>
+        <v>-20000</v>
+      </c>
+      <c r="M10" s="9">
+        <f>D10*F10*365</f>
+        <v>456250</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="2"/>
+        <v>-95933.352538436055</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9">
+        <f t="shared" si="3"/>
+        <v>-26492</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="0"/>
+        <v>222574.64746156393</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="54">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D11" s="56">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9">
+        <f>-0.1*(C15+C17+C18)</f>
+        <v>54000</v>
+      </c>
+      <c r="K11" s="9">
+        <f>D11*C29*365</f>
+        <v>-102200</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="1"/>
+        <v>-20000</v>
+      </c>
+      <c r="M11" s="9">
+        <f>D11*F11*365</f>
+        <v>255500</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="2"/>
+        <v>-95933.352538436055</v>
+      </c>
+      <c r="O11" s="9">
+        <f>-C36</f>
+        <v>-15000</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="3"/>
+        <v>-2577</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="0"/>
+        <v>73789.647461563945</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="28">
+        <f>NPV(C41,Q7:Q11)</f>
+        <v>426775.70454910013</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="28">
+        <f>Q13+Q6</f>
+        <v>176775.70454910013</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="50">
+        <v>-300000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="50">
+        <v>-25000</v>
+      </c>
+      <c r="P16" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="39">
+        <f>IRR(Q6:Q11)</f>
+        <v>0.38450784697364293</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="51">
+        <f>-45000*2</f>
+        <v>-90000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="51">
+        <v>-150000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="51"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="51"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="51">
+        <v>-20000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="55">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="55">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="55">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="55">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>5</v>
+      </c>
+      <c r="C29" s="55">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="50">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="52">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="50">
+        <v>15000</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="52">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="15">
+        <v>-3108</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="15">
+        <v>-4014</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
+        <v>3</v>
+      </c>
+      <c r="C48" s="15">
+        <v>-23041</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="2">
+        <v>4</v>
+      </c>
+      <c r="C49" s="15">
+        <v>-26492</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
+        <v>5</v>
+      </c>
+      <c r="C50" s="15">
+        <v>-2577</v>
       </c>
     </row>
   </sheetData>
@@ -2905,7 +3486,7 @@
   <dimension ref="B3:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B3" sqref="B3:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2914,39 +3495,39 @@
     <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
-        <v>15</v>
+      <c r="B3" s="29" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -2963,12 +3544,12 @@
       <c r="G4" s="15">
         <v>600000</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="27">
         <f>SUM(C4:G4)</f>
         <v>-500000</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="28">
+      <c r="J4" s="27">
         <f>H4+I4</f>
         <v>-500000</v>
       </c>
@@ -2986,11 +3567,11 @@
       <c r="F5" s="15">
         <v>950000</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <f>G9</f>
         <v>-369069.76744186052</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="27">
         <f t="shared" ref="H5" si="0">SUM(C5:G5)</f>
         <v>520930.23255813948</v>
       </c>
@@ -2998,7 +3579,7 @@
         <f>MIN(0,I8*H5*-1)</f>
         <v>-130232.55813953487</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
         <f>I5+H5</f>
         <v>390697.67441860458</v>
       </c>
@@ -3018,11 +3599,11 @@
       <c r="F6" s="15">
         <v>950000</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <f>G9</f>
         <v>-369069.76744186052</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="27">
         <f>SUM(C6:G6)</f>
         <v>850930.23255813948</v>
       </c>
@@ -3030,7 +3611,7 @@
         <f>MIN(0,I8*H6*-1)</f>
         <v>-212732.55813953487</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="27">
         <f>I6+H6</f>
         <v>638197.67441860458</v>
       </c>
@@ -3039,20 +3620,20 @@
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G8" s="8">
         <v>0.15</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I8" s="8">
         <v>0.25</v>
@@ -3060,7 +3641,7 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" s="9">
         <f>PMT(G8,B6,G4)</f>
@@ -3071,9 +3652,9 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="49">
+        <v>58</v>
+      </c>
+      <c r="G11" s="48">
         <f>IRR(J4:J6)</f>
         <v>0.5861222942225115</v>
       </c>
@@ -3088,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33222DB8-DDDF-4338-8B69-318A6255ED1A}">
   <dimension ref="B2:O91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3103,160 +3684,160 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="38">
+        <v>59</v>
+      </c>
+      <c r="C2" s="37">
         <v>-11999</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="39"/>
+        <v>60</v>
+      </c>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2">
         <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="37">
+        <v>63</v>
+      </c>
+      <c r="C4" s="36">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>83</v>
+        <v>45</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="43">
+      <c r="B5" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="42">
         <f>EFFECT(C4,C6)</f>
         <v>9.5980203157880473E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
-        <v>68</v>
+      <c r="B6" s="41" t="s">
+        <v>65</v>
       </c>
       <c r="C6" s="2">
         <v>12</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="43">
+      <c r="B7" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="42">
         <f>C5/C6</f>
         <v>7.9983502631567061E-3</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J8" s="45"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="43"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J9" s="45"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>0</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="48"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="H11" s="29">
+      <c r="H11" s="28">
         <f>NPV(C7,D12:D83)</f>
         <v>-654832.52962543443</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <f>NPV(C7,E12:E83)</f>
         <v>-482959.36645717744</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="28">
         <f>NPV(C7,F12:F83)</f>
         <v>-171873.163168258</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="47">
         <f>D12*1.16</f>
         <v>-13918.839999999998</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="47">
         <f t="shared" ref="D12:D75" si="0">$C$2</f>
         <v>-11999</v>
       </c>
@@ -3268,23 +3849,23 @@
         <f t="shared" ref="F12:F43" si="2">-IPMT($C$7,B12,$C$3,$H$11)</f>
         <v>-5237.5799356531652</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
+      <c r="G12" s="28"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="47">
         <f t="shared" ref="C13:C76" si="3">D13*1.16</f>
         <v>-13918.839999999998</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3296,22 +3877,23 @@
         <f t="shared" si="2"/>
         <v>-5183.4997297021828</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
+      <c r="H13" s="28"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D14" s="48">
+      <c r="C14" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D14" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3323,22 +3905,23 @@
         <f t="shared" si="2"/>
         <v>-5128.9869713217022</v>
       </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
+      <c r="H14" s="28"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>4</v>
       </c>
-      <c r="C15" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D15" s="48">
+      <c r="C15" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D15" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3350,22 +3933,22 @@
         <f t="shared" si="2"/>
         <v>-5074.0382008058832</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D16" s="48">
+      <c r="C16" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D16" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3377,22 +3960,22 @@
         <f t="shared" si="2"/>
         <v>-5018.6499307769491</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D17" s="48">
+      <c r="C17" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D17" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3404,22 +3987,22 @@
         <f t="shared" si="2"/>
         <v>-4962.8186459638509</v>
       </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>7</v>
       </c>
-      <c r="C18" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D18" s="48">
+      <c r="C18" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D18" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3431,22 +4014,22 @@
         <f t="shared" si="2"/>
         <v>-4906.5408029791797</v>
       </c>
-      <c r="J18" s="45"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>8</v>
       </c>
-      <c r="C19" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D19" s="48">
+      <c r="C19" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D19" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3458,22 +4041,22 @@
         <f t="shared" si="2"/>
         <v>-4849.8128300942581</v>
       </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>9</v>
       </c>
-      <c r="C20" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D20" s="48">
+      <c r="C20" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D20" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3485,22 +4068,22 @@
         <f t="shared" si="2"/>
         <v>-4792.6311270124861</v>
       </c>
-      <c r="J20" s="45"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>10</v>
       </c>
-      <c r="C21" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D21" s="48">
+      <c r="C21" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D21" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3512,22 +4095,22 @@
         <f t="shared" si="2"/>
         <v>-4734.9920646408218</v>
       </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>11</v>
       </c>
-      <c r="C22" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D22" s="48">
+      <c r="C22" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D22" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3539,22 +4122,22 @@
         <f t="shared" si="2"/>
         <v>-4676.8919848594696</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>12</v>
       </c>
-      <c r="C23" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D23" s="48">
+      <c r="C23" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D23" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3566,22 +4149,22 @@
         <f t="shared" si="2"/>
         <v>-4618.3272002897083</v>
       </c>
-      <c r="J23" s="45"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>13</v>
       </c>
-      <c r="C24" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D24" s="48">
+      <c r="C24" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D24" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3593,22 +4176,22 @@
         <f t="shared" si="2"/>
         <v>-4559.2939940598735</v>
       </c>
-      <c r="J24" s="45"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>14</v>
       </c>
-      <c r="C25" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D25" s="48">
+      <c r="C25" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D25" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3620,22 +4203,22 @@
         <f t="shared" si="2"/>
         <v>-4499.7886195694518</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>15</v>
       </c>
-      <c r="C26" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D26" s="48">
+      <c r="C26" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D26" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3647,22 +4230,22 @@
         <f t="shared" si="2"/>
         <v>-4439.8073002513174</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>16</v>
       </c>
-      <c r="C27" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D27" s="48">
+      <c r="C27" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D27" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3674,22 +4257,22 @@
         <f t="shared" si="2"/>
         <v>-4379.3462293320308</v>
       </c>
-      <c r="J27" s="45"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>17</v>
       </c>
-      <c r="C28" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D28" s="48">
+      <c r="C28" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D28" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3701,22 +4284,22 @@
         <f t="shared" si="2"/>
         <v>-4318.4015695902444</v>
       </c>
-      <c r="J28" s="45"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>18</v>
       </c>
-      <c r="C29" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D29" s="48">
+      <c r="C29" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D29" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3728,22 +4311,22 @@
         <f t="shared" si="2"/>
         <v>-4256.9694531131754</v>
       </c>
-      <c r="J29" s="45"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>19</v>
       </c>
-      <c r="C30" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D30" s="48">
+      <c r="C30" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D30" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3755,22 +4338,22 @@
         <f t="shared" si="2"/>
         <v>-4195.0459810511156</v>
       </c>
-      <c r="J30" s="45"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>20</v>
       </c>
-      <c r="C31" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D31" s="48">
+      <c r="C31" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D31" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3782,22 +4365,22 @@
         <f t="shared" si="2"/>
         <v>-4132.6272233699938</v>
       </c>
-      <c r="J31" s="45"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>21</v>
       </c>
-      <c r="C32" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D32" s="48">
+      <c r="C32" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D32" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3809,22 +4392,22 @@
         <f t="shared" si="2"/>
         <v>-4069.7092186019458</v>
       </c>
-      <c r="J32" s="45"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>22</v>
       </c>
-      <c r="C33" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D33" s="48">
+      <c r="C33" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D33" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3836,22 +4419,22 @@
         <f t="shared" si="2"/>
         <v>-4006.287973593905</v>
       </c>
-      <c r="J33" s="45"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>23</v>
       </c>
-      <c r="C34" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D34" s="48">
+      <c r="C34" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D34" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3863,22 +4446,22 @@
         <f t="shared" si="2"/>
         <v>-3942.359463254164</v>
       </c>
-      <c r="J34" s="45"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>24</v>
       </c>
-      <c r="C35" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D35" s="48">
+      <c r="C35" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D35" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3890,22 +4473,22 @@
         <f t="shared" si="2"/>
         <v>-3877.9196302969231</v>
       </c>
-      <c r="J35" s="45"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>25</v>
       </c>
-      <c r="C36" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D36" s="48">
+      <c r="C36" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D36" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3917,22 +4500,22 @@
         <f t="shared" si="2"/>
         <v>-3812.9643849847921</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>26</v>
       </c>
-      <c r="C37" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D37" s="48">
+      <c r="C37" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D37" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3944,22 +4527,22 @@
         <f t="shared" si="2"/>
         <v>-3747.489604869224</v>
       </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>27</v>
       </c>
-      <c r="C38" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D38" s="48">
+      <c r="C38" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D38" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3971,22 +4554,22 @@
         <f t="shared" si="2"/>
         <v>-3681.4911345288901</v>
       </c>
-      <c r="J38" s="45"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>28</v>
       </c>
-      <c r="C39" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D39" s="48">
+      <c r="C39" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D39" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -3998,22 +4581,22 @@
         <f t="shared" si="2"/>
         <v>-3614.9647853059405</v>
       </c>
-      <c r="J39" s="45"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>29</v>
       </c>
-      <c r="C40" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D40" s="48">
+      <c r="C40" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D40" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4025,22 +4608,22 @@
         <f t="shared" si="2"/>
         <v>-3547.9063350401775</v>
       </c>
-      <c r="J40" s="45"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>30</v>
       </c>
-      <c r="C41" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D41" s="48">
+      <c r="C41" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D41" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4052,22 +4635,22 @@
         <f t="shared" si="2"/>
         <v>-3480.3115278010837</v>
       </c>
-      <c r="J41" s="45"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>31</v>
       </c>
-      <c r="C42" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D42" s="48">
+      <c r="C42" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D42" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4079,22 +4662,22 @@
         <f t="shared" si="2"/>
         <v>-3412.1760736177216</v>
       </c>
-      <c r="J42" s="45"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>32</v>
       </c>
-      <c r="C43" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D43" s="48">
+      <c r="C43" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D43" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4106,22 +4689,22 @@
         <f t="shared" si="2"/>
         <v>-3343.4956482064617</v>
       </c>
-      <c r="J43" s="45"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>33</v>
       </c>
-      <c r="C44" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D44" s="48">
+      <c r="C44" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D44" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4133,22 +4716,22 @@
         <f t="shared" ref="F44:F75" si="5">-IPMT($C$7,B44,$C$3,$H$11)</f>
         <v>-3274.2658926965391</v>
       </c>
-      <c r="J44" s="45"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>34</v>
       </c>
-      <c r="C45" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D45" s="48">
+      <c r="C45" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D45" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4160,22 +4743,22 @@
         <f t="shared" si="5"/>
         <v>-3204.4824133534166</v>
       </c>
-      <c r="J45" s="45"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>35</v>
       </c>
-      <c r="C46" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D46" s="48">
+      <c r="C46" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D46" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4187,22 +4770,22 @@
         <f t="shared" si="5"/>
         <v>-3134.140781299925</v>
       </c>
-      <c r="J46" s="45"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>36</v>
       </c>
-      <c r="C47" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D47" s="48">
+      <c r="C47" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D47" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4214,22 +4797,22 @@
         <f t="shared" si="5"/>
         <v>-3063.2365322351884</v>
       </c>
-      <c r="J47" s="45"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>37</v>
       </c>
-      <c r="C48" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D48" s="48">
+      <c r="C48" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D48" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4241,22 +4824,22 @@
         <f t="shared" si="5"/>
         <v>-2991.7651661512855</v>
       </c>
-      <c r="J48" s="45"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>38</v>
       </c>
-      <c r="C49" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D49" s="48">
+      <c r="C49" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D49" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4268,22 +4851,22 @@
         <f t="shared" si="5"/>
         <v>-2919.722147047657</v>
       </c>
-      <c r="J49" s="45"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>39</v>
       </c>
-      <c r="C50" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D50" s="48">
+      <c r="C50" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D50" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4295,22 +4878,22 @@
         <f t="shared" si="5"/>
         <v>-2847.1029026432225</v>
       </c>
-      <c r="J50" s="45"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>40</v>
       </c>
-      <c r="C51" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D51" s="48">
+      <c r="C51" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D51" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4322,22 +4905,22 @@
         <f t="shared" si="5"/>
         <v>-2773.9028240861962</v>
       </c>
-      <c r="J51" s="45"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>41</v>
       </c>
-      <c r="C52" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D52" s="48">
+      <c r="C52" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D52" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4349,22 +4932,22 @@
         <f t="shared" si="5"/>
         <v>-2700.117265661579</v>
       </c>
-      <c r="J52" s="45"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>42</v>
       </c>
-      <c r="C53" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D53" s="48">
+      <c r="C53" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D53" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4376,22 +4959,22 @@
         <f t="shared" si="5"/>
         <v>-2625.7415444963203</v>
       </c>
-      <c r="J53" s="45"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>43</v>
       </c>
-      <c r="C54" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D54" s="48">
+      <c r="C54" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D54" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4403,22 +4986,22 @@
         <f t="shared" si="5"/>
         <v>-2550.7709402621063</v>
       </c>
-      <c r="J54" s="45"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>44</v>
       </c>
-      <c r="C55" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D55" s="48">
+      <c r="C55" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D55" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4430,22 +5013,22 @@
         <f t="shared" si="5"/>
         <v>-2475.2006948757871</v>
       </c>
-      <c r="J55" s="45"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="44"/>
-      <c r="O55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>45</v>
       </c>
-      <c r="C56" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D56" s="48">
+      <c r="C56" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D56" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4457,22 +5040,22 @@
         <f t="shared" si="5"/>
         <v>-2399.0260121973947</v>
       </c>
-      <c r="J56" s="45"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="44"/>
-      <c r="O56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>46</v>
       </c>
-      <c r="C57" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D57" s="48">
+      <c r="C57" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D57" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4484,22 +5067,22 @@
         <f t="shared" si="5"/>
         <v>-2322.2420577257558</v>
       </c>
-      <c r="J57" s="45"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="44"/>
-      <c r="O57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>47</v>
       </c>
-      <c r="C58" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D58" s="48">
+      <c r="C58" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D58" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4511,22 +5094,22 @@
         <f t="shared" si="5"/>
         <v>-2244.8439582916626</v>
       </c>
-      <c r="J58" s="45"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>48</v>
       </c>
-      <c r="C59" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D59" s="48">
+      <c r="C59" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D59" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4538,22 +5121,22 @@
         <f t="shared" si="5"/>
         <v>-2166.8268017485934</v>
       </c>
-      <c r="J59" s="45"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="44"/>
-      <c r="O59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>49</v>
       </c>
-      <c r="C60" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D60" s="48">
+      <c r="C60" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D60" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4565,22 +5148,22 @@
         <f t="shared" si="5"/>
         <v>-2088.1856366609563</v>
       </c>
-      <c r="J60" s="45"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="44"/>
-      <c r="O60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>50</v>
       </c>
-      <c r="C61" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D61" s="48">
+      <c r="C61" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D61" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4592,22 +5175,22 @@
         <f t="shared" si="5"/>
         <v>-2008.9154719898463</v>
       </c>
-      <c r="J61" s="45"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="44"/>
-      <c r="O61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>51</v>
       </c>
-      <c r="C62" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D62" s="48">
+      <c r="C62" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D62" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4619,22 +5202,22 @@
         <f t="shared" si="5"/>
         <v>-1929.0112767762787</v>
       </c>
-      <c r="J62" s="45"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="44"/>
-      <c r="O62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>52</v>
       </c>
-      <c r="C63" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D63" s="48">
+      <c r="C63" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D63" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4646,22 +5229,22 @@
         <f t="shared" si="5"/>
         <v>-1848.467979821897</v>
       </c>
-      <c r="J63" s="45"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>53</v>
       </c>
-      <c r="C64" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D64" s="48">
+      <c r="C64" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D64" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4673,22 +5256,22 @@
         <f t="shared" si="5"/>
         <v>-1767.2804693671242</v>
       </c>
-      <c r="J64" s="45"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="44"/>
-      <c r="O64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>54</v>
       </c>
-      <c r="C65" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D65" s="48">
+      <c r="C65" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D65" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4700,22 +5283,22 @@
         <f t="shared" si="5"/>
         <v>-1685.4435927667412</v>
       </c>
-      <c r="J65" s="45"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>55</v>
       </c>
-      <c r="C66" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D66" s="48">
+      <c r="C66" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D66" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4727,22 +5310,22 @@
         <f t="shared" si="5"/>
         <v>-1602.9521561628655</v>
       </c>
-      <c r="J66" s="45"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="44"/>
-      <c r="O66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>56</v>
       </c>
-      <c r="C67" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D67" s="48">
+      <c r="C67" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D67" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4754,22 +5337,22 @@
         <f t="shared" si="5"/>
         <v>-1519.8009241553209</v>
       </c>
-      <c r="J67" s="45"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="44"/>
-      <c r="O67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>57</v>
       </c>
-      <c r="C68" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D68" s="48">
+      <c r="C68" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D68" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4781,22 +5364,22 @@
         <f t="shared" si="5"/>
         <v>-1435.9846194693671</v>
       </c>
-      <c r="J68" s="45"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="44"/>
-      <c r="O68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>58</v>
       </c>
-      <c r="C69" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D69" s="48">
+      <c r="C69" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D69" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4808,22 +5391,22 @@
         <f t="shared" si="5"/>
         <v>-1351.4979226207715</v>
       </c>
-      <c r="J69" s="45"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>59</v>
       </c>
-      <c r="C70" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D70" s="48">
+      <c r="C70" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D70" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4835,22 +5418,22 @@
         <f t="shared" si="5"/>
         <v>-1266.3354715782034</v>
       </c>
-      <c r="J70" s="45"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="44"/>
-      <c r="O70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="43"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>60</v>
       </c>
-      <c r="C71" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D71" s="48">
+      <c r="C71" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D71" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4862,22 +5445,22 @@
         <f t="shared" si="5"/>
         <v>-1180.491861422928</v>
       </c>
-      <c r="J71" s="45"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>61</v>
       </c>
-      <c r="C72" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D72" s="48">
+      <c r="C72" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D72" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4889,22 +5472,22 @@
         <f t="shared" si="5"/>
         <v>-1093.9616440057771</v>
       </c>
-      <c r="J72" s="45"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="44"/>
-      <c r="O72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>62</v>
       </c>
-      <c r="C73" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D73" s="48">
+      <c r="C73" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D73" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4916,22 +5499,22 @@
         <f t="shared" si="5"/>
         <v>-1006.7393276013767</v>
       </c>
-      <c r="J73" s="45"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="44"/>
-      <c r="O73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>63</v>
       </c>
-      <c r="C74" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D74" s="48">
+      <c r="C74" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D74" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4943,22 +5526,22 @@
         <f t="shared" si="5"/>
         <v>-918.81937655960962</v>
       </c>
-      <c r="J74" s="45"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="44"/>
-      <c r="O74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>64</v>
       </c>
-      <c r="C75" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D75" s="48">
+      <c r="C75" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D75" s="47">
         <f t="shared" si="0"/>
         <v>-11999</v>
       </c>
@@ -4970,22 +5553,22 @@
         <f t="shared" si="5"/>
         <v>-830.19621095429125</v>
       </c>
-      <c r="J75" s="45"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="44"/>
-      <c r="O75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>65</v>
       </c>
-      <c r="C76" s="48">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D76" s="48">
+      <c r="C76" s="47">
+        <f t="shared" si="3"/>
+        <v>-13918.839999999998</v>
+      </c>
+      <c r="D76" s="47">
         <f t="shared" ref="D76:D83" si="6">$C$2</f>
         <v>-11999</v>
       </c>
@@ -4997,22 +5580,22 @@
         <f t="shared" ref="F76:F83" si="8">-IPMT($C$7,B76,$C$3,$H$11)</f>
         <v>-740.86420622903188</v>
       </c>
-      <c r="J76" s="45"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="44"/>
-      <c r="O76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <v>66</v>
       </c>
-      <c r="C77" s="48">
+      <c r="C77" s="47">
         <f t="shared" ref="C77:C83" si="9">D77*1.16</f>
         <v>-13918.839999999998</v>
       </c>
-      <c r="D77" s="48">
+      <c r="D77" s="47">
         <f t="shared" si="6"/>
         <v>-11999</v>
       </c>
@@ -5024,22 +5607,22 @@
         <f t="shared" si="8"/>
         <v>-650.81769284026984</v>
       </c>
-      <c r="J77" s="45"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="44"/>
-      <c r="O77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>67</v>
       </c>
-      <c r="C78" s="48">
+      <c r="C78" s="47">
         <f t="shared" si="9"/>
         <v>-13918.839999999998</v>
       </c>
-      <c r="D78" s="48">
+      <c r="D78" s="47">
         <f t="shared" si="6"/>
         <v>-11999</v>
       </c>
@@ -5051,22 +5634,22 @@
         <f t="shared" si="8"/>
         <v>-560.05095589744826</v>
       </c>
-      <c r="J78" s="45"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="44"/>
-      <c r="O78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <v>68</v>
       </c>
-      <c r="C79" s="48">
+      <c r="C79" s="47">
         <f t="shared" si="9"/>
         <v>-13918.839999999998</v>
       </c>
-      <c r="D79" s="48">
+      <c r="D79" s="47">
         <f t="shared" si="6"/>
         <v>-11999</v>
       </c>
@@ -5078,22 +5661,22 @@
         <f t="shared" si="8"/>
         <v>-468.55823480031427</v>
       </c>
-      <c r="J79" s="45"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="44"/>
-      <c r="O79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <v>69</v>
       </c>
-      <c r="C80" s="48">
+      <c r="C80" s="47">
         <f t="shared" si="9"/>
         <v>-13918.839999999998</v>
       </c>
-      <c r="D80" s="48">
+      <c r="D80" s="47">
         <f t="shared" si="6"/>
         <v>-11999</v>
       </c>
@@ -5105,22 +5688,22 @@
         <f t="shared" si="8"/>
         <v>-376.33372287331622</v>
       </c>
-      <c r="J80" s="45"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="44"/>
-      <c r="O80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
         <v>70</v>
       </c>
-      <c r="C81" s="48">
+      <c r="C81" s="47">
         <f t="shared" si="9"/>
         <v>-13918.839999999998</v>
       </c>
-      <c r="D81" s="48">
+      <c r="D81" s="47">
         <f t="shared" si="6"/>
         <v>-11999</v>
       </c>
@@ -5132,22 +5715,22 @@
         <f t="shared" si="8"/>
         <v>-283.37156699707731</v>
       </c>
-      <c r="J81" s="44"/>
-      <c r="K81" s="44"/>
-      <c r="L81" s="44"/>
-      <c r="M81" s="44"/>
-      <c r="N81" s="44"/>
-      <c r="O81" s="44"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="43"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>71</v>
       </c>
-      <c r="C82" s="48">
+      <c r="C82" s="47">
         <f t="shared" si="9"/>
         <v>-13918.839999999998</v>
       </c>
-      <c r="D82" s="48">
+      <c r="D82" s="47">
         <f t="shared" si="6"/>
         <v>-11999</v>
       </c>
@@ -5159,22 +5742,22 @@
         <f t="shared" si="8"/>
         <v>-189.66586723692205</v>
       </c>
-      <c r="J82" s="44"/>
-      <c r="K82" s="44"/>
-      <c r="L82" s="44"/>
-      <c r="M82" s="44"/>
-      <c r="N82" s="44"/>
-      <c r="O82" s="44"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="43"/>
+      <c r="M82" s="43"/>
+      <c r="N82" s="43"/>
+      <c r="O82" s="43"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
         <v>72</v>
       </c>
-      <c r="C83" s="48">
+      <c r="C83" s="47">
         <f t="shared" si="9"/>
         <v>-13918.839999999998</v>
       </c>
-      <c r="D83" s="48">
+      <c r="D83" s="47">
         <f t="shared" si="6"/>
         <v>-11999</v>
       </c>
@@ -5186,76 +5769,76 @@
         <f t="shared" si="8"/>
         <v>-95.210676468430847</v>
       </c>
-      <c r="J83" s="44"/>
-      <c r="K83" s="44"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="44"/>
-      <c r="O83" s="44"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="43"/>
+      <c r="M83" s="43"/>
+      <c r="N83" s="43"/>
+      <c r="O83" s="43"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J84" s="44"/>
-      <c r="K84" s="44"/>
-      <c r="L84" s="44"/>
-      <c r="M84" s="44"/>
-      <c r="N84" s="44"/>
-      <c r="O84" s="44"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="43"/>
+      <c r="O84" s="43"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J85" s="44"/>
-      <c r="K85" s="44"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="44"/>
-      <c r="N85" s="44"/>
-      <c r="O85" s="44"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="43"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="43"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J86" s="44"/>
-      <c r="K86" s="44"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="44"/>
-      <c r="N86" s="44"/>
-      <c r="O86" s="44"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J87" s="44"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="44"/>
-      <c r="O87" s="44"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J88" s="44"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="44"/>
-      <c r="N88" s="44"/>
-      <c r="O88" s="44"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="43"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J89" s="44"/>
-      <c r="K89" s="44"/>
-      <c r="L89" s="44"/>
-      <c r="M89" s="44"/>
-      <c r="N89" s="44"/>
-      <c r="O89" s="44"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="43"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J90" s="44"/>
-      <c r="K90" s="44"/>
-      <c r="L90" s="44"/>
-      <c r="M90" s="44"/>
-      <c r="N90" s="44"/>
-      <c r="O90" s="44"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J91" s="44"/>
-      <c r="K91" s="44"/>
-      <c r="L91" s="44"/>
-      <c r="M91" s="44"/>
-      <c r="N91" s="44"/>
-      <c r="O91" s="44"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Other/Seventh Semester/Proyectos de Inversion/Casos.xlsx
+++ b/Other/Seventh Semester/Proyectos de Inversion/Casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalor\Documents\Git\School\Other\Seventh Semester\Proyectos de Inversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086B4674-360A-4320-B556-B390FD016043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE17F47B-7575-40E3-AA87-C3C7659478E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Fresadora" sheetId="1" r:id="rId1"/>
@@ -145,61 +145,8 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sara Carolina Gómez Delgado</author>
-    <author>tc={EA6973FD-549B-4029-885C-45775B88A94A}</author>
-    <author>tc={4D3113BB-F6DA-4CC2-83FC-5F7E89744279}</author>
-  </authors>
-  <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{27EB1DAD-23B9-43BE-B812-E56ABDAEAC44}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Anónimo:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sospechamos que la tasa de interés fija está incluida en el CAT.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I10" authorId="1" shapeId="0" xr:uid="{EA6973FD-549B-4029-885C-45775B88A94A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Este es el 50% del valor del carro</t>
-      </text>
-    </comment>
-    <comment ref="J10" authorId="2" shapeId="0" xr:uid="{4D3113BB-F6DA-4CC2-83FC-5F7E89744279}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Esto es lo que pagamos de intereses de intereses al dia de hoy</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
   <si>
     <t xml:space="preserve">Reemplazo vieja maquinaria fresadora </t>
   </si>
@@ -378,63 +325,18 @@
     <t>TIR</t>
   </si>
   <si>
-    <t xml:space="preserve">Pago </t>
-  </si>
-  <si>
-    <t>mes</t>
-  </si>
-  <si>
-    <t>Plazo</t>
-  </si>
-  <si>
-    <t>meses</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>ief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip </t>
-  </si>
-  <si>
     <t>Pago capital</t>
   </si>
   <si>
     <t>Pago intereses</t>
   </si>
   <si>
-    <t>Mes</t>
-  </si>
-  <si>
-    <t>Presente deuda</t>
-  </si>
-  <si>
-    <t>Presente carro</t>
-  </si>
-  <si>
-    <t>Presente intereses</t>
-  </si>
-  <si>
-    <t>Pago con IVA</t>
-  </si>
-  <si>
     <t>Respuesta 2:</t>
   </si>
   <si>
     <t>Te vas por el gas, dependiendo de si te conviene</t>
   </si>
   <si>
-    <t>NOS QUEDAMOS CON TASA, NO CON CAT</t>
-  </si>
-  <si>
-    <t>IVA es sobre los intereses</t>
-  </si>
-  <si>
     <t>Opción nueva</t>
   </si>
   <si>
@@ -529,6 +431,63 @@
   </si>
   <si>
     <t>Toneladas extraidas dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesla </t>
+  </si>
+  <si>
+    <t>Datos</t>
+  </si>
+  <si>
+    <t>Pago</t>
+  </si>
+  <si>
+    <t>Enganche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa </t>
+  </si>
+  <si>
+    <t>mensual</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Tasa del periodo</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>Tabla de amortización</t>
+  </si>
+  <si>
+    <t>Pago con impuestos</t>
+  </si>
+  <si>
+    <t>nPer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNA </t>
+  </si>
+  <si>
+    <t>Representa el 50% del valor del carro</t>
+  </si>
+  <si>
+    <t>Valor total del carro</t>
+  </si>
+  <si>
+    <t>Representa el 100% del valor del carro</t>
+  </si>
+  <si>
+    <t>Intereses</t>
+  </si>
+  <si>
+    <t>Valor total de los intereses</t>
   </si>
 </sst>
 </file>
@@ -543,7 +502,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.0_-;\-&quot;$&quot;* #,##0.0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,13 +532,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -661,7 +613,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -729,7 +681,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -739,7 +690,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
@@ -753,6 +703,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -773,9 +729,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Luis Eduardo Robles Jiménez" id="{CDFA87E3-1859-4884-B0B1-7A60EEA0A133}" userId="Luis Eduardo Robles Jiménez" providerId="None"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1073,17 +1027,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I10" dT="2022-11-15T18:37:43.45" personId="{CDFA87E3-1859-4884-B0B1-7A60EEA0A133}" id="{EA6973FD-549B-4029-885C-45775B88A94A}">
-    <text>Este es el 50% del valor del carro</text>
-  </threadedComment>
-  <threadedComment ref="J10" dT="2022-11-15T18:38:02.44" personId="{CDFA87E3-1859-4884-B0B1-7A60EEA0A133}" id="{4D3113BB-F6DA-4CC2-83FC-5F7E89744279}">
-    <text>Esto es lo que pagamos de intereses de intereses al dia de hoy</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F780256-FAFA-45AD-BD21-220A3A64CB91}">
   <dimension ref="B2:R20"/>
@@ -1117,10 +1060,10 @@
         <v>0.1</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
@@ -1430,7 +1373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5ECF15-6822-4EE2-B3BE-6B316A49C0F5}">
   <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -1599,7 +1542,7 @@
       <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -2600,10 +2543,10 @@
         <v>-21250</v>
       </c>
       <c r="M19" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="N19" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
@@ -2932,29 +2875,29 @@
   <sheetData>
     <row r="2" spans="2:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="50">
+        <v>67</v>
+      </c>
+      <c r="C5" s="48">
         <v>125000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>52</v>
@@ -2969,10 +2912,10 @@
         <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>34</v>
@@ -3008,7 +2951,7 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -3044,16 +2987,16 @@
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="H8" s="2">
         <v>2</v>
@@ -3088,12 +3031,12 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="54">
+        <v>70</v>
+      </c>
+      <c r="C9" s="52">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="54">
         <v>30</v>
       </c>
       <c r="E9" s="2">
@@ -3135,12 +3078,12 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="54">
+        <v>71</v>
+      </c>
+      <c r="C10" s="52">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="54">
         <v>25</v>
       </c>
       <c r="E10" s="2">
@@ -3182,12 +3125,12 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="54">
+        <v>72</v>
+      </c>
+      <c r="C11" s="52">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="54">
         <v>35</v>
       </c>
       <c r="E11" s="2">
@@ -3244,7 +3187,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="P14" t="s">
         <v>10</v>
@@ -3256,66 +3199,66 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="50">
+        <v>77</v>
+      </c>
+      <c r="C15" s="48">
         <v>-300000</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="50">
+        <v>75</v>
+      </c>
+      <c r="C16" s="48">
         <v>-25000</v>
       </c>
       <c r="P16" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="38">
         <f>IRR(Q6:Q11)</f>
         <v>0.38450784697364293</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="51">
+        <v>76</v>
+      </c>
+      <c r="C17" s="49">
         <f>-45000*2</f>
         <v>-90000</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="51">
+        <v>79</v>
+      </c>
+      <c r="C18" s="49">
         <v>-150000</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="53">
+        <v>86</v>
+      </c>
+      <c r="C19" s="51">
         <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="51"/>
+      <c r="C21" s="49"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="51"/>
+        <v>80</v>
+      </c>
+      <c r="C22" s="49"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="51">
+        <v>81</v>
+      </c>
+      <c r="C23" s="49">
         <v>-20000</v>
       </c>
       <c r="D23" t="s">
@@ -3326,15 +3269,15 @@
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="55" t="s">
-        <v>97</v>
+      <c r="C24" s="53" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="53">
         <v>-12</v>
       </c>
     </row>
@@ -3342,7 +3285,7 @@
       <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="53">
         <v>-12</v>
       </c>
     </row>
@@ -3350,7 +3293,7 @@
       <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="53">
         <v>-12</v>
       </c>
     </row>
@@ -3358,7 +3301,7 @@
       <c r="B28" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="53">
         <v>-10</v>
       </c>
     </row>
@@ -3366,60 +3309,60 @@
       <c r="B29" s="2">
         <v>5</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="53">
         <v>-8</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="50">
+        <v>88</v>
+      </c>
+      <c r="C33" s="48">
         <v>300000</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="52">
+        <v>84</v>
+      </c>
+      <c r="C34" s="50">
         <v>0.18</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="50">
+        <v>89</v>
+      </c>
+      <c r="C36" s="48">
         <v>15000</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="52">
+        <v>91</v>
+      </c>
+      <c r="C37" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="52">
+      <c r="C41" s="50">
         <v>0.15</v>
       </c>
     </row>
@@ -3654,7 +3597,7 @@
       <c r="F11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="46">
         <f>IRR(J4:J6)</f>
         <v>0.5861222942225115</v>
       </c>
@@ -3666,2183 +3609,2123 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33222DB8-DDDF-4338-8B69-318A6255ED1A}">
-  <dimension ref="B2:O91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33222DB8-DDDF-4338-8B69-318A6255ED1A}">
+  <dimension ref="B2:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5546875" style="42"/>
+    <col min="3" max="3" width="13.5546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5546875" style="42" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" style="42"/>
+    <col min="8" max="8" width="13.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="42"/>
+    <col min="12" max="12" width="18.21875" style="42" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" style="42" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5546875" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="15">
+        <v>-11999</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="37">
-        <v>-11999</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="I5" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="2">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="36">
+      <c r="J5" s="39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="42">
+        <v>1</v>
+      </c>
+      <c r="G6" s="44">
+        <f>$C$5</f>
+        <v>-11999</v>
+      </c>
+      <c r="H6" s="44">
+        <f>-PPMT($C$10,F6,$C$12,$M$6)</f>
+        <v>-7010.6735497285608</v>
+      </c>
+      <c r="I6" s="44">
+        <f>-IPMT($C$10,F6,$C$12,$M$6)</f>
+        <v>-4988.3264502714392</v>
+      </c>
+      <c r="J6" s="44">
+        <f>H6+1.16*I6</f>
+        <v>-12797.13223204343</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" s="44">
+        <f>NPV(C10,G6:G77)</f>
+        <v>-665850.02673256141</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="41">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="42">
-        <f>EFFECT(C4,C6)</f>
-        <v>9.5980203157880473E-2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="F7" s="42">
+        <v>2</v>
+      </c>
+      <c r="G7" s="44">
+        <f t="shared" ref="G7:G70" si="0">$C$5</f>
+        <v>-11999</v>
+      </c>
+      <c r="H7" s="44">
+        <f t="shared" ref="H7:H70" si="1">-PPMT($C$10,F7,$C$12,$M$6)</f>
+        <v>-7063.1951790719431</v>
+      </c>
+      <c r="I7" s="44">
+        <f t="shared" ref="I7:I70" si="2">-IPMT($C$10,F7,$C$12,$M$6)</f>
+        <v>-4935.8048209280569</v>
+      </c>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7:J70" si="3">H7+1.16*I7</f>
+        <v>-12788.728771348487</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" s="44">
+        <f>2*M6</f>
+        <v>-1331700.0534651228</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="36">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="42">
+        <v>3</v>
+      </c>
+      <c r="G8" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H8" s="44">
+        <f t="shared" si="1"/>
+        <v>-7116.1102829551564</v>
+      </c>
+      <c r="I8" s="44">
+        <f t="shared" si="2"/>
+        <v>-4882.8897170448427</v>
+      </c>
+      <c r="J8" s="44">
+        <f t="shared" si="3"/>
+        <v>-12780.262354727172</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="44">
+        <f>SUM(I6:I77)</f>
+        <v>-198077.97326743853</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="58">
         <v>12</v>
       </c>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="42">
-        <f>C5/C6</f>
-        <v>7.9983502631567061E-3</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J8" s="44"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="43"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J9" s="44"/>
+      <c r="F9" s="42">
+        <v>4</v>
+      </c>
+      <c r="G9" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H9" s="44">
+        <f t="shared" si="1"/>
+        <v>-7169.4218091582961</v>
+      </c>
+      <c r="I9" s="44">
+        <f t="shared" si="2"/>
+        <v>-4829.5781908417039</v>
+      </c>
+      <c r="J9" s="44">
+        <f t="shared" si="3"/>
+        <v>-12771.732510534672</v>
+      </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="44" t="s">
-        <v>72</v>
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="41">
+        <f>C8/C9</f>
+        <v>7.4916666666666664E-3</v>
+      </c>
+      <c r="F10" s="42">
+        <v>5</v>
+      </c>
+      <c r="G10" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H10" s="44">
+        <f t="shared" si="1"/>
+        <v>-7223.1327275452404</v>
+      </c>
+      <c r="I10" s="44">
+        <f t="shared" si="2"/>
+        <v>-4775.8672724547596</v>
+      </c>
+      <c r="J10" s="44">
+        <f t="shared" si="3"/>
+        <v>-12763.13876359276</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="H11" s="28">
-        <f>NPV(C7,D12:D83)</f>
-        <v>-654832.52962543443</v>
-      </c>
-      <c r="I11" s="28">
-        <f>NPV(C7,E12:E83)</f>
-        <v>-482959.36645717744</v>
-      </c>
-      <c r="J11" s="28">
-        <f>NPV(C7,F12:F83)</f>
-        <v>-171873.163168258</v>
+      <c r="M10" s="45"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="59">
+        <v>0.16</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="F11" s="42">
+        <v>6</v>
+      </c>
+      <c r="G11" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H11" s="44">
+        <f t="shared" si="1"/>
+        <v>-7277.2460302291001</v>
+      </c>
+      <c r="I11" s="44">
+        <f t="shared" si="2"/>
+        <v>-4721.7539697708989</v>
+      </c>
+      <c r="J11" s="44">
+        <f t="shared" si="3"/>
+        <v>-12754.480635163342</v>
       </c>
       <c r="K11" s="35"/>
       <c r="L11" s="34"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="47">
-        <f>D12*1.16</f>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D12" s="47">
-        <f t="shared" ref="D12:D75" si="0">$C$2</f>
-        <v>-11999</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" ref="E12:E43" si="1">-PPMT($C$7,B12,$C$3,$H$11)</f>
-        <v>-6761.4200643468548</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" ref="F12:F43" si="2">-IPMT($C$7,B12,$C$3,$H$11)</f>
-        <v>-5237.5799356531652</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="J12" s="44"/>
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="60">
+        <v>72</v>
+      </c>
+      <c r="D12" s="56"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="42">
+        <v>7</v>
+      </c>
+      <c r="G12" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H12" s="44">
+        <f t="shared" si="1"/>
+        <v>-7331.764731738901</v>
+      </c>
+      <c r="I12" s="44">
+        <f t="shared" si="2"/>
+        <v>-4667.235268261099</v>
+      </c>
+      <c r="J12" s="44">
+        <f t="shared" si="3"/>
+        <v>-12745.757642921775</v>
+      </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="47">
-        <f t="shared" ref="C13:C76" si="3">D13*1.16</f>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D13" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="1"/>
-        <v>-6815.5002702978372</v>
-      </c>
-      <c r="F13" s="9">
-        <f t="shared" si="2"/>
-        <v>-5183.4997297021828</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="J13" s="44"/>
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="42">
+        <v>8</v>
+      </c>
+      <c r="G13" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H13" s="44">
+        <f t="shared" si="1"/>
+        <v>-7386.6918691875107</v>
+      </c>
+      <c r="I13" s="44">
+        <f t="shared" si="2"/>
+        <v>-4612.3081308124893</v>
+      </c>
+      <c r="J13" s="44">
+        <f t="shared" si="3"/>
+        <v>-12736.969300929999</v>
+      </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D14" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="1"/>
-        <v>-6870.0130286783178</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" si="2"/>
-        <v>-5128.9869713217022</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="J14" s="44"/>
+      <c r="M13" s="45"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="42">
+        <v>9</v>
+      </c>
+      <c r="G14" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H14" s="44">
+        <f t="shared" si="1"/>
+        <v>-7442.0305024408399</v>
+      </c>
+      <c r="I14" s="44">
+        <f t="shared" si="2"/>
+        <v>-4556.9694975591592</v>
+      </c>
+      <c r="J14" s="44">
+        <f t="shared" si="3"/>
+        <v>-12728.115119609465</v>
+      </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D15" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="1"/>
-        <v>-6924.9617991941368</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="2"/>
-        <v>-5074.0382008058832</v>
-      </c>
-      <c r="J15" s="44"/>
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="42">
+        <v>10</v>
+      </c>
+      <c r="G15" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H15" s="44">
+        <f t="shared" si="1"/>
+        <v>-7497.7837142882927</v>
+      </c>
+      <c r="I15" s="44">
+        <f t="shared" si="2"/>
+        <v>-4501.2162857117073</v>
+      </c>
+      <c r="J15" s="44">
+        <f t="shared" si="3"/>
+        <v>-12719.194605713874</v>
+      </c>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D16" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="1"/>
-        <v>-6980.3500692230728</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" si="2"/>
-        <v>-5018.6499307769491</v>
-      </c>
-      <c r="J16" s="44"/>
+      <c r="M15" s="45"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="42">
+        <v>11</v>
+      </c>
+      <c r="G16" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H16" s="44">
+        <f t="shared" si="1"/>
+        <v>-7553.9546106145026</v>
+      </c>
+      <c r="I16" s="44">
+        <f t="shared" si="2"/>
+        <v>-4445.0453893854965</v>
+      </c>
+      <c r="J16" s="44">
+        <f t="shared" si="3"/>
+        <v>-12710.207262301679</v>
+      </c>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>6</v>
-      </c>
-      <c r="C17" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D17" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="1"/>
-        <v>-7036.1813540361682</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" si="2"/>
-        <v>-4962.8186459638509</v>
-      </c>
-      <c r="J17" s="44"/>
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="42">
+        <v>12</v>
+      </c>
+      <c r="G17" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H17" s="44">
+        <f t="shared" si="1"/>
+        <v>-7610.5463205723563</v>
+      </c>
+      <c r="I17" s="44">
+        <f t="shared" si="2"/>
+        <v>-4388.4536794276437</v>
+      </c>
+      <c r="J17" s="44">
+        <f t="shared" si="3"/>
+        <v>-12701.152588708423</v>
+      </c>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
-        <v>7</v>
-      </c>
-      <c r="C18" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D18" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E18" s="9">
-        <f t="shared" si="1"/>
-        <v>-7092.4591970208403</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" si="2"/>
-        <v>-4906.5408029791797</v>
-      </c>
-      <c r="J18" s="44"/>
+      <c r="M17" s="45"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="42">
+        <v>13</v>
+      </c>
+      <c r="G18" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H18" s="44">
+        <f t="shared" si="1"/>
+        <v>-7667.5619967573102</v>
+      </c>
+      <c r="I18" s="44">
+        <f t="shared" si="2"/>
+        <v>-4331.4380032426898</v>
+      </c>
+      <c r="J18" s="44">
+        <f t="shared" si="3"/>
+        <v>-12692.030080518831</v>
+      </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
-        <v>8</v>
-      </c>
-      <c r="C19" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D19" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E19" s="9">
-        <f t="shared" si="1"/>
-        <v>-7149.187169905761</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="2"/>
-        <v>-4849.8128300942581</v>
-      </c>
-      <c r="J19" s="44"/>
+      <c r="M18" s="45"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="42">
+        <v>14</v>
+      </c>
+      <c r="G19" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H19" s="44">
+        <f t="shared" si="1"/>
+        <v>-7725.0048153830176</v>
+      </c>
+      <c r="I19" s="44">
+        <f t="shared" si="2"/>
+        <v>-4273.9951846169824</v>
+      </c>
+      <c r="J19" s="44">
+        <f t="shared" si="3"/>
+        <v>-12682.839229538717</v>
+      </c>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>9</v>
-      </c>
-      <c r="C20" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D20" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E20" s="9">
-        <f t="shared" si="1"/>
-        <v>-7206.3688729875339</v>
-      </c>
-      <c r="F20" s="9">
-        <f t="shared" si="2"/>
-        <v>-4792.6311270124861</v>
-      </c>
-      <c r="J20" s="44"/>
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="42">
+        <v>15</v>
+      </c>
+      <c r="G20" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H20" s="44">
+        <f t="shared" si="1"/>
+        <v>-7782.8779764582623</v>
+      </c>
+      <c r="I20" s="44">
+        <f t="shared" si="2"/>
+        <v>-4216.1220235417368</v>
+      </c>
+      <c r="J20" s="44">
+        <f t="shared" si="3"/>
+        <v>-12673.579523766677</v>
+      </c>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>10</v>
-      </c>
-      <c r="C21" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D21" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E21" s="9">
-        <f t="shared" si="1"/>
-        <v>-7264.0079353591982</v>
-      </c>
-      <c r="F21" s="9">
-        <f t="shared" si="2"/>
-        <v>-4734.9920646408218</v>
-      </c>
-      <c r="J21" s="44"/>
+      <c r="M20" s="45"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="42">
+        <v>16</v>
+      </c>
+      <c r="G21" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H21" s="44">
+        <f t="shared" si="1"/>
+        <v>-7841.1847039652284</v>
+      </c>
+      <c r="I21" s="44">
+        <f t="shared" si="2"/>
+        <v>-4157.8152960347707</v>
+      </c>
+      <c r="J21" s="44">
+        <f t="shared" si="3"/>
+        <v>-12664.250447365561</v>
+      </c>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>11</v>
-      </c>
-      <c r="C22" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D22" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" si="1"/>
-        <v>-7322.1080151405504</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" si="2"/>
-        <v>-4676.8919848594696</v>
-      </c>
-      <c r="J22" s="44"/>
+      <c r="M21" s="45"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="42">
+        <v>17</v>
+      </c>
+      <c r="G22" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H22" s="44">
+        <f t="shared" si="1"/>
+        <v>-7899.9282460391014</v>
+      </c>
+      <c r="I22" s="44">
+        <f t="shared" si="2"/>
+        <v>-4099.0717539608986</v>
+      </c>
+      <c r="J22" s="44">
+        <f t="shared" si="3"/>
+        <v>-12654.851480633744</v>
+      </c>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>12</v>
-      </c>
-      <c r="C23" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D23" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E23" s="9">
-        <f t="shared" si="1"/>
-        <v>-7380.6727997103117</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="2"/>
-        <v>-4618.3272002897083</v>
-      </c>
-      <c r="J23" s="44"/>
+      <c r="M22" s="45"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="42">
+        <v>18</v>
+      </c>
+      <c r="G23" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H23" s="44">
+        <f t="shared" si="1"/>
+        <v>-7959.1118751490112</v>
+      </c>
+      <c r="I23" s="44">
+        <f t="shared" si="2"/>
+        <v>-4039.8881248509879</v>
+      </c>
+      <c r="J23" s="44">
+        <f t="shared" si="3"/>
+        <v>-12645.382099976156</v>
+      </c>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>13</v>
-      </c>
-      <c r="C24" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D24" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E24" s="9">
-        <f t="shared" si="1"/>
-        <v>-7439.7060059401474</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" si="2"/>
-        <v>-4559.2939940598735</v>
-      </c>
-      <c r="J24" s="44"/>
+      <c r="M23" s="45"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="42">
+        <v>19</v>
+      </c>
+      <c r="G24" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H24" s="44">
+        <f t="shared" si="1"/>
+        <v>-8018.7388882803361</v>
+      </c>
+      <c r="I24" s="44">
+        <f t="shared" si="2"/>
+        <v>-3980.2611117196639</v>
+      </c>
+      <c r="J24" s="44">
+        <f t="shared" si="3"/>
+        <v>-12635.841777875146</v>
+      </c>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <v>14</v>
-      </c>
-      <c r="C25" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D25" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E25" s="9">
-        <f t="shared" si="1"/>
-        <v>-7499.2113804305673</v>
-      </c>
-      <c r="F25" s="9">
-        <f t="shared" si="2"/>
-        <v>-4499.7886195694518</v>
-      </c>
-      <c r="J25" s="44"/>
+      <c r="M24" s="45"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="42">
+        <v>20</v>
+      </c>
+      <c r="G25" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H25" s="44">
+        <f t="shared" si="1"/>
+        <v>-8078.8126071183688</v>
+      </c>
+      <c r="I25" s="44">
+        <f t="shared" si="2"/>
+        <v>-3920.1873928816303</v>
+      </c>
+      <c r="J25" s="44">
+        <f t="shared" si="3"/>
+        <v>-12626.229982861059</v>
+      </c>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <v>15</v>
-      </c>
-      <c r="C26" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D26" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E26" s="9">
-        <f t="shared" si="1"/>
-        <v>-7559.1926997487035</v>
-      </c>
-      <c r="F26" s="9">
-        <f t="shared" si="2"/>
-        <v>-4439.8073002513174</v>
-      </c>
-      <c r="J26" s="44"/>
+      <c r="M25" s="45"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="42">
+        <v>21</v>
+      </c>
+      <c r="G26" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H26" s="44">
+        <f t="shared" si="1"/>
+        <v>-8139.3363782333636</v>
+      </c>
+      <c r="I26" s="44">
+        <f t="shared" si="2"/>
+        <v>-3859.6636217666351</v>
+      </c>
+      <c r="J26" s="44">
+        <f t="shared" si="3"/>
+        <v>-12616.546179482659</v>
+      </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>16</v>
-      </c>
-      <c r="C27" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D27" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E27" s="9">
-        <f t="shared" si="1"/>
-        <v>-7619.6537706679901</v>
-      </c>
-      <c r="F27" s="9">
-        <f t="shared" si="2"/>
-        <v>-4379.3462293320308</v>
-      </c>
-      <c r="J27" s="44"/>
+      <c r="M26" s="45"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="42">
+        <v>22</v>
+      </c>
+      <c r="G27" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H27" s="44">
+        <f t="shared" si="1"/>
+        <v>-8200.3135732669634</v>
+      </c>
+      <c r="I27" s="44">
+        <f t="shared" si="2"/>
+        <v>-3798.686426733037</v>
+      </c>
+      <c r="J27" s="44">
+        <f t="shared" si="3"/>
+        <v>-12606.789828277286</v>
+      </c>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <v>17</v>
-      </c>
-      <c r="C28" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D28" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E28" s="9">
-        <f t="shared" si="1"/>
-        <v>-7680.5984304097747</v>
-      </c>
-      <c r="F28" s="9">
-        <f t="shared" si="2"/>
-        <v>-4318.4015695902444</v>
-      </c>
-      <c r="J28" s="44"/>
+      <c r="M27" s="45"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="42">
+        <v>23</v>
+      </c>
+      <c r="G28" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H28" s="44">
+        <f t="shared" si="1"/>
+        <v>-8261.7475891200211</v>
+      </c>
+      <c r="I28" s="44">
+        <f t="shared" si="2"/>
+        <v>-3737.2524108799789</v>
+      </c>
+      <c r="J28" s="44">
+        <f t="shared" si="3"/>
+        <v>-12596.960385740796</v>
+      </c>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
-        <v>18</v>
-      </c>
-      <c r="C29" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D29" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E29" s="9">
-        <f t="shared" si="1"/>
-        <v>-7742.0305468868437</v>
-      </c>
-      <c r="F29" s="9">
-        <f t="shared" si="2"/>
-        <v>-4256.9694531131754</v>
-      </c>
-      <c r="J29" s="44"/>
+      <c r="M28" s="45"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="42">
+        <v>24</v>
+      </c>
+      <c r="G29" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H29" s="44">
+        <f t="shared" si="1"/>
+        <v>-8323.6418481418459</v>
+      </c>
+      <c r="I29" s="44">
+        <f t="shared" si="2"/>
+        <v>-3675.358151858155</v>
+      </c>
+      <c r="J29" s="44">
+        <f t="shared" si="3"/>
+        <v>-12587.057304297305</v>
+      </c>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
-        <v>19</v>
-      </c>
-      <c r="C30" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D30" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E30" s="9">
-        <f t="shared" si="1"/>
-        <v>-7803.9540189489044</v>
-      </c>
-      <c r="F30" s="9">
-        <f t="shared" si="2"/>
-        <v>-4195.0459810511156</v>
-      </c>
-      <c r="J30" s="44"/>
+      <c r="M29" s="45"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="42">
+        <v>25</v>
+      </c>
+      <c r="G30" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H30" s="44">
+        <f t="shared" si="1"/>
+        <v>-8385.9997983208414</v>
+      </c>
+      <c r="I30" s="44">
+        <f t="shared" si="2"/>
+        <v>-3613.0002016791586</v>
+      </c>
+      <c r="J30" s="44">
+        <f t="shared" si="3"/>
+        <v>-12577.080032268666</v>
+      </c>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
-        <v>20</v>
-      </c>
-      <c r="C31" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D31" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E31" s="9">
-        <f t="shared" si="1"/>
-        <v>-7866.3727766300253</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" si="2"/>
-        <v>-4132.6272233699938</v>
-      </c>
-      <c r="J31" s="44"/>
+      <c r="M30" s="45"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="42">
+        <v>26</v>
+      </c>
+      <c r="G31" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H31" s="44">
+        <f t="shared" si="1"/>
+        <v>-8448.8249134765956</v>
+      </c>
+      <c r="I31" s="44">
+        <f t="shared" si="2"/>
+        <v>-3550.1750865234048</v>
+      </c>
+      <c r="J31" s="44">
+        <f t="shared" si="3"/>
+        <v>-12567.028013843745</v>
+      </c>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
-        <v>21</v>
-      </c>
-      <c r="C32" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D32" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E32" s="9">
-        <f t="shared" si="1"/>
-        <v>-7929.2907813980737</v>
-      </c>
-      <c r="F32" s="9">
-        <f t="shared" si="2"/>
-        <v>-4069.7092186019458</v>
-      </c>
-      <c r="J32" s="44"/>
+      <c r="M31" s="45"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="42">
+        <v>27</v>
+      </c>
+      <c r="G32" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H32" s="44">
+        <f t="shared" si="1"/>
+        <v>-8512.1206934533893</v>
+      </c>
+      <c r="I32" s="44">
+        <f t="shared" si="2"/>
+        <v>-3486.8793065466102</v>
+      </c>
+      <c r="J32" s="44">
+        <f t="shared" si="3"/>
+        <v>-12556.900689047457</v>
+      </c>
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="2">
-        <v>22</v>
-      </c>
-      <c r="C33" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D33" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E33" s="9">
-        <f t="shared" si="1"/>
-        <v>-7992.7120264061159</v>
-      </c>
-      <c r="F33" s="9">
-        <f t="shared" si="2"/>
-        <v>-4006.287973593905</v>
-      </c>
-      <c r="J33" s="44"/>
+      <c r="M32" s="45"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="42">
+        <v>28</v>
+      </c>
+      <c r="G33" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H33" s="44">
+        <f t="shared" si="1"/>
+        <v>-8575.8906643151786</v>
+      </c>
+      <c r="I33" s="44">
+        <f t="shared" si="2"/>
+        <v>-3423.109335684821</v>
+      </c>
+      <c r="J33" s="44">
+        <f t="shared" si="3"/>
+        <v>-12546.697493709571</v>
+      </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
-        <v>23</v>
-      </c>
-      <c r="C34" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D34" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E34" s="9">
-        <f t="shared" si="1"/>
-        <v>-8056.6405367458556</v>
-      </c>
-      <c r="F34" s="9">
-        <f t="shared" si="2"/>
-        <v>-3942.359463254164</v>
-      </c>
-      <c r="J34" s="44"/>
+      <c r="M33" s="45"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="42">
+        <v>29</v>
+      </c>
+      <c r="G34" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H34" s="44">
+        <f t="shared" si="1"/>
+        <v>-8640.1383785420057</v>
+      </c>
+      <c r="I34" s="44">
+        <f t="shared" si="2"/>
+        <v>-3358.8616214579929</v>
+      </c>
+      <c r="J34" s="44">
+        <f t="shared" si="3"/>
+        <v>-12536.417859433277</v>
+      </c>
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="2">
-        <v>24</v>
-      </c>
-      <c r="C35" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D35" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E35" s="9">
-        <f t="shared" si="1"/>
-        <v>-8121.080369703096</v>
-      </c>
-      <c r="F35" s="9">
-        <f t="shared" si="2"/>
-        <v>-3877.9196302969231</v>
-      </c>
-      <c r="J35" s="44"/>
+      <c r="M34" s="45"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="42">
+        <v>30</v>
+      </c>
+      <c r="G35" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H35" s="44">
+        <f t="shared" si="1"/>
+        <v>-8704.8674152279164</v>
+      </c>
+      <c r="I35" s="44">
+        <f t="shared" si="2"/>
+        <v>-3294.1325847720832</v>
+      </c>
+      <c r="J35" s="44">
+        <f t="shared" si="3"/>
+        <v>-12526.061213563533</v>
+      </c>
       <c r="K35" s="34"/>
       <c r="L35" s="34"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
-        <v>25</v>
-      </c>
-      <c r="C36" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D36" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E36" s="9">
-        <f t="shared" si="1"/>
-        <v>-8186.0356150152284</v>
-      </c>
-      <c r="F36" s="9">
-        <f t="shared" si="2"/>
-        <v>-3812.9643849847921</v>
-      </c>
-      <c r="J36" s="44"/>
+      <c r="M35" s="45"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="42">
+        <v>31</v>
+      </c>
+      <c r="G36" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H36" s="44">
+        <f t="shared" si="1"/>
+        <v>-8770.0813802803332</v>
+      </c>
+      <c r="I36" s="44">
+        <f t="shared" si="2"/>
+        <v>-3228.9186197196673</v>
+      </c>
+      <c r="J36" s="44">
+        <f t="shared" si="3"/>
+        <v>-12515.626979155148</v>
+      </c>
       <c r="K36" s="34"/>
       <c r="L36" s="34"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
-        <v>26</v>
-      </c>
-      <c r="C37" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D37" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E37" s="9">
-        <f t="shared" si="1"/>
-        <v>-8251.5103951307956</v>
-      </c>
-      <c r="F37" s="9">
-        <f t="shared" si="2"/>
-        <v>-3747.489604869224</v>
-      </c>
-      <c r="J37" s="44"/>
+      <c r="M36" s="45"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="42">
+        <v>32</v>
+      </c>
+      <c r="G37" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H37" s="44">
+        <f t="shared" si="1"/>
+        <v>-8835.7839066209326</v>
+      </c>
+      <c r="I37" s="44">
+        <f t="shared" si="2"/>
+        <v>-3163.2160933790674</v>
+      </c>
+      <c r="J37" s="44">
+        <f t="shared" si="3"/>
+        <v>-12505.11457494065</v>
+      </c>
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
-        <v>27</v>
-      </c>
-      <c r="C38" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D38" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E38" s="9">
-        <f t="shared" si="1"/>
-        <v>-8317.508865471129</v>
-      </c>
-      <c r="F38" s="9">
-        <f t="shared" si="2"/>
-        <v>-3681.4911345288901</v>
-      </c>
-      <c r="J38" s="44"/>
+      <c r="M37" s="45"/>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="42">
+        <v>33</v>
+      </c>
+      <c r="G38" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H38" s="44">
+        <f t="shared" si="1"/>
+        <v>-8901.9786543880346</v>
+      </c>
+      <c r="I38" s="44">
+        <f t="shared" si="2"/>
+        <v>-3097.0213456119645</v>
+      </c>
+      <c r="J38" s="44">
+        <f t="shared" si="3"/>
+        <v>-12494.523415297914</v>
+      </c>
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="2">
-        <v>28</v>
-      </c>
-      <c r="C39" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D39" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E39" s="9">
-        <f t="shared" si="1"/>
-        <v>-8384.0352146940786</v>
-      </c>
-      <c r="F39" s="9">
-        <f t="shared" si="2"/>
-        <v>-3614.9647853059405</v>
-      </c>
-      <c r="J39" s="44"/>
+      <c r="M38" s="45"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="42">
+        <v>34</v>
+      </c>
+      <c r="G39" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H39" s="44">
+        <f t="shared" si="1"/>
+        <v>-8968.6693111404929</v>
+      </c>
+      <c r="I39" s="44">
+        <f t="shared" si="2"/>
+        <v>-3030.330688859508</v>
+      </c>
+      <c r="J39" s="44">
+        <f t="shared" si="3"/>
+        <v>-12483.852910217522</v>
+      </c>
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="2">
-        <v>29</v>
-      </c>
-      <c r="C40" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D40" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E40" s="9">
-        <f t="shared" si="1"/>
-        <v>-8451.0936649598425</v>
-      </c>
-      <c r="F40" s="9">
-        <f t="shared" si="2"/>
-        <v>-3547.9063350401775</v>
-      </c>
-      <c r="J40" s="44"/>
+      <c r="M39" s="45"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="42">
+        <v>35</v>
+      </c>
+      <c r="G40" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H40" s="44">
+        <f t="shared" si="1"/>
+        <v>-9035.8595920631196</v>
+      </c>
+      <c r="I40" s="44">
+        <f t="shared" si="2"/>
+        <v>-2963.1404079368799</v>
+      </c>
+      <c r="J40" s="44">
+        <f t="shared" si="3"/>
+        <v>-12473.1024652699</v>
+      </c>
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="2">
-        <v>30</v>
-      </c>
-      <c r="C41" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D41" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E41" s="9">
-        <f t="shared" si="1"/>
-        <v>-8518.6884721989372</v>
-      </c>
-      <c r="F41" s="9">
-        <f t="shared" si="2"/>
-        <v>-3480.3115278010837</v>
-      </c>
-      <c r="J41" s="44"/>
+      <c r="M40" s="45"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="42">
+        <v>36</v>
+      </c>
+      <c r="G41" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H41" s="44">
+        <f t="shared" si="1"/>
+        <v>-9103.55324017366</v>
+      </c>
+      <c r="I41" s="44">
+        <f t="shared" si="2"/>
+        <v>-2895.4467598263409</v>
+      </c>
+      <c r="J41" s="44">
+        <f t="shared" si="3"/>
+        <v>-12462.271481572216</v>
+      </c>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="2">
-        <v>31</v>
-      </c>
-      <c r="C42" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D42" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E42" s="9">
-        <f t="shared" si="1"/>
-        <v>-8586.8239263822961</v>
-      </c>
-      <c r="F42" s="9">
-        <f t="shared" si="2"/>
-        <v>-3412.1760736177216</v>
-      </c>
-      <c r="J42" s="44"/>
+      <c r="M41" s="45"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="42">
+        <v>37</v>
+      </c>
+      <c r="G42" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H42" s="44">
+        <f t="shared" si="1"/>
+        <v>-9171.7540265312928</v>
+      </c>
+      <c r="I42" s="44">
+        <f t="shared" si="2"/>
+        <v>-2827.2459734687063</v>
+      </c>
+      <c r="J42" s="44">
+        <f t="shared" si="3"/>
+        <v>-12451.359355754992</v>
+      </c>
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="2">
-        <v>32</v>
-      </c>
-      <c r="C43" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D43" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E43" s="9">
-        <f t="shared" si="1"/>
-        <v>-8655.5043517935592</v>
-      </c>
-      <c r="F43" s="9">
-        <f t="shared" si="2"/>
-        <v>-3343.4956482064617</v>
-      </c>
-      <c r="J43" s="44"/>
+      <c r="M42" s="45"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="42">
+        <v>38</v>
+      </c>
+      <c r="G43" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H43" s="44">
+        <f t="shared" si="1"/>
+        <v>-9240.4657504467214</v>
+      </c>
+      <c r="I43" s="44">
+        <f t="shared" si="2"/>
+        <v>-2758.5342495532768</v>
+      </c>
+      <c r="J43" s="44">
+        <f t="shared" si="3"/>
+        <v>-12440.365479928521</v>
+      </c>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
-        <v>33</v>
-      </c>
-      <c r="C44" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D44" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E44" s="9">
-        <f t="shared" ref="E44:E75" si="4">-PPMT($C$7,B44,$C$3,$H$11)</f>
-        <v>-8724.7341073034804</v>
-      </c>
-      <c r="F44" s="9">
-        <f t="shared" ref="F44:F75" si="5">-IPMT($C$7,B44,$C$3,$H$11)</f>
-        <v>-3274.2658926965391</v>
-      </c>
-      <c r="J44" s="44"/>
+      <c r="M43" s="45"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="42">
+        <v>39</v>
+      </c>
+      <c r="G44" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H44" s="44">
+        <f t="shared" si="1"/>
+        <v>-9309.6922396938189</v>
+      </c>
+      <c r="I44" s="44">
+        <f t="shared" si="2"/>
+        <v>-2689.3077603061797</v>
+      </c>
+      <c r="J44" s="44">
+        <f t="shared" si="3"/>
+        <v>-12429.289241648987</v>
+      </c>
       <c r="K44" s="34"/>
       <c r="L44" s="34"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="2">
-        <v>34</v>
-      </c>
-      <c r="C45" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D45" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E45" s="9">
-        <f t="shared" si="4"/>
-        <v>-8794.5175866466034</v>
-      </c>
-      <c r="F45" s="9">
-        <f t="shared" si="5"/>
-        <v>-3204.4824133534166</v>
-      </c>
-      <c r="J45" s="44"/>
+      <c r="M44" s="45"/>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="42">
+        <v>40</v>
+      </c>
+      <c r="G45" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H45" s="44">
+        <f t="shared" si="1"/>
+        <v>-9379.4373507228593</v>
+      </c>
+      <c r="I45" s="44">
+        <f t="shared" si="2"/>
+        <v>-2619.5626492771398</v>
+      </c>
+      <c r="J45" s="44">
+        <f t="shared" si="3"/>
+        <v>-12418.130023884341</v>
+      </c>
       <c r="K45" s="34"/>
       <c r="L45" s="34"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
-        <v>35</v>
-      </c>
-      <c r="C46" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D46" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E46" s="9">
-        <f t="shared" si="4"/>
-        <v>-8864.8592187000959</v>
-      </c>
-      <c r="F46" s="9">
-        <f t="shared" si="5"/>
-        <v>-3134.140781299925</v>
-      </c>
-      <c r="J46" s="44"/>
+      <c r="M45" s="45"/>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="42">
+        <v>41</v>
+      </c>
+      <c r="G46" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H46" s="44">
+        <f t="shared" si="1"/>
+        <v>-9449.7049688753577</v>
+      </c>
+      <c r="I46" s="44">
+        <f t="shared" si="2"/>
+        <v>-2549.2950311246414</v>
+      </c>
+      <c r="J46" s="44">
+        <f t="shared" si="3"/>
+        <v>-12406.887204979941</v>
+      </c>
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="2">
-        <v>36</v>
-      </c>
-      <c r="C47" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D47" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E47" s="9">
-        <f t="shared" si="4"/>
-        <v>-8935.763467764833</v>
-      </c>
-      <c r="F47" s="9">
-        <f t="shared" si="5"/>
-        <v>-3063.2365322351884</v>
-      </c>
-      <c r="J47" s="44"/>
+      <c r="M46" s="45"/>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="42">
+        <v>42</v>
+      </c>
+      <c r="G47" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H47" s="44">
+        <f t="shared" si="1"/>
+        <v>-9520.4990086005164</v>
+      </c>
+      <c r="I47" s="44">
+        <f t="shared" si="2"/>
+        <v>-2478.5009913994836</v>
+      </c>
+      <c r="J47" s="44">
+        <f t="shared" si="3"/>
+        <v>-12395.560158623917</v>
+      </c>
       <c r="K47" s="34"/>
       <c r="L47" s="34"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="2">
-        <v>37</v>
-      </c>
-      <c r="C48" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D48" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E48" s="9">
-        <f t="shared" si="4"/>
-        <v>-9007.2348338487354</v>
-      </c>
-      <c r="F48" s="9">
-        <f t="shared" si="5"/>
-        <v>-2991.7651661512855</v>
-      </c>
-      <c r="J48" s="44"/>
+      <c r="M47" s="45"/>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="42">
+        <v>43</v>
+      </c>
+      <c r="G48" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H48" s="44">
+        <f t="shared" si="1"/>
+        <v>-9591.8234136732826</v>
+      </c>
+      <c r="I48" s="44">
+        <f t="shared" si="2"/>
+        <v>-2407.1765863267178</v>
+      </c>
+      <c r="J48" s="44">
+        <f t="shared" si="3"/>
+        <v>-12384.148253812275</v>
+      </c>
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="2">
-        <v>38</v>
-      </c>
-      <c r="C49" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D49" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E49" s="9">
-        <f t="shared" si="4"/>
-        <v>-9079.2778529523621</v>
-      </c>
-      <c r="F49" s="9">
-        <f t="shared" si="5"/>
-        <v>-2919.722147047657</v>
-      </c>
-      <c r="J49" s="44"/>
+      <c r="M48" s="45"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="42">
+        <v>44</v>
+      </c>
+      <c r="G49" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H49" s="44">
+        <f t="shared" si="1"/>
+        <v>-9663.6821574140504</v>
+      </c>
+      <c r="I49" s="44">
+        <f t="shared" si="2"/>
+        <v>-2335.3178425859492</v>
+      </c>
+      <c r="J49" s="44">
+        <f t="shared" si="3"/>
+        <v>-12372.650854813752</v>
+      </c>
       <c r="K49" s="34"/>
       <c r="L49" s="34"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="2">
-        <v>39</v>
-      </c>
-      <c r="C50" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D50" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E50" s="9">
-        <f t="shared" si="4"/>
-        <v>-9151.8970973567957</v>
-      </c>
-      <c r="F50" s="9">
-        <f t="shared" si="5"/>
-        <v>-2847.1029026432225</v>
-      </c>
-      <c r="J50" s="44"/>
+      <c r="M49" s="45"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="42">
+        <v>45</v>
+      </c>
+      <c r="G50" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H50" s="44">
+        <f t="shared" si="1"/>
+        <v>-9736.0792429100111</v>
+      </c>
+      <c r="I50" s="44">
+        <f t="shared" si="2"/>
+        <v>-2262.9207570899894</v>
+      </c>
+      <c r="J50" s="44">
+        <f t="shared" si="3"/>
+        <v>-12361.067321134398</v>
+      </c>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="2">
-        <v>40</v>
-      </c>
-      <c r="C51" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D51" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E51" s="9">
-        <f t="shared" si="4"/>
-        <v>-9225.0971759138247</v>
-      </c>
-      <c r="F51" s="9">
-        <f t="shared" si="5"/>
-        <v>-2773.9028240861962</v>
-      </c>
-      <c r="J51" s="44"/>
+      <c r="M50" s="45"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="42">
+        <v>46</v>
+      </c>
+      <c r="G51" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H51" s="44">
+        <f t="shared" si="1"/>
+        <v>-9809.0187032381455</v>
+      </c>
+      <c r="I51" s="44">
+        <f t="shared" si="2"/>
+        <v>-2189.9812967618541</v>
+      </c>
+      <c r="J51" s="44">
+        <f t="shared" si="3"/>
+        <v>-12349.397007481895</v>
+      </c>
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="2">
-        <v>41</v>
-      </c>
-      <c r="C52" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D52" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E52" s="9">
-        <f t="shared" si="4"/>
-        <v>-9298.8827343384401</v>
-      </c>
-      <c r="F52" s="9">
-        <f t="shared" si="5"/>
-        <v>-2700.117265661579</v>
-      </c>
-      <c r="J52" s="44"/>
+      <c r="M51" s="45"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="42">
+        <v>47</v>
+      </c>
+      <c r="G52" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H52" s="44">
+        <f t="shared" si="1"/>
+        <v>-9882.504601689905</v>
+      </c>
+      <c r="I52" s="44">
+        <f t="shared" si="2"/>
+        <v>-2116.4953983100954</v>
+      </c>
+      <c r="J52" s="44">
+        <f t="shared" si="3"/>
+        <v>-12337.639263729616</v>
+      </c>
       <c r="K52" s="34"/>
       <c r="L52" s="34"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="2">
-        <v>42</v>
-      </c>
-      <c r="C53" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D53" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E53" s="9">
-        <f t="shared" si="4"/>
-        <v>-9373.258455503701</v>
-      </c>
-      <c r="F53" s="9">
-        <f t="shared" si="5"/>
-        <v>-2625.7415444963203</v>
-      </c>
-      <c r="J53" s="44"/>
+      <c r="M52" s="45"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="42">
+        <v>48</v>
+      </c>
+      <c r="G53" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H53" s="44">
+        <f t="shared" si="1"/>
+        <v>-9956.5410319975654</v>
+      </c>
+      <c r="I53" s="44">
+        <f t="shared" si="2"/>
+        <v>-2042.4589680024353</v>
+      </c>
+      <c r="J53" s="44">
+        <f t="shared" si="3"/>
+        <v>-12325.79343488039</v>
+      </c>
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="2">
-        <v>43</v>
-      </c>
-      <c r="C54" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D54" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E54" s="9">
-        <f t="shared" si="4"/>
-        <v>-9448.2290597379142</v>
-      </c>
-      <c r="F54" s="9">
-        <f t="shared" si="5"/>
-        <v>-2550.7709402621063</v>
-      </c>
-      <c r="J54" s="44"/>
+      <c r="M53" s="45"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="42">
+        <v>49</v>
+      </c>
+      <c r="G54" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H54" s="44">
+        <f t="shared" si="1"/>
+        <v>-10031.13211856228</v>
+      </c>
+      <c r="I54" s="44">
+        <f t="shared" si="2"/>
+        <v>-1967.8678814377201</v>
+      </c>
+      <c r="J54" s="44">
+        <f t="shared" si="3"/>
+        <v>-12313.858861030036</v>
+      </c>
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="2">
-        <v>44</v>
-      </c>
-      <c r="C55" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D55" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E55" s="9">
-        <f t="shared" si="4"/>
-        <v>-9523.7993051242338</v>
-      </c>
-      <c r="F55" s="9">
-        <f t="shared" si="5"/>
-        <v>-2475.2006948757871</v>
-      </c>
-      <c r="J55" s="44"/>
+      <c r="M54" s="45"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="42">
+        <v>50</v>
+      </c>
+      <c r="G55" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H55" s="44">
+        <f t="shared" si="1"/>
+        <v>-10106.282016683841</v>
+      </c>
+      <c r="I55" s="44">
+        <f t="shared" si="2"/>
+        <v>-1892.7179833161574</v>
+      </c>
+      <c r="J55" s="44">
+        <f t="shared" si="3"/>
+        <v>-12301.834877330584</v>
+      </c>
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="2">
-        <v>45</v>
-      </c>
-      <c r="C56" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D56" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E56" s="9">
-        <f t="shared" si="4"/>
-        <v>-9599.9739878026248</v>
-      </c>
-      <c r="F56" s="9">
-        <f t="shared" si="5"/>
-        <v>-2399.0260121973947</v>
-      </c>
-      <c r="J56" s="44"/>
+      <c r="M55" s="45"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="42">
+        <v>51</v>
+      </c>
+      <c r="G56" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H56" s="44">
+        <f t="shared" si="1"/>
+        <v>-10181.994912792165</v>
+      </c>
+      <c r="I56" s="44">
+        <f t="shared" si="2"/>
+        <v>-1817.0050872078345</v>
+      </c>
+      <c r="J56" s="44">
+        <f t="shared" si="3"/>
+        <v>-12289.720813953252</v>
+      </c>
       <c r="K56" s="34"/>
       <c r="L56" s="34"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="43"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="2">
-        <v>46</v>
-      </c>
-      <c r="C57" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D57" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E57" s="9">
-        <f t="shared" si="4"/>
-        <v>-9676.7579422742638</v>
-      </c>
-      <c r="F57" s="9">
-        <f t="shared" si="5"/>
-        <v>-2322.2420577257558</v>
-      </c>
-      <c r="J57" s="44"/>
+      <c r="M56" s="45"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="42">
+        <v>52</v>
+      </c>
+      <c r="G57" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H57" s="44">
+        <f t="shared" si="1"/>
+        <v>-10258.275024680499</v>
+      </c>
+      <c r="I57" s="44">
+        <f t="shared" si="2"/>
+        <v>-1740.7249753194997</v>
+      </c>
+      <c r="J57" s="44">
+        <f t="shared" si="3"/>
+        <v>-12277.515996051119</v>
+      </c>
       <c r="K57" s="34"/>
       <c r="L57" s="34"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="2">
-        <v>47</v>
-      </c>
-      <c r="C58" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D58" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E58" s="9">
-        <f t="shared" si="4"/>
-        <v>-9754.1560417083565</v>
-      </c>
-      <c r="F58" s="9">
-        <f t="shared" si="5"/>
-        <v>-2244.8439582916626</v>
-      </c>
-      <c r="J58" s="44"/>
+      <c r="M57" s="45"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="42">
+        <v>53</v>
+      </c>
+      <c r="G58" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H58" s="44">
+        <f t="shared" si="1"/>
+        <v>-10335.1266017404</v>
+      </c>
+      <c r="I58" s="44">
+        <f t="shared" si="2"/>
+        <v>-1663.8733982596016</v>
+      </c>
+      <c r="J58" s="44">
+        <f t="shared" si="3"/>
+        <v>-12265.219743721536</v>
+      </c>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="2">
-        <v>48</v>
-      </c>
-      <c r="C59" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D59" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E59" s="9">
-        <f t="shared" si="4"/>
-        <v>-9832.1731982514284</v>
-      </c>
-      <c r="F59" s="9">
-        <f t="shared" si="5"/>
-        <v>-2166.8268017485934</v>
-      </c>
-      <c r="J59" s="44"/>
+      <c r="M58" s="45"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="42">
+        <v>54</v>
+      </c>
+      <c r="G59" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H59" s="44">
+        <f t="shared" si="1"/>
+        <v>-10412.553925198436</v>
+      </c>
+      <c r="I59" s="44">
+        <f t="shared" si="2"/>
+        <v>-1586.4460748015631</v>
+      </c>
+      <c r="J59" s="44">
+        <f t="shared" si="3"/>
+        <v>-12252.831371968248</v>
+      </c>
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="2">
-        <v>49</v>
-      </c>
-      <c r="C60" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D60" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E60" s="9">
-        <f t="shared" si="4"/>
-        <v>-9910.8143633390628</v>
-      </c>
-      <c r="F60" s="9">
-        <f t="shared" si="5"/>
-        <v>-2088.1856366609563</v>
-      </c>
-      <c r="J60" s="44"/>
+      <c r="M59" s="45"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="42">
+        <v>55</v>
+      </c>
+      <c r="G60" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H60" s="44">
+        <f t="shared" si="1"/>
+        <v>-10490.561308354714</v>
+      </c>
+      <c r="I60" s="44">
+        <f t="shared" si="2"/>
+        <v>-1508.4386916452847</v>
+      </c>
+      <c r="J60" s="44">
+        <f t="shared" si="3"/>
+        <v>-12240.350190663245</v>
+      </c>
       <c r="K60" s="34"/>
       <c r="L60" s="34"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="2">
-        <v>50</v>
-      </c>
-      <c r="C61" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D61" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E61" s="9">
-        <f t="shared" si="4"/>
-        <v>-9990.084528010173</v>
-      </c>
-      <c r="F61" s="9">
-        <f t="shared" si="5"/>
-        <v>-2008.9154719898463</v>
-      </c>
-      <c r="J61" s="44"/>
+      <c r="M60" s="45"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="42">
+        <v>56</v>
+      </c>
+      <c r="G61" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H61" s="44">
+        <f t="shared" si="1"/>
+        <v>-10569.15309682314</v>
+      </c>
+      <c r="I61" s="44">
+        <f t="shared" si="2"/>
+        <v>-1429.8469031768609</v>
+      </c>
+      <c r="J61" s="44">
+        <f t="shared" si="3"/>
+        <v>-12227.775504508299</v>
+      </c>
       <c r="K61" s="34"/>
       <c r="L61" s="34"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="2">
-        <v>51</v>
-      </c>
-      <c r="C62" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D62" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E62" s="9">
-        <f t="shared" si="4"/>
-        <v>-10069.98872322374</v>
-      </c>
-      <c r="F62" s="9">
-        <f t="shared" si="5"/>
-        <v>-1929.0112767762787</v>
-      </c>
-      <c r="J62" s="44"/>
+      <c r="M61" s="45"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="42">
+        <v>57</v>
+      </c>
+      <c r="G62" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H62" s="44">
+        <f t="shared" si="1"/>
+        <v>-10648.333668773506</v>
+      </c>
+      <c r="I62" s="44">
+        <f t="shared" si="2"/>
+        <v>-1350.6663312264943</v>
+      </c>
+      <c r="J62" s="44">
+        <f t="shared" si="3"/>
+        <v>-12215.10661299624</v>
+      </c>
       <c r="K62" s="34"/>
       <c r="L62" s="34"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="2">
-        <v>52</v>
-      </c>
-      <c r="C63" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D63" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E63" s="9">
-        <f t="shared" si="4"/>
-        <v>-10150.532020178123</v>
-      </c>
-      <c r="F63" s="9">
-        <f t="shared" si="5"/>
-        <v>-1848.467979821897</v>
-      </c>
-      <c r="J63" s="44"/>
+      <c r="M62" s="45"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="42">
+        <v>58</v>
+      </c>
+      <c r="G63" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H63" s="44">
+        <f t="shared" si="1"/>
+        <v>-10728.107435175401</v>
+      </c>
+      <c r="I63" s="44">
+        <f t="shared" si="2"/>
+        <v>-1270.8925648245995</v>
+      </c>
+      <c r="J63" s="44">
+        <f t="shared" si="3"/>
+        <v>-12202.342810371936</v>
+      </c>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="2">
-        <v>53</v>
-      </c>
-      <c r="C64" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D64" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E64" s="9">
-        <f t="shared" si="4"/>
-        <v>-10231.719530632896</v>
-      </c>
-      <c r="F64" s="9">
-        <f t="shared" si="5"/>
-        <v>-1767.2804693671242</v>
-      </c>
-      <c r="J64" s="44"/>
+      <c r="M63" s="45"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="42">
+        <v>59</v>
+      </c>
+      <c r="G64" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H64" s="44">
+        <f t="shared" si="1"/>
+        <v>-10808.478840043923</v>
+      </c>
+      <c r="I64" s="44">
+        <f t="shared" si="2"/>
+        <v>-1190.5211599560771</v>
+      </c>
+      <c r="J64" s="44">
+        <f t="shared" si="3"/>
+        <v>-12189.483385592972</v>
+      </c>
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="2">
-        <v>54</v>
-      </c>
-      <c r="C65" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D65" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E65" s="9">
-        <f t="shared" si="4"/>
-        <v>-10313.556407233278</v>
-      </c>
-      <c r="F65" s="9">
-        <f t="shared" si="5"/>
-        <v>-1685.4435927667412</v>
-      </c>
-      <c r="J65" s="44"/>
+      <c r="M64" s="45"/>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="42">
+        <v>60</v>
+      </c>
+      <c r="G65" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H65" s="44">
+        <f t="shared" si="1"/>
+        <v>-10889.452360687254</v>
+      </c>
+      <c r="I65" s="44">
+        <f t="shared" si="2"/>
+        <v>-1109.5476393127478</v>
+      </c>
+      <c r="J65" s="44">
+        <f t="shared" si="3"/>
+        <v>-12176.527622290041</v>
+      </c>
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B66" s="2">
-        <v>55</v>
-      </c>
-      <c r="C66" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D66" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E66" s="9">
-        <f t="shared" si="4"/>
-        <v>-10396.047843837156</v>
-      </c>
-      <c r="F66" s="9">
-        <f t="shared" si="5"/>
-        <v>-1602.9521561628655</v>
-      </c>
-      <c r="J66" s="44"/>
+      <c r="M65" s="45"/>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="42">
+        <v>61</v>
+      </c>
+      <c r="G66" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H66" s="44">
+        <f t="shared" si="1"/>
+        <v>-10971.032507956066</v>
+      </c>
+      <c r="I66" s="44">
+        <f t="shared" si="2"/>
+        <v>-1027.9674920439327</v>
+      </c>
+      <c r="J66" s="44">
+        <f t="shared" si="3"/>
+        <v>-12163.474798727028</v>
+      </c>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B67" s="2">
-        <v>56</v>
-      </c>
-      <c r="C67" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D67" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E67" s="9">
-        <f t="shared" si="4"/>
-        <v>-10479.199075844699</v>
-      </c>
-      <c r="F67" s="9">
-        <f t="shared" si="5"/>
-        <v>-1519.8009241553209</v>
-      </c>
-      <c r="J67" s="44"/>
+      <c r="M66" s="45"/>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="42">
+        <v>62</v>
+      </c>
+      <c r="G67" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H67" s="44">
+        <f t="shared" si="1"/>
+        <v>-11053.223826494837</v>
+      </c>
+      <c r="I67" s="44">
+        <f t="shared" si="2"/>
+        <v>-945.77617350516175</v>
+      </c>
+      <c r="J67" s="44">
+        <f t="shared" si="3"/>
+        <v>-12150.324187760825</v>
+      </c>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="43"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B68" s="2">
-        <v>57</v>
-      </c>
-      <c r="C68" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D68" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E68" s="9">
-        <f t="shared" si="4"/>
-        <v>-10563.015380530653</v>
-      </c>
-      <c r="F68" s="9">
-        <f t="shared" si="5"/>
-        <v>-1435.9846194693671</v>
-      </c>
-      <c r="J68" s="44"/>
+      <c r="M67" s="45"/>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="42">
+        <v>63</v>
+      </c>
+      <c r="G68" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H68" s="44">
+        <f t="shared" si="1"/>
+        <v>-11136.030894994996</v>
+      </c>
+      <c r="I68" s="44">
+        <f t="shared" si="2"/>
+        <v>-862.96910500500439</v>
+      </c>
+      <c r="J68" s="44">
+        <f t="shared" si="3"/>
+        <v>-12137.075056800801</v>
+      </c>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B69" s="2">
-        <v>58</v>
-      </c>
-      <c r="C69" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D69" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E69" s="9">
-        <f t="shared" si="4"/>
-        <v>-10647.502077379249</v>
-      </c>
-      <c r="F69" s="9">
-        <f t="shared" si="5"/>
-        <v>-1351.4979226207715</v>
-      </c>
-      <c r="J69" s="44"/>
+      <c r="M68" s="45"/>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="42">
+        <v>64</v>
+      </c>
+      <c r="G69" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H69" s="44">
+        <f t="shared" si="1"/>
+        <v>-11219.45832645</v>
+      </c>
+      <c r="I69" s="44">
+        <f t="shared" si="2"/>
+        <v>-779.54167355000027</v>
+      </c>
+      <c r="J69" s="44">
+        <f t="shared" si="3"/>
+        <v>-12123.726667768</v>
+      </c>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B70" s="2">
-        <v>59</v>
-      </c>
-      <c r="C70" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D70" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E70" s="9">
-        <f t="shared" si="4"/>
-        <v>-10732.664528421816</v>
-      </c>
-      <c r="F70" s="9">
-        <f t="shared" si="5"/>
-        <v>-1266.3354715782034</v>
-      </c>
-      <c r="J70" s="44"/>
+      <c r="M69" s="45"/>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="42">
+        <v>65</v>
+      </c>
+      <c r="G70" s="44">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="H70" s="44">
+        <f t="shared" si="1"/>
+        <v>-11303.51076841232</v>
+      </c>
+      <c r="I70" s="44">
+        <f t="shared" si="2"/>
+        <v>-695.48923158767911</v>
+      </c>
+      <c r="J70" s="44">
+        <f t="shared" si="3"/>
+        <v>-12110.278277054027</v>
+      </c>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B71" s="2">
-        <v>60</v>
-      </c>
-      <c r="C71" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D71" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E71" s="9">
-        <f t="shared" si="4"/>
-        <v>-10818.508138577094</v>
-      </c>
-      <c r="F71" s="9">
-        <f t="shared" si="5"/>
-        <v>-1180.491861422928</v>
-      </c>
-      <c r="J71" s="44"/>
+      <c r="M70" s="45"/>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="42">
+        <v>66</v>
+      </c>
+      <c r="G71" s="44">
+        <f t="shared" ref="G71:G77" si="4">$C$5</f>
+        <v>-11999</v>
+      </c>
+      <c r="H71" s="44">
+        <f t="shared" ref="H71:H77" si="5">-PPMT($C$10,F71,$C$12,$M$6)</f>
+        <v>-11388.192903252342</v>
+      </c>
+      <c r="I71" s="44">
+        <f t="shared" ref="I71:I77" si="6">-IPMT($C$10,F71,$C$12,$M$6)</f>
+        <v>-610.80709674765683</v>
+      </c>
+      <c r="J71" s="44">
+        <f t="shared" ref="J71:J77" si="7">H71+1.16*I71</f>
+        <v>-12096.729135479623</v>
+      </c>
       <c r="K71" s="34"/>
       <c r="L71" s="34"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B72" s="2">
-        <v>61</v>
-      </c>
-      <c r="C72" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D72" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E72" s="9">
+      <c r="M71" s="45"/>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="42">
+        <v>67</v>
+      </c>
+      <c r="G72" s="44">
         <f t="shared" si="4"/>
-        <v>-10905.038355994244</v>
-      </c>
-      <c r="F72" s="9">
+        <v>-11999</v>
+      </c>
+      <c r="H72" s="44">
         <f t="shared" si="5"/>
-        <v>-1093.9616440057771</v>
-      </c>
-      <c r="J72" s="44"/>
+        <v>-11473.509448419209</v>
+      </c>
+      <c r="I72" s="44">
+        <f t="shared" si="6"/>
+        <v>-525.49055158079148</v>
+      </c>
+      <c r="J72" s="44">
+        <f t="shared" si="7"/>
+        <v>-12083.078488252926</v>
+      </c>
       <c r="K72" s="34"/>
       <c r="L72" s="34"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B73" s="2">
-        <v>62</v>
-      </c>
-      <c r="C73" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D73" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E73" s="9">
+      <c r="M72" s="45"/>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="42">
+        <v>68</v>
+      </c>
+      <c r="G73" s="44">
         <f t="shared" si="4"/>
-        <v>-10992.260672398645</v>
-      </c>
-      <c r="F73" s="9">
+        <v>-11999</v>
+      </c>
+      <c r="H73" s="44">
         <f t="shared" si="5"/>
-        <v>-1006.7393276013767</v>
-      </c>
-      <c r="J73" s="44"/>
+        <v>-11559.465156703616</v>
+      </c>
+      <c r="I73" s="44">
+        <f t="shared" si="6"/>
+        <v>-439.53484329638411</v>
+      </c>
+      <c r="J73" s="44">
+        <f t="shared" si="7"/>
+        <v>-12069.325574927421</v>
+      </c>
       <c r="K73" s="34"/>
       <c r="L73" s="34"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B74" s="2">
-        <v>63</v>
-      </c>
-      <c r="C74" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D74" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E74" s="9">
+      <c r="M73" s="45"/>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="42">
+        <v>69</v>
+      </c>
+      <c r="G74" s="44">
         <f t="shared" si="4"/>
-        <v>-11080.18062344041</v>
-      </c>
-      <c r="F74" s="9">
+        <v>-11999</v>
+      </c>
+      <c r="H74" s="44">
         <f t="shared" si="5"/>
-        <v>-918.81937655960962</v>
-      </c>
-      <c r="J74" s="44"/>
+        <v>-11646.064816502587</v>
+      </c>
+      <c r="I74" s="44">
+        <f t="shared" si="6"/>
+        <v>-352.93518349741288</v>
+      </c>
+      <c r="J74" s="44">
+        <f t="shared" si="7"/>
+        <v>-12055.469629359586</v>
+      </c>
       <c r="K74" s="34"/>
       <c r="L74" s="34"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B75" s="2">
-        <v>64</v>
-      </c>
-      <c r="C75" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D75" s="47">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="E75" s="9">
+      <c r="M74" s="45"/>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="42">
+        <v>70</v>
+      </c>
+      <c r="G75" s="44">
         <f t="shared" si="4"/>
-        <v>-11168.803789045727</v>
-      </c>
-      <c r="F75" s="9">
+        <v>-11999</v>
+      </c>
+      <c r="H75" s="44">
         <f t="shared" si="5"/>
-        <v>-830.19621095429125</v>
-      </c>
-      <c r="J75" s="44"/>
+        <v>-11733.313252086218</v>
+      </c>
+      <c r="I75" s="44">
+        <f t="shared" si="6"/>
+        <v>-265.68674791378106</v>
+      </c>
+      <c r="J75" s="44">
+        <f t="shared" si="7"/>
+        <v>-12041.509879666204</v>
+      </c>
       <c r="K75" s="34"/>
       <c r="L75" s="34"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B76" s="2">
-        <v>65</v>
-      </c>
-      <c r="C76" s="47">
-        <f t="shared" si="3"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D76" s="47">
-        <f t="shared" ref="D76:D83" si="6">$C$2</f>
-        <v>-11999</v>
-      </c>
-      <c r="E76" s="9">
-        <f t="shared" ref="E76:E83" si="7">-PPMT($C$7,B76,$C$3,$H$11)</f>
-        <v>-11258.135793770987</v>
-      </c>
-      <c r="F76" s="9">
-        <f t="shared" ref="F76:F83" si="8">-IPMT($C$7,B76,$C$3,$H$11)</f>
-        <v>-740.86420622903188</v>
-      </c>
-      <c r="J76" s="44"/>
+      <c r="M75" s="45"/>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="42">
+        <v>71</v>
+      </c>
+      <c r="G76" s="44">
+        <f t="shared" si="4"/>
+        <v>-11999</v>
+      </c>
+      <c r="H76" s="44">
+        <f t="shared" si="5"/>
+        <v>-11821.21532386643</v>
+      </c>
+      <c r="I76" s="44">
+        <f t="shared" si="6"/>
+        <v>-177.78467613356841</v>
+      </c>
+      <c r="J76" s="44">
+        <f t="shared" si="7"/>
+        <v>-12027.445548181369</v>
+      </c>
       <c r="K76" s="34"/>
       <c r="L76" s="34"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B77" s="2">
-        <v>66</v>
-      </c>
-      <c r="C77" s="47">
-        <f t="shared" ref="C77:C83" si="9">D77*1.16</f>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D77" s="47">
+      <c r="M76" s="45"/>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="42">
+        <v>72</v>
+      </c>
+      <c r="G77" s="44">
+        <f t="shared" si="4"/>
+        <v>-11999</v>
+      </c>
+      <c r="H77" s="44">
+        <f t="shared" si="5"/>
+        <v>-11909.77592866773</v>
+      </c>
+      <c r="I77" s="44">
         <f t="shared" si="6"/>
-        <v>-11999</v>
-      </c>
-      <c r="E77" s="9">
+        <v>-89.224071332269105</v>
+      </c>
+      <c r="J77" s="44">
         <f t="shared" si="7"/>
-        <v>-11348.18230715975</v>
-      </c>
-      <c r="F77" s="9">
-        <f t="shared" si="8"/>
-        <v>-650.81769284026984</v>
-      </c>
-      <c r="J77" s="44"/>
+        <v>-12013.275851413162</v>
+      </c>
       <c r="K77" s="34"/>
       <c r="L77" s="34"/>
-      <c r="M77" s="46"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B78" s="2">
-        <v>67</v>
-      </c>
-      <c r="C78" s="47">
-        <f t="shared" si="9"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D78" s="47">
-        <f t="shared" si="6"/>
-        <v>-11999</v>
-      </c>
-      <c r="E78" s="9">
-        <f t="shared" si="7"/>
-        <v>-11438.949044102572</v>
-      </c>
-      <c r="F78" s="9">
-        <f t="shared" si="8"/>
-        <v>-560.05095589744826</v>
-      </c>
-      <c r="J78" s="44"/>
+      <c r="M77" s="45"/>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="44"/>
+      <c r="J78" s="43"/>
       <c r="K78" s="34"/>
       <c r="L78" s="34"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B79" s="2">
-        <v>68</v>
-      </c>
-      <c r="C79" s="47">
-        <f t="shared" si="9"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D79" s="47">
-        <f t="shared" si="6"/>
-        <v>-11999</v>
-      </c>
-      <c r="E79" s="9">
-        <f t="shared" si="7"/>
-        <v>-11530.441765199706</v>
-      </c>
-      <c r="F79" s="9">
-        <f t="shared" si="8"/>
-        <v>-468.55823480031427</v>
-      </c>
-      <c r="J79" s="44"/>
+      <c r="M78" s="45"/>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="J79" s="43"/>
       <c r="K79" s="34"/>
       <c r="L79" s="34"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="43"/>
-      <c r="O79" s="43"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B80" s="2">
-        <v>69</v>
-      </c>
-      <c r="C80" s="47">
-        <f t="shared" si="9"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D80" s="47">
-        <f t="shared" si="6"/>
-        <v>-11999</v>
-      </c>
-      <c r="E80" s="9">
-        <f t="shared" si="7"/>
-        <v>-11622.666277126704</v>
-      </c>
-      <c r="F80" s="9">
-        <f t="shared" si="8"/>
-        <v>-376.33372287331622</v>
-      </c>
-      <c r="J80" s="44"/>
+      <c r="M79" s="45"/>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="J80" s="43"/>
       <c r="K80" s="34"/>
       <c r="L80" s="34"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B81" s="2">
-        <v>70</v>
-      </c>
-      <c r="C81" s="47">
-        <f t="shared" si="9"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D81" s="47">
-        <f t="shared" si="6"/>
-        <v>-11999</v>
-      </c>
-      <c r="E81" s="9">
-        <f t="shared" si="7"/>
-        <v>-11715.628433002943</v>
-      </c>
-      <c r="F81" s="9">
-        <f t="shared" si="8"/>
-        <v>-283.37156699707731</v>
-      </c>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="43"/>
-      <c r="O81" s="43"/>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B82" s="2">
-        <v>71</v>
-      </c>
-      <c r="C82" s="47">
-        <f t="shared" si="9"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D82" s="47">
-        <f t="shared" si="6"/>
-        <v>-11999</v>
-      </c>
-      <c r="E82" s="9">
-        <f t="shared" si="7"/>
-        <v>-11809.334132763099</v>
-      </c>
-      <c r="F82" s="9">
-        <f t="shared" si="8"/>
-        <v>-189.66586723692205</v>
-      </c>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
-      <c r="M82" s="43"/>
-      <c r="N82" s="43"/>
-      <c r="O82" s="43"/>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B83" s="2">
-        <v>72</v>
-      </c>
-      <c r="C83" s="47">
-        <f t="shared" si="9"/>
-        <v>-13918.839999999998</v>
-      </c>
-      <c r="D83" s="47">
-        <f t="shared" si="6"/>
-        <v>-11999</v>
-      </c>
-      <c r="E83" s="9">
-        <f t="shared" si="7"/>
-        <v>-11903.78932353159</v>
-      </c>
-      <c r="F83" s="9">
-        <f t="shared" si="8"/>
-        <v>-95.210676468430847</v>
-      </c>
-      <c r="J83" s="43"/>
-      <c r="K83" s="43"/>
-      <c r="L83" s="43"/>
-      <c r="M83" s="43"/>
-      <c r="N83" s="43"/>
-      <c r="O83" s="43"/>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J84" s="43"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="43"/>
-      <c r="M84" s="43"/>
-      <c r="N84" s="43"/>
-      <c r="O84" s="43"/>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J85" s="43"/>
-      <c r="K85" s="43"/>
-      <c r="L85" s="43"/>
-      <c r="M85" s="43"/>
-      <c r="N85" s="43"/>
-      <c r="O85" s="43"/>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J86" s="43"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="43"/>
-      <c r="M86" s="43"/>
-      <c r="N86" s="43"/>
-      <c r="O86" s="43"/>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J87" s="43"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="43"/>
-      <c r="M87" s="43"/>
-      <c r="N87" s="43"/>
-      <c r="O87" s="43"/>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J88" s="43"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
-      <c r="M88" s="43"/>
-      <c r="N88" s="43"/>
-      <c r="O88" s="43"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J89" s="43"/>
-      <c r="K89" s="43"/>
-      <c r="L89" s="43"/>
-      <c r="M89" s="43"/>
-      <c r="N89" s="43"/>
-      <c r="O89" s="43"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J90" s="43"/>
-      <c r="K90" s="43"/>
-      <c r="L90" s="43"/>
-      <c r="M90" s="43"/>
-      <c r="N90" s="43"/>
-      <c r="O90" s="43"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J91" s="43"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="43"/>
-      <c r="M91" s="43"/>
-      <c r="N91" s="43"/>
-      <c r="O91" s="43"/>
+      <c r="M80" s="45"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Other/Seventh Semester/Proyectos de Inversion/Casos.xlsx
+++ b/Other/Seventh Semester/Proyectos de Inversion/Casos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalor\Documents\Git\School\Other\Seventh Semester\Proyectos de Inversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE17F47B-7575-40E3-AA87-C3C7659478E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2CE652-BBE1-4D34-9D04-59EE24A18D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="115">
   <si>
     <t xml:space="preserve">Reemplazo vieja maquinaria fresadora </t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>Valor total de los intereses</t>
+  </si>
+  <si>
+    <t>q`</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1035,7 @@
   <dimension ref="B2:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5ECF15-6822-4EE2-B3BE-6B316A49C0F5}">
-  <dimension ref="B2:M31"/>
+  <dimension ref="B2:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2131,6 +2134,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2143,7 +2151,7 @@
   <dimension ref="B2:N30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2856,7 +2864,7 @@
   <dimension ref="B2:Q50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3429,7 +3437,7 @@
   <dimension ref="B3:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J11"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3612,8 +3620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33222DB8-DDDF-4338-8B69-318A6255ED1A}">
   <dimension ref="B2:N83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:P8"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3743,8 +3751,8 @@
         <v>-4935.8048209280569</v>
       </c>
       <c r="J7" s="44">
-        <f t="shared" ref="J7:J70" si="3">H7+1.16*I7</f>
-        <v>-12788.728771348487</v>
+        <f>G7+1.16*I7</f>
+        <v>-17724.533592276544</v>
       </c>
       <c r="L7" s="42" t="s">
         <v>110</v>
@@ -3783,8 +3791,8 @@
         <v>-4882.8897170448427</v>
       </c>
       <c r="J8" s="44">
-        <f t="shared" si="3"/>
-        <v>-12780.262354727172</v>
+        <f t="shared" ref="J8:J70" si="3">G8+1.16*I8</f>
+        <v>-17663.152071772016</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="34" t="s">
@@ -3822,7 +3830,7 @@
       </c>
       <c r="J9" s="44">
         <f t="shared" si="3"/>
-        <v>-12771.732510534672</v>
+        <v>-17601.310701376377</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
@@ -3853,7 +3861,7 @@
       </c>
       <c r="J10" s="44">
         <f t="shared" si="3"/>
-        <v>-12763.13876359276</v>
+        <v>-17539.006036047522</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
@@ -3884,7 +3892,7 @@
       </c>
       <c r="J11" s="44">
         <f t="shared" si="3"/>
-        <v>-12754.480635163342</v>
+        <v>-17476.234604934241</v>
       </c>
       <c r="K11" s="35"/>
       <c r="L11" s="34"/>
@@ -3916,7 +3924,7 @@
       </c>
       <c r="J12" s="44">
         <f t="shared" si="3"/>
-        <v>-12745.757642921775</v>
+        <v>-17412.992911182875</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
@@ -3943,7 +3951,7 @@
       </c>
       <c r="J13" s="44">
         <f t="shared" si="3"/>
-        <v>-12736.969300929999</v>
+        <v>-17349.277431742488</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
@@ -3970,7 +3978,7 @@
       </c>
       <c r="J14" s="44">
         <f t="shared" si="3"/>
-        <v>-12728.115119609465</v>
+        <v>-17285.084617168624</v>
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
@@ -3997,7 +4005,7 @@
       </c>
       <c r="J15" s="44">
         <f t="shared" si="3"/>
-        <v>-12719.194605713874</v>
+        <v>-17220.410891425581</v>
       </c>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
@@ -4024,7 +4032,7 @@
       </c>
       <c r="J16" s="44">
         <f t="shared" si="3"/>
-        <v>-12710.207262301679</v>
+        <v>-17155.252651687177</v>
       </c>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
@@ -4051,7 +4059,7 @@
       </c>
       <c r="J17" s="44">
         <f t="shared" si="3"/>
-        <v>-12701.152588708423</v>
+        <v>-17089.606268136067</v>
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
@@ -4078,7 +4086,7 @@
       </c>
       <c r="J18" s="44">
         <f t="shared" si="3"/>
-        <v>-12692.030080518831</v>
+        <v>-17023.46808376152</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
@@ -4105,7 +4113,7 @@
       </c>
       <c r="J19" s="44">
         <f t="shared" si="3"/>
-        <v>-12682.839229538717</v>
+        <v>-16956.834414155699</v>
       </c>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
@@ -4132,7 +4140,7 @@
       </c>
       <c r="J20" s="44">
         <f t="shared" si="3"/>
-        <v>-12673.579523766677</v>
+        <v>-16889.701547308414</v>
       </c>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
@@ -4159,7 +4167,7 @@
       </c>
       <c r="J21" s="44">
         <f t="shared" si="3"/>
-        <v>-12664.250447365561</v>
+        <v>-16822.065743400333</v>
       </c>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
@@ -4186,7 +4194,7 @@
       </c>
       <c r="J22" s="44">
         <f t="shared" si="3"/>
-        <v>-12654.851480633744</v>
+        <v>-16753.923234594644</v>
       </c>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
@@ -4213,7 +4221,7 @@
       </c>
       <c r="J23" s="44">
         <f t="shared" si="3"/>
-        <v>-12645.382099976156</v>
+        <v>-16685.270224827145</v>
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
@@ -4240,7 +4248,7 @@
       </c>
       <c r="J24" s="44">
         <f t="shared" si="3"/>
-        <v>-12635.841777875146</v>
+        <v>-16616.102889594811</v>
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
@@ -4267,7 +4275,7 @@
       </c>
       <c r="J25" s="44">
         <f t="shared" si="3"/>
-        <v>-12626.229982861059</v>
+        <v>-16546.417375742691</v>
       </c>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
@@ -4294,7 +4302,7 @@
       </c>
       <c r="J26" s="44">
         <f t="shared" si="3"/>
-        <v>-12616.546179482659</v>
+        <v>-16476.209801249297</v>
       </c>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -4321,7 +4329,7 @@
       </c>
       <c r="J27" s="44">
         <f t="shared" si="3"/>
-        <v>-12606.789828277286</v>
+        <v>-16405.476255010322</v>
       </c>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
@@ -4348,7 +4356,7 @@
       </c>
       <c r="J28" s="44">
         <f t="shared" si="3"/>
-        <v>-12596.960385740796</v>
+        <v>-16334.212796620775</v>
       </c>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
@@ -4375,7 +4383,7 @@
       </c>
       <c r="J29" s="44">
         <f t="shared" si="3"/>
-        <v>-12587.057304297305</v>
+        <v>-16262.415456155461</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
@@ -4402,7 +4410,7 @@
       </c>
       <c r="J30" s="44">
         <f t="shared" si="3"/>
-        <v>-12577.080032268666</v>
+        <v>-16190.080233947825</v>
       </c>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
@@ -4429,7 +4437,7 @@
       </c>
       <c r="J31" s="44">
         <f t="shared" si="3"/>
-        <v>-12567.028013843745</v>
+        <v>-16117.203100367149</v>
       </c>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
@@ -4456,7 +4464,7 @@
       </c>
       <c r="J32" s="44">
         <f t="shared" si="3"/>
-        <v>-12556.900689047457</v>
+        <v>-16043.779995594068</v>
       </c>
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
@@ -4483,7 +4491,7 @@
       </c>
       <c r="J33" s="44">
         <f t="shared" si="3"/>
-        <v>-12546.697493709571</v>
+        <v>-15969.806829394392</v>
       </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
@@ -4510,7 +4518,7 @@
       </c>
       <c r="J34" s="44">
         <f t="shared" si="3"/>
-        <v>-12536.417859433277</v>
+        <v>-15895.279480891271</v>
       </c>
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
@@ -4537,7 +4545,7 @@
       </c>
       <c r="J35" s="44">
         <f t="shared" si="3"/>
-        <v>-12526.061213563533</v>
+        <v>-15820.193798335617</v>
       </c>
       <c r="K35" s="34"/>
       <c r="L35" s="34"/>
@@ -4564,7 +4572,7 @@
       </c>
       <c r="J36" s="44">
         <f t="shared" si="3"/>
-        <v>-12515.626979155148</v>
+        <v>-15744.545598874814</v>
       </c>
       <c r="K36" s="34"/>
       <c r="L36" s="34"/>
@@ -4591,7 +4599,7 @@
       </c>
       <c r="J37" s="44">
         <f t="shared" si="3"/>
-        <v>-12505.11457494065</v>
+        <v>-15668.330668319719</v>
       </c>
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
@@ -4618,7 +4626,7 @@
       </c>
       <c r="J38" s="44">
         <f t="shared" si="3"/>
-        <v>-12494.523415297914</v>
+        <v>-15591.544760909879</v>
       </c>
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
@@ -4645,7 +4653,7 @@
       </c>
       <c r="J39" s="44">
         <f t="shared" si="3"/>
-        <v>-12483.852910217522</v>
+        <v>-15514.183599077029</v>
       </c>
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
@@ -4672,7 +4680,7 @@
       </c>
       <c r="J40" s="44">
         <f t="shared" si="3"/>
-        <v>-12473.1024652699</v>
+        <v>-15436.24287320678</v>
       </c>
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
@@ -4699,7 +4707,7 @@
       </c>
       <c r="J41" s="44">
         <f t="shared" si="3"/>
-        <v>-12462.271481572216</v>
+        <v>-15357.718241398556</v>
       </c>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
@@ -4726,7 +4734,7 @@
       </c>
       <c r="J42" s="44">
         <f t="shared" si="3"/>
-        <v>-12451.359355754992</v>
+        <v>-15278.605329223699</v>
       </c>
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
@@ -4753,7 +4761,7 @@
       </c>
       <c r="J43" s="44">
         <f t="shared" si="3"/>
-        <v>-12440.365479928521</v>
+        <v>-15198.8997294818</v>
       </c>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
@@ -4780,7 +4788,7 @@
       </c>
       <c r="J44" s="44">
         <f t="shared" si="3"/>
-        <v>-12429.289241648987</v>
+        <v>-15118.597001955168</v>
       </c>
       <c r="K44" s="34"/>
       <c r="L44" s="34"/>
@@ -4807,7 +4815,7 @@
       </c>
       <c r="J45" s="44">
         <f t="shared" si="3"/>
-        <v>-12418.130023884341</v>
+        <v>-15037.692673161482</v>
       </c>
       <c r="K45" s="34"/>
       <c r="L45" s="34"/>
@@ -4834,7 +4842,7 @@
       </c>
       <c r="J46" s="44">
         <f t="shared" si="3"/>
-        <v>-12406.887204979941</v>
+        <v>-14956.182236104583</v>
       </c>
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
@@ -4861,7 +4869,7 @@
       </c>
       <c r="J47" s="44">
         <f t="shared" si="3"/>
-        <v>-12395.560158623917</v>
+        <v>-14874.061150023401</v>
       </c>
       <c r="K47" s="34"/>
       <c r="L47" s="34"/>
@@ -4888,7 +4896,7 @@
       </c>
       <c r="J48" s="44">
         <f t="shared" si="3"/>
-        <v>-12384.148253812275</v>
+        <v>-14791.324840138992</v>
       </c>
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
@@ -4915,7 +4923,7 @@
       </c>
       <c r="J49" s="44">
         <f t="shared" si="3"/>
-        <v>-12372.650854813752</v>
+        <v>-14707.968697399701</v>
       </c>
       <c r="K49" s="34"/>
       <c r="L49" s="34"/>
@@ -4942,7 +4950,7 @@
       </c>
       <c r="J50" s="44">
         <f t="shared" si="3"/>
-        <v>-12361.067321134398</v>
+        <v>-14623.988078224387</v>
       </c>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
@@ -4969,7 +4977,7 @@
       </c>
       <c r="J51" s="44">
         <f t="shared" si="3"/>
-        <v>-12349.397007481895</v>
+        <v>-14539.37830424375</v>
       </c>
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
@@ -4996,7 +5004,7 @@
       </c>
       <c r="J52" s="44">
         <f t="shared" si="3"/>
-        <v>-12337.639263729616</v>
+        <v>-14454.134662039711</v>
       </c>
       <c r="K52" s="34"/>
       <c r="L52" s="34"/>
@@ -5023,7 +5031,7 @@
       </c>
       <c r="J53" s="44">
         <f t="shared" si="3"/>
-        <v>-12325.79343488039</v>
+        <v>-14368.252402882825</v>
       </c>
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
@@ -5050,7 +5058,7 @@
       </c>
       <c r="J54" s="44">
         <f t="shared" si="3"/>
-        <v>-12313.858861030036</v>
+        <v>-14281.726742467756</v>
       </c>
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
@@ -5077,7 +5085,7 @@
       </c>
       <c r="J55" s="44">
         <f t="shared" si="3"/>
-        <v>-12301.834877330584</v>
+        <v>-14194.552860646741</v>
       </c>
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
@@ -5104,7 +5112,7 @@
       </c>
       <c r="J56" s="44">
         <f t="shared" si="3"/>
-        <v>-12289.720813953252</v>
+        <v>-14106.725901161088</v>
       </c>
       <c r="K56" s="34"/>
       <c r="L56" s="34"/>
@@ -5131,7 +5139,7 @@
       </c>
       <c r="J57" s="44">
         <f t="shared" si="3"/>
-        <v>-12277.515996051119</v>
+        <v>-14018.24097137062</v>
       </c>
       <c r="K57" s="34"/>
       <c r="L57" s="34"/>
@@ -5158,7 +5166,7 @@
       </c>
       <c r="J58" s="44">
         <f t="shared" si="3"/>
-        <v>-12265.219743721536</v>
+        <v>-13929.093141981139</v>
       </c>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
@@ -5185,7 +5193,7 @@
       </c>
       <c r="J59" s="44">
         <f t="shared" si="3"/>
-        <v>-12252.831371968248</v>
+        <v>-13839.277446769813</v>
       </c>
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
@@ -5212,7 +5220,7 @@
       </c>
       <c r="J60" s="44">
         <f t="shared" si="3"/>
-        <v>-12240.350190663245</v>
+        <v>-13748.78888230853</v>
       </c>
       <c r="K60" s="34"/>
       <c r="L60" s="34"/>
@@ -5239,7 +5247,7 @@
       </c>
       <c r="J61" s="44">
         <f t="shared" si="3"/>
-        <v>-12227.775504508299</v>
+        <v>-13657.622407685158</v>
       </c>
       <c r="K61" s="34"/>
       <c r="L61" s="34"/>
@@ -5266,7 +5274,7 @@
       </c>
       <c r="J62" s="44">
         <f t="shared" si="3"/>
-        <v>-12215.10661299624</v>
+        <v>-13565.772944222734</v>
       </c>
       <c r="K62" s="34"/>
       <c r="L62" s="34"/>
@@ -5293,7 +5301,7 @@
       </c>
       <c r="J63" s="44">
         <f t="shared" si="3"/>
-        <v>-12202.342810371936</v>
+        <v>-13473.235375196535</v>
       </c>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
@@ -5320,7 +5328,7 @@
       </c>
       <c r="J64" s="44">
         <f t="shared" si="3"/>
-        <v>-12189.483385592972</v>
+        <v>-13380.004545549049</v>
       </c>
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
@@ -5347,7 +5355,7 @@
       </c>
       <c r="J65" s="44">
         <f t="shared" si="3"/>
-        <v>-12176.527622290041</v>
+        <v>-13286.075261602788</v>
       </c>
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
@@ -5374,7 +5382,7 @@
       </c>
       <c r="J66" s="44">
         <f t="shared" si="3"/>
-        <v>-12163.474798727028</v>
+        <v>-13191.442290770961</v>
       </c>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
@@ -5401,7 +5409,7 @@
       </c>
       <c r="J67" s="44">
         <f t="shared" si="3"/>
-        <v>-12150.324187760825</v>
+        <v>-13096.100361265988</v>
       </c>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
@@ -5428,7 +5436,7 @@
       </c>
       <c r="J68" s="44">
         <f t="shared" si="3"/>
-        <v>-12137.075056800801</v>
+        <v>-13000.044161805805</v>
       </c>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
@@ -5455,7 +5463,7 @@
       </c>
       <c r="J69" s="44">
         <f t="shared" si="3"/>
-        <v>-12123.726667768</v>
+        <v>-12903.268341318</v>
       </c>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
@@ -5482,7 +5490,7 @@
       </c>
       <c r="J70" s="44">
         <f t="shared" si="3"/>
-        <v>-12110.278277054027</v>
+        <v>-12805.767508641708</v>
       </c>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
@@ -5508,8 +5516,8 @@
         <v>-610.80709674765683</v>
       </c>
       <c r="J71" s="44">
-        <f t="shared" ref="J71:J77" si="7">H71+1.16*I71</f>
-        <v>-12096.729135479623</v>
+        <f t="shared" ref="J71:J77" si="7">G71+1.16*I71</f>
+        <v>-12707.536232227281</v>
       </c>
       <c r="K71" s="34"/>
       <c r="L71" s="34"/>
@@ -5536,7 +5544,7 @@
       </c>
       <c r="J72" s="44">
         <f t="shared" si="7"/>
-        <v>-12083.078488252926</v>
+        <v>-12608.569039833717</v>
       </c>
       <c r="K72" s="34"/>
       <c r="L72" s="34"/>
@@ -5563,7 +5571,7 @@
       </c>
       <c r="J73" s="44">
         <f t="shared" si="7"/>
-        <v>-12069.325574927421</v>
+        <v>-12508.860418223805</v>
       </c>
       <c r="K73" s="34"/>
       <c r="L73" s="34"/>
@@ -5590,7 +5598,7 @@
       </c>
       <c r="J74" s="44">
         <f t="shared" si="7"/>
-        <v>-12055.469629359586</v>
+        <v>-12408.404812856999</v>
       </c>
       <c r="K74" s="34"/>
       <c r="L74" s="34"/>
@@ -5617,7 +5625,7 @@
       </c>
       <c r="J75" s="44">
         <f t="shared" si="7"/>
-        <v>-12041.509879666204</v>
+        <v>-12307.196627579986</v>
       </c>
       <c r="K75" s="34"/>
       <c r="L75" s="34"/>
@@ -5644,7 +5652,7 @@
       </c>
       <c r="J76" s="44">
         <f t="shared" si="7"/>
-        <v>-12027.445548181369</v>
+        <v>-12205.230224314939</v>
       </c>
       <c r="K76" s="34"/>
       <c r="L76" s="34"/>
@@ -5671,7 +5679,7 @@
       </c>
       <c r="J77" s="44">
         <f t="shared" si="7"/>
-        <v>-12013.275851413162</v>
+        <v>-12102.499922745432</v>
       </c>
       <c r="K77" s="34"/>
       <c r="L77" s="34"/>
